--- a/Versão5/VEIC/Ontologia_VEICU.xlsx
+++ b/Versão5/VEIC/Ontologia_VEICU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E25F192-F92E-42E3-8F4C-A1A9D2BDB3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05007C8-CFDE-4FD9-87CD-C502B4C6F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="587" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -421,9 +421,6 @@
     <t>Semirreboque</t>
   </si>
   <si>
-    <t>Viária</t>
-  </si>
-  <si>
     <t>Veículo</t>
   </si>
   <si>
@@ -1421,6 +1418,9 @@
   </si>
   <si>
     <t>Un sistema ferroviario en el que los vehículos circulan sobre un solo carril elevado que sirve de guía y de soporte estructural.</t>
+  </si>
+  <si>
+    <t>Rodoviária</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45923.429098726854</v>
+        <v>45923.430777430556</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:XFD75"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2726,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="X1" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>87</v>
       </c>
       <c r="D3" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F3" s="60" t="s">
         <v>105</v>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M3" s="43" t="str">
         <f t="shared" ref="M3:M22" si="6">CONCATENATE("", D3)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N3" s="43" t="str">
         <f t="shared" ref="N3:N22" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
@@ -2871,7 +2871,7 @@
         <v>99</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R3" s="45" t="s">
         <v>1</v>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="T3" s="46" t="str">
         <f t="shared" si="3"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U3" s="46" t="str">
         <f t="shared" ref="U3" si="10">SUBSTITUTE(E3, "_", " ")</f>
@@ -2897,10 +2897,10 @@
         <v>Key.Inf.3</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2914,10 +2914,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>106</v>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="M4" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N4" s="43" t="str">
         <f t="shared" si="7"/>
@@ -2957,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R4" s="45" t="s">
         <v>1</v>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="T4" s="46" t="str">
         <f t="shared" ref="T4:T40" si="11">SUBSTITUTE(D4, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U4" s="43" t="str">
         <f t="shared" ref="U4:U40" si="12">SUBSTITUTE(E4, "_", " ")</f>
@@ -2983,10 +2983,10 @@
         <v>Key.Inf.4</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3000,10 +3000,10 @@
         <v>87</v>
       </c>
       <c r="D5" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="60" t="s">
         <v>107</v>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="M5" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N5" s="43" t="str">
         <f t="shared" si="7"/>
@@ -3043,7 +3043,7 @@
         <v>101</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R5" s="45" t="s">
         <v>1</v>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="T5" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U5" s="43" t="str">
         <f t="shared" si="12"/>
@@ -3069,10 +3069,10 @@
         <v>Key.Inf.5</v>
       </c>
       <c r="X5" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y5" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3086,13 +3086,13 @@
         <v>87</v>
       </c>
       <c r="D6" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F6" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>1</v>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="M6" s="43" t="str">
         <f t="shared" ref="M6:M8" si="15">CONCATENATE("", D6)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N6" s="43" t="str">
         <f t="shared" ref="N6:N8" si="16">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E6),"."," ")," De "," de "))</f>
@@ -3126,10 +3126,10 @@
         <v>Caminhão.Baú</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R6" s="45" t="s">
         <v>1</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="T6" s="46" t="str">
         <f t="shared" ref="T6:T8" si="19">SUBSTITUTE(D6, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U6" s="43" t="str">
         <f t="shared" ref="U6:U8" si="20">SUBSTITUTE(E6, "_", " ")</f>
@@ -3155,10 +3155,10 @@
         <v>Key.Inf.6</v>
       </c>
       <c r="X6" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y6" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>87</v>
       </c>
       <c r="D7" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>1</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="M7" s="43" t="str">
         <f t="shared" si="15"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N7" s="43" t="str">
         <f t="shared" si="16"/>
@@ -3212,10 +3212,10 @@
         <v>Caminhão.Tanque</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R7" s="45" t="s">
         <v>1</v>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="T7" s="46" t="str">
         <f t="shared" si="19"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U7" s="43" t="str">
         <f t="shared" si="20"/>
@@ -3241,10 +3241,10 @@
         <v>Key.Inf.7</v>
       </c>
       <c r="X7" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y7" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3258,13 +3258,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F8" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>1</v>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="M8" s="43" t="str">
         <f t="shared" si="15"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N8" s="43" t="str">
         <f t="shared" si="16"/>
@@ -3298,10 +3298,10 @@
         <v>Caminhão.Caçamba</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R8" s="45" t="s">
         <v>1</v>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="T8" s="46" t="str">
         <f t="shared" si="19"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U8" s="43" t="str">
         <f t="shared" si="20"/>
@@ -3327,10 +3327,10 @@
         <v>Key.Inf.8</v>
       </c>
       <c r="X8" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,13 +3344,13 @@
         <v>87</v>
       </c>
       <c r="D9" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F9" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>1</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="M9" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N9" s="43" t="str">
         <f t="shared" si="7"/>
@@ -3384,10 +3384,10 @@
         <v>Caminhão.BiTrem</v>
       </c>
       <c r="P9" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R9" s="45" t="s">
         <v>1</v>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="T9" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U9" s="43" t="str">
         <f t="shared" si="12"/>
@@ -3413,10 +3413,10 @@
         <v>Key.Inf.9</v>
       </c>
       <c r="X9" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y9" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3430,13 +3430,13 @@
         <v>87</v>
       </c>
       <c r="D10" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E10" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F10" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>1</v>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="M10" s="43" t="str">
         <f t="shared" ref="M10:M12" si="23">CONCATENATE("", D10)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N10" s="43" t="str">
         <f t="shared" ref="N10:N12" si="24">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E10),"."," ")," De "," de "))</f>
@@ -3470,10 +3470,10 @@
         <v>Caminhão.Carroceria</v>
       </c>
       <c r="P10" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R10" s="45" t="s">
         <v>1</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="T10" s="46" t="str">
         <f t="shared" ref="T10:T12" si="27">SUBSTITUTE(D10, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U10" s="43" t="str">
         <f t="shared" ref="U10:U12" si="28">SUBSTITUTE(E10, "_", " ")</f>
@@ -3499,10 +3499,10 @@
         <v>Key.Inf.10</v>
       </c>
       <c r="X10" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y10" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,13 +3516,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E11" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F11" s="60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>1</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="M11" s="43" t="str">
         <f t="shared" si="23"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N11" s="43" t="str">
         <f t="shared" si="24"/>
@@ -3556,10 +3556,10 @@
         <v>Caminhão.Graneleiro</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R11" s="45" t="s">
         <v>1</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="T11" s="46" t="str">
         <f t="shared" si="27"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U11" s="43" t="str">
         <f t="shared" si="28"/>
@@ -3585,10 +3585,10 @@
         <v>Key.Inf.11</v>
       </c>
       <c r="X11" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y11" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3602,13 +3602,13 @@
         <v>87</v>
       </c>
       <c r="D12" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F12" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G12" s="50" t="s">
         <v>1</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="M12" s="43" t="str">
         <f t="shared" si="23"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N12" s="43" t="str">
         <f t="shared" si="24"/>
@@ -3642,10 +3642,10 @@
         <v>Caminhão.Frigorífico</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R12" s="45" t="s">
         <v>1</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="T12" s="46" t="str">
         <f t="shared" si="27"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U12" s="43" t="str">
         <f t="shared" si="28"/>
@@ -3671,10 +3671,10 @@
         <v>Key.Inf.12</v>
       </c>
       <c r="X12" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y12" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3688,13 +3688,13 @@
         <v>87</v>
       </c>
       <c r="D13" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E13" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F13" s="60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>1</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="M13" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N13" s="43" t="str">
         <f t="shared" si="7"/>
@@ -3728,10 +3728,10 @@
         <v>Caminhão.Trator</v>
       </c>
       <c r="P13" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q13" s="47" t="s">
         <v>327</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>328</v>
       </c>
       <c r="R13" s="45" t="s">
         <v>1</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="T13" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U13" s="43" t="str">
         <f t="shared" si="12"/>
@@ -3757,10 +3757,10 @@
         <v>Key.Inf.13</v>
       </c>
       <c r="X13" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y13" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3774,10 +3774,10 @@
         <v>87</v>
       </c>
       <c r="D14" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E14" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F14" s="60" t="s">
         <v>108</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="M14" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N14" s="43" t="str">
         <f t="shared" si="7"/>
@@ -3817,7 +3817,7 @@
         <v>102</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R14" s="45" t="s">
         <v>1</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="T14" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U14" s="43" t="str">
         <f t="shared" si="12"/>
@@ -3843,10 +3843,10 @@
         <v>Key.Inf.14</v>
       </c>
       <c r="X14" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y14" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3860,10 +3860,10 @@
         <v>87</v>
       </c>
       <c r="D15" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>109</v>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="M15" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N15" s="43" t="str">
         <f t="shared" si="7"/>
@@ -3903,7 +3903,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R15" s="45" t="s">
         <v>1</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="T15" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U15" s="43" t="str">
         <f t="shared" si="12"/>
@@ -3929,10 +3929,10 @@
         <v>Key.Inf.15</v>
       </c>
       <c r="X15" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y15" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3946,13 +3946,13 @@
         <v>87</v>
       </c>
       <c r="D16" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E16" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F16" s="60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="50" t="s">
         <v>1</v>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="M16" s="43" t="str">
         <f t="shared" ref="M16" si="31">CONCATENATE("", D16)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N16" s="43" t="str">
         <f t="shared" ref="N16" si="32">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E16),"."," ")," De "," de "))</f>
@@ -3986,10 +3986,10 @@
         <v>Bicicleta</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R16" s="45" t="s">
         <v>1</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="T16" s="46" t="str">
         <f t="shared" ref="T16" si="35">SUBSTITUTE(D16, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U16" s="43" t="str">
         <f t="shared" ref="U16" si="36">SUBSTITUTE(E16, "_", " ")</f>
@@ -4015,10 +4015,10 @@
         <v>Key.Inf.16</v>
       </c>
       <c r="X16" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y16" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4032,10 +4032,10 @@
         <v>87</v>
       </c>
       <c r="D17" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E17" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>110</v>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="M17" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N17" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4072,10 +4072,10 @@
         <v>Motocicleta</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R17" s="45" t="s">
         <v>1</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="T17" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U17" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4101,10 +4101,10 @@
         <v>Key.Inf.17</v>
       </c>
       <c r="X17" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y17" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4118,10 +4118,10 @@
         <v>87</v>
       </c>
       <c r="D18" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>111</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="M18" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N18" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4158,10 +4158,10 @@
         <v>Motoneta</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R18" s="45" t="s">
         <v>1</v>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="T18" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U18" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4187,10 +4187,10 @@
         <v>Key.Inf.18</v>
       </c>
       <c r="X18" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y18" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4204,10 +4204,10 @@
         <v>87</v>
       </c>
       <c r="D19" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E19" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>112</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="M19" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N19" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4244,10 +4244,10 @@
         <v>Triciclo</v>
       </c>
       <c r="P19" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R19" s="45" t="s">
         <v>1</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="T19" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U19" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4273,10 +4273,10 @@
         <v>Key.Inf.19</v>
       </c>
       <c r="X19" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y19" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4290,10 +4290,10 @@
         <v>87</v>
       </c>
       <c r="D20" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>113</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="M20" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N20" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4330,10 +4330,10 @@
         <v>Quadriciclo</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R20" s="45" t="s">
         <v>1</v>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="T20" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U20" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4359,10 +4359,10 @@
         <v>Key.Inf.20</v>
       </c>
       <c r="X20" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y20" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4376,10 +4376,10 @@
         <v>87</v>
       </c>
       <c r="D21" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>114</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="M21" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N21" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4416,10 +4416,10 @@
         <v>Reboque</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q21" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R21" s="45" t="s">
         <v>1</v>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="T21" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U21" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4445,10 +4445,10 @@
         <v>Key.Inf.21</v>
       </c>
       <c r="X21" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y21" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4462,10 +4462,10 @@
         <v>87</v>
       </c>
       <c r="D22" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E22" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>117</v>
       </c>
       <c r="F22" s="60" t="s">
         <v>115</v>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="M22" s="43" t="str">
         <f t="shared" si="6"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N22" s="43" t="str">
         <f t="shared" si="7"/>
@@ -4502,10 +4502,10 @@
         <v>Semirreboque</v>
       </c>
       <c r="P22" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q22" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R22" s="45" t="s">
         <v>1</v>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="T22" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U22" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4531,10 +4531,10 @@
         <v>Key.Inf.22</v>
       </c>
       <c r="X22" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y22" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4548,13 +4548,13 @@
         <v>87</v>
       </c>
       <c r="D23" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="F23" s="60" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" s="60" t="s">
-        <v>118</v>
       </c>
       <c r="G23" s="50" t="s">
         <v>1</v>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="M23" s="43" t="str">
         <f t="shared" ref="M23:M40" si="39">CONCATENATE("", D23)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N23" s="43" t="str">
         <f t="shared" ref="N23:N40" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
@@ -4588,10 +4588,10 @@
         <v>Veículo.Misto</v>
       </c>
       <c r="P23" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R23" s="45" t="s">
         <v>1</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="T23" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U23" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4617,10 +4617,10 @@
         <v>Key.Inf.23</v>
       </c>
       <c r="X23" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y23" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4634,13 +4634,13 @@
         <v>87</v>
       </c>
       <c r="D24" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="E24" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="58" t="s">
-        <v>117</v>
-      </c>
       <c r="F24" s="60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="50" t="s">
         <v>1</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="M24" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N24" s="43" t="str">
         <f t="shared" si="40"/>
@@ -4677,7 +4677,7 @@
         <v>104</v>
       </c>
       <c r="Q24" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R24" s="45" t="s">
         <v>1</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="T24" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U24" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4703,10 +4703,10 @@
         <v>Key.Inf.24</v>
       </c>
       <c r="X24" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y24" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4720,13 +4720,13 @@
         <v>87</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E25" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>1</v>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="M25" s="43" t="str">
         <f t="shared" ref="M25" si="44">CONCATENATE("", D25)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N25" s="43" t="str">
         <f t="shared" ref="N25" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
@@ -4763,7 +4763,7 @@
         <v>96</v>
       </c>
       <c r="Q25" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R25" s="45" t="s">
         <v>1</v>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="T25" s="46" t="str">
         <f t="shared" ref="T25" si="48">SUBSTITUTE(D25, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U25" s="43" t="str">
         <f t="shared" ref="U25" si="49">SUBSTITUTE(E25, "_", " ")</f>
@@ -4789,10 +4789,10 @@
         <v>Key.Inf.25</v>
       </c>
       <c r="X25" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y25" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y25" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="50" t="s">
         <v>1</v>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="M26" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N26" s="43" t="str">
         <f t="shared" si="40"/>
@@ -4849,7 +4849,7 @@
         <v>97</v>
       </c>
       <c r="Q26" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R26" s="45" t="s">
         <v>1</v>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="T26" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U26" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4875,10 +4875,10 @@
         <v>Key.Inf.26</v>
       </c>
       <c r="X26" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y26" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y26" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4892,13 +4892,13 @@
         <v>87</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>1</v>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="M27" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N27" s="43" t="str">
         <f t="shared" si="40"/>
@@ -4932,10 +4932,10 @@
         <v>Viela.Urbana</v>
       </c>
       <c r="P27" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q27" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R27" s="45" t="s">
         <v>1</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="T27" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U27" s="43" t="str">
         <f t="shared" si="12"/>
@@ -4961,10 +4961,10 @@
         <v>Key.Inf.27</v>
       </c>
       <c r="X27" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y27" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y27" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4978,13 +4978,13 @@
         <v>87</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>1</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="M28" s="43" t="str">
         <f t="shared" ref="M28" si="52">CONCATENATE("", D28)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N28" s="43" t="str">
         <f t="shared" ref="N28" si="53">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
@@ -5018,10 +5018,10 @@
         <v>Rua.Local.Urbana</v>
       </c>
       <c r="P28" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R28" s="45" t="s">
         <v>1</v>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="T28" s="46" t="str">
         <f t="shared" ref="T28" si="56">SUBSTITUTE(D28, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U28" s="43" t="str">
         <f t="shared" ref="U28" si="57">SUBSTITUTE(E28, "_", " ")</f>
@@ -5047,10 +5047,10 @@
         <v>Key.Inf.28</v>
       </c>
       <c r="X28" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y28" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y28" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5064,13 +5064,13 @@
         <v>87</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G29" s="50" t="s">
         <v>1</v>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="M29" s="43" t="str">
         <f t="shared" ref="M29" si="60">CONCATENATE("", D29)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N29" s="43" t="str">
         <f t="shared" ref="N29" si="61">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
@@ -5104,10 +5104,10 @@
         <v>Rua.Coletora.Urbana</v>
       </c>
       <c r="P29" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R29" s="45" t="s">
         <v>1</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="T29" s="46" t="str">
         <f t="shared" ref="T29" si="64">SUBSTITUTE(D29, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U29" s="43" t="str">
         <f t="shared" ref="U29" si="65">SUBSTITUTE(E29, "_", " ")</f>
@@ -5133,10 +5133,10 @@
         <v>Key.Inf.29</v>
       </c>
       <c r="X29" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y29" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y29" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5150,13 +5150,13 @@
         <v>87</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E30" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" s="50" t="s">
         <v>1</v>
@@ -5179,7 +5179,7 @@
       </c>
       <c r="M30" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N30" s="43" t="str">
         <f t="shared" si="40"/>
@@ -5190,10 +5190,10 @@
         <v>Avenida.Arterial</v>
       </c>
       <c r="P30" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R30" s="45" t="s">
         <v>1</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="T30" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U30" s="43" t="str">
         <f t="shared" si="12"/>
@@ -5219,10 +5219,10 @@
         <v>Key.Inf.30</v>
       </c>
       <c r="X30" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y30" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y30" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5236,13 +5236,13 @@
         <v>87</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="50" t="s">
         <v>1</v>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="M31" s="43" t="str">
         <f t="shared" ref="M31" si="68">CONCATENATE("", D31)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N31" s="43" t="str">
         <f t="shared" ref="N31" si="69">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
@@ -5276,10 +5276,10 @@
         <v>Avenida.Expressa</v>
       </c>
       <c r="P31" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q31" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R31" s="45" t="s">
         <v>1</v>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="T31" s="46" t="str">
         <f t="shared" ref="T31" si="72">SUBSTITUTE(D31, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U31" s="43" t="str">
         <f t="shared" ref="U31" si="73">SUBSTITUTE(E31, "_", " ")</f>
@@ -5305,10 +5305,10 @@
         <v>Key.Inf.31</v>
       </c>
       <c r="X31" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y31" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y31" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5322,13 +5322,13 @@
         <v>87</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>1</v>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="M32" s="43" t="str">
         <f t="shared" ref="M32:M35" si="76">CONCATENATE("", D32)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N32" s="43" t="str">
         <f t="shared" ref="N32:N35" si="77">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
@@ -5365,7 +5365,7 @@
         <v>98</v>
       </c>
       <c r="Q32" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R32" s="45" t="s">
         <v>1</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="T32" s="46" t="str">
         <f t="shared" ref="T32:T35" si="80">SUBSTITUTE(D32, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U32" s="43" t="str">
         <f t="shared" ref="U32:U35" si="81">SUBSTITUTE(E32, "_", " ")</f>
@@ -5391,10 +5391,10 @@
         <v>Key.Inf.32</v>
       </c>
       <c r="X32" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y32" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y32" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5408,13 +5408,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E33" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="60" t="s">
         <v>127</v>
-      </c>
-      <c r="F33" s="60" t="s">
-        <v>128</v>
       </c>
       <c r="G33" s="50" t="s">
         <v>1</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="M33" s="43" t="str">
         <f t="shared" si="76"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N33" s="43" t="str">
         <f t="shared" si="77"/>
@@ -5448,10 +5448,10 @@
         <v>Meio.Fio</v>
       </c>
       <c r="P33" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q33" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R33" s="45" t="s">
         <v>1</v>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="T33" s="46" t="str">
         <f t="shared" si="80"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U33" s="43" t="str">
         <f t="shared" si="81"/>
@@ -5477,10 +5477,10 @@
         <v>Key.Inf.33</v>
       </c>
       <c r="X33" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y33" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5494,13 +5494,13 @@
         <v>87</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>1</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="M34" s="43" t="str">
         <f t="shared" si="76"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N34" s="43" t="str">
         <f t="shared" si="77"/>
@@ -5534,10 +5534,10 @@
         <v>Calçada</v>
       </c>
       <c r="P34" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R34" s="45" t="s">
         <v>1</v>
@@ -5548,7 +5548,7 @@
       </c>
       <c r="T34" s="46" t="str">
         <f t="shared" si="80"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U34" s="43" t="str">
         <f t="shared" si="81"/>
@@ -5563,10 +5563,10 @@
         <v>Key.Inf.34</v>
       </c>
       <c r="X34" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y34" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y34" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5580,13 +5580,13 @@
         <v>87</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="50" t="s">
         <v>1</v>
@@ -5609,7 +5609,7 @@
       </c>
       <c r="M35" s="43" t="str">
         <f t="shared" si="76"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N35" s="43" t="str">
         <f t="shared" si="77"/>
@@ -5620,10 +5620,10 @@
         <v>Ciclofaixa</v>
       </c>
       <c r="P35" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q35" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R35" s="45" t="s">
         <v>1</v>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="T35" s="46" t="str">
         <f t="shared" si="80"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U35" s="43" t="str">
         <f t="shared" si="81"/>
@@ -5649,10 +5649,10 @@
         <v>Key.Inf.35</v>
       </c>
       <c r="X35" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y35" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y35" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>87</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>1</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="M36" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N36" s="43" t="str">
         <f t="shared" si="40"/>
@@ -5706,10 +5706,10 @@
         <v>Ciclovia</v>
       </c>
       <c r="P36" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q36" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>1</v>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="T36" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U36" s="43" t="str">
         <f t="shared" si="12"/>
@@ -5735,10 +5735,10 @@
         <v>Key.Inf.36</v>
       </c>
       <c r="X36" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y36" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y36" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5752,13 +5752,13 @@
         <v>87</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G37" s="50" t="s">
         <v>1</v>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="M37" s="43" t="str">
         <f t="shared" ref="M37:M39" si="84">CONCATENATE("", D37)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N37" s="43" t="str">
         <f t="shared" ref="N37:N39" si="85">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E37),"."," ")," De "," de "))</f>
@@ -5795,7 +5795,7 @@
         <v>94</v>
       </c>
       <c r="Q37" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R37" s="45" t="s">
         <v>1</v>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="T37" s="46" t="str">
         <f t="shared" ref="T37:T39" si="88">SUBSTITUTE(D37, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U37" s="43" t="str">
         <f t="shared" ref="U37:U39" si="89">SUBSTITUTE(E37, "_", " ")</f>
@@ -5821,10 +5821,10 @@
         <v>Key.Inf.37</v>
       </c>
       <c r="X37" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y37" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5838,13 +5838,13 @@
         <v>87</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G38" s="50" t="s">
         <v>1</v>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="M38" s="43" t="str">
         <f t="shared" si="84"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N38" s="43" t="str">
         <f t="shared" si="85"/>
@@ -5878,10 +5878,10 @@
         <v>Contenção.Cortina</v>
       </c>
       <c r="P38" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q38" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R38" s="45" t="s">
         <v>1</v>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="T38" s="46" t="str">
         <f t="shared" si="88"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U38" s="43" t="str">
         <f t="shared" si="89"/>
@@ -5907,10 +5907,10 @@
         <v>Key.Inf.38</v>
       </c>
       <c r="X38" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y38" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5924,13 +5924,13 @@
         <v>87</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G39" s="50" t="s">
         <v>1</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="M39" s="43" t="str">
         <f t="shared" si="84"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N39" s="43" t="str">
         <f t="shared" si="85"/>
@@ -5967,7 +5967,7 @@
         <v>95</v>
       </c>
       <c r="Q39" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R39" s="45" t="s">
         <v>1</v>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="T39" s="46" t="str">
         <f t="shared" si="88"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U39" s="43" t="str">
         <f t="shared" si="89"/>
@@ -5993,10 +5993,10 @@
         <v>Key.Inf.39</v>
       </c>
       <c r="X39" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y39" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6010,13 +6010,13 @@
         <v>87</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G40" s="50" t="s">
         <v>1</v>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="M40" s="43" t="str">
         <f t="shared" si="39"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N40" s="43" t="str">
         <f t="shared" si="40"/>
@@ -6050,10 +6050,10 @@
         <v>Contenção.GuardaRail</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q40" s="47" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R40" s="45" t="s">
         <v>1</v>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="T40" s="46" t="str">
         <f t="shared" si="11"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U40" s="43" t="str">
         <f t="shared" si="12"/>
@@ -6079,10 +6079,10 @@
         <v>Key.Inf.40</v>
       </c>
       <c r="X40" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y40" s="46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6096,13 +6096,13 @@
         <v>87</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G41" s="50" t="s">
         <v>1</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="M41" s="43" t="str">
         <f t="shared" ref="M41:M46" si="92">CONCATENATE("", D41)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N41" s="43" t="str">
         <f t="shared" ref="N41:N67" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
@@ -6139,7 +6139,7 @@
         <v>93</v>
       </c>
       <c r="Q41" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R41" s="45" t="s">
         <v>1</v>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="T41" s="46" t="str">
         <f t="shared" ref="T41:T46" si="96">SUBSTITUTE(D41, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U41" s="43" t="str">
         <f t="shared" ref="U41:U46" si="97">SUBSTITUTE(E41, "_", " ")</f>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="Y41" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6182,13 +6182,13 @@
         <v>87</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="50" t="s">
         <v>1</v>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="M42" s="43" t="str">
         <f t="shared" si="92"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N42" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6222,10 +6222,10 @@
         <v>Viaduto</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q42" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="R42" s="45" t="s">
         <v>1</v>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="T42" s="46" t="str">
         <f t="shared" si="96"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U42" s="43" t="str">
         <f t="shared" si="97"/>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="Y42" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6268,13 +6268,13 @@
         <v>87</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F43" s="60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="50" t="s">
         <v>1</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="M43" s="43" t="str">
         <f t="shared" si="92"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N43" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6308,10 +6308,10 @@
         <v>Passarela</v>
       </c>
       <c r="P43" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q43" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="R43" s="45" t="s">
         <v>1</v>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="T43" s="46" t="str">
         <f t="shared" si="96"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U43" s="43" t="str">
         <f t="shared" si="97"/>
@@ -6340,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="Y43" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6354,13 +6354,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G44" s="50" t="s">
         <v>1</v>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="M44" s="43" t="str">
         <f t="shared" si="92"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N44" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6394,10 +6394,10 @@
         <v>Túnel.Terrestre</v>
       </c>
       <c r="P44" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q44" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R44" s="45" t="s">
         <v>1</v>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="T44" s="46" t="str">
         <f t="shared" si="96"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U44" s="43" t="str">
         <f t="shared" si="97"/>
@@ -6426,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="Y44" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6440,13 +6440,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G45" s="50" t="s">
         <v>1</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="M45" s="43" t="str">
         <f t="shared" ref="M45" si="100">CONCATENATE("", D45)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N45" s="43" t="str">
         <f t="shared" ref="N45" si="101">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
@@ -6480,10 +6480,10 @@
         <v>Túnel.Acuático</v>
       </c>
       <c r="P45" s="48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q45" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R45" s="45" t="s">
         <v>1</v>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="T45" s="46" t="str">
         <f t="shared" ref="T45" si="104">SUBSTITUTE(D45, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U45" s="43" t="str">
         <f t="shared" ref="U45" si="105">SUBSTITUTE(E45, "_", " ")</f>
@@ -6512,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6526,13 +6526,13 @@
         <v>87</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" s="50" t="s">
         <v>1</v>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="M46" s="43" t="str">
         <f t="shared" si="92"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N46" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6566,10 +6566,10 @@
         <v>Garagem</v>
       </c>
       <c r="P46" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q46" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R46" s="45" t="s">
         <v>1</v>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="T46" s="46" t="str">
         <f t="shared" si="96"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U46" s="43" t="str">
         <f t="shared" si="97"/>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="Y46" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6612,13 +6612,13 @@
         <v>87</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E47" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="79" t="s">
         <v>188</v>
-      </c>
-      <c r="F47" s="79" t="s">
-        <v>189</v>
       </c>
       <c r="G47" s="42" t="s">
         <v>1</v>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="M47" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N47" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6652,10 +6652,10 @@
         <v>OAE.Aparelho.Apóio</v>
       </c>
       <c r="P47" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q47" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R47" s="45" t="s">
         <v>1</v>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="T47" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U47" s="46" t="str">
         <f t="shared" si="108"/>
@@ -6681,10 +6681,10 @@
         <v>Key.Inf.47</v>
       </c>
       <c r="X47" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y47" s="46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6698,13 +6698,13 @@
         <v>87</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F48" s="79" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="42" t="s">
         <v>1</v>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="M48" s="43" t="str">
         <f t="shared" ref="M48" si="111">CONCATENATE("", D48)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N48" s="43" t="str">
         <f t="shared" ref="N48" si="112">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E48),"."," ")," De "," de "))</f>
@@ -6738,10 +6738,10 @@
         <v>OAE.Estaca</v>
       </c>
       <c r="P48" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q48" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R48" s="45" t="s">
         <v>1</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="T48" s="46" t="str">
         <f t="shared" ref="T48" si="115">SUBSTITUTE(D48, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U48" s="46" t="str">
         <f t="shared" ref="U48" si="116">SUBSTITUTE(E48, "_", " ")</f>
@@ -6767,10 +6767,10 @@
         <v>Key.Inf.48</v>
       </c>
       <c r="X48" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y48" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6784,13 +6784,13 @@
         <v>87</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="42" t="s">
         <v>1</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="M49" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N49" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6824,10 +6824,10 @@
         <v>OAE.Fundação</v>
       </c>
       <c r="P49" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q49" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R49" s="45" t="s">
         <v>1</v>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="T49" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U49" s="46" t="str">
         <f t="shared" si="108"/>
@@ -6853,10 +6853,10 @@
         <v>Key.Inf.49</v>
       </c>
       <c r="X49" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y49" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6870,13 +6870,13 @@
         <v>87</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" s="79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="42" t="s">
         <v>1</v>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="M50" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N50" s="43" t="str">
         <f t="shared" si="93"/>
@@ -6910,10 +6910,10 @@
         <v>OAE.Encontro</v>
       </c>
       <c r="P50" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q50" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R50" s="45" t="s">
         <v>1</v>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="T50" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U50" s="46" t="str">
         <f t="shared" si="108"/>
@@ -6939,10 +6939,10 @@
         <v>Key.Inf.50</v>
       </c>
       <c r="X50" s="46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6956,13 +6956,13 @@
         <v>87</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F51" s="79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="42" t="s">
         <v>1</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="M51" s="43" t="str">
         <f t="shared" ref="M51:M53" si="119">CONCATENATE("", D51)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N51" s="43" t="str">
         <f t="shared" ref="N51:N53" si="120">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E51),"."," ")," De "," de "))</f>
@@ -6996,10 +6996,10 @@
         <v>OAE.Pilone</v>
       </c>
       <c r="P51" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q51" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R51" s="45" t="s">
         <v>1</v>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="T51" s="46" t="str">
         <f t="shared" ref="T51:T53" si="123">SUBSTITUTE(D51, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U51" s="46" t="str">
         <f t="shared" ref="U51:U53" si="124">SUBSTITUTE(E51, "_", " ")</f>
@@ -7025,10 +7025,10 @@
         <v>Key.Inf.51</v>
       </c>
       <c r="X51" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7042,13 +7042,13 @@
         <v>87</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G52" s="42" t="s">
         <v>1</v>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="M52" s="43" t="str">
         <f t="shared" ref="M52" si="127">CONCATENATE("", D52)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N52" s="43" t="str">
         <f t="shared" ref="N52" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E52),"."," ")," De "," de "))</f>
@@ -7082,10 +7082,10 @@
         <v>OAE.Arco</v>
       </c>
       <c r="P52" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q52" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R52" s="45" t="s">
         <v>1</v>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="T52" s="46" t="str">
         <f t="shared" ref="T52" si="131">SUBSTITUTE(D52, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U52" s="46" t="str">
         <f t="shared" ref="U52" si="132">SUBSTITUTE(E52, "_", " ")</f>
@@ -7111,10 +7111,10 @@
         <v>Key.Inf.52</v>
       </c>
       <c r="X52" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Y52" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7128,13 +7128,13 @@
         <v>87</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F53" s="79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>1</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="M53" s="43" t="str">
         <f t="shared" si="119"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N53" s="43" t="str">
         <f t="shared" si="120"/>
@@ -7168,10 +7168,10 @@
         <v>OAE.Torre</v>
       </c>
       <c r="P53" s="44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q53" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R53" s="45" t="s">
         <v>1</v>
@@ -7182,7 +7182,7 @@
       </c>
       <c r="T53" s="46" t="str">
         <f t="shared" si="123"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U53" s="46" t="str">
         <f t="shared" si="124"/>
@@ -7197,10 +7197,10 @@
         <v>Key.Inf.53</v>
       </c>
       <c r="X53" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y53" s="46" t="s">
         <v>165</v>
-      </c>
-      <c r="Y53" s="46" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7214,13 +7214,13 @@
         <v>87</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F54" s="79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" s="42" t="s">
         <v>1</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="M54" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N54" s="43" t="str">
         <f t="shared" si="93"/>
@@ -7254,10 +7254,10 @@
         <v>OAE.Mastro</v>
       </c>
       <c r="P54" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q54" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R54" s="45" t="s">
         <v>1</v>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="T54" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U54" s="46" t="str">
         <f t="shared" si="108"/>
@@ -7283,10 +7283,10 @@
         <v>Key.Inf.54</v>
       </c>
       <c r="X54" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y54" s="46" t="s">
         <v>165</v>
-      </c>
-      <c r="Y54" s="46" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7300,13 +7300,13 @@
         <v>87</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F55" s="79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G55" s="42" t="s">
         <v>1</v>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="M55" s="43" t="str">
         <f t="shared" ref="M55" si="135">CONCATENATE("", D55)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N55" s="43" t="str">
         <f t="shared" ref="N55" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E55),"."," ")," De "," de "))</f>
@@ -7340,10 +7340,10 @@
         <v>OAE.Tabuleiro</v>
       </c>
       <c r="P55" s="44" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q55" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R55" s="45" t="s">
         <v>1</v>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="T55" s="46" t="str">
         <f t="shared" ref="T55" si="139">SUBSTITUTE(D55, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U55" s="46" t="str">
         <f t="shared" ref="U55" si="140">SUBSTITUTE(E55, "_", " ")</f>
@@ -7369,10 +7369,10 @@
         <v>Key.Inf.55</v>
       </c>
       <c r="X55" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y55" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7386,13 +7386,13 @@
         <v>87</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G56" s="42" t="s">
         <v>1</v>
@@ -7415,7 +7415,7 @@
       </c>
       <c r="M56" s="43" t="str">
         <f t="shared" ref="M56:M59" si="143">CONCATENATE("", D56)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N56" s="43" t="str">
         <f t="shared" ref="N56:N59" si="144">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E56),"."," ")," De "," de "))</f>
@@ -7426,10 +7426,10 @@
         <v>OAE.Estai</v>
       </c>
       <c r="P56" s="44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q56" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R56" s="45" t="s">
         <v>1</v>
@@ -7440,7 +7440,7 @@
       </c>
       <c r="T56" s="46" t="str">
         <f t="shared" ref="T56:T59" si="147">SUBSTITUTE(D56, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U56" s="46" t="str">
         <f t="shared" ref="U56:U59" si="148">SUBSTITUTE(E56, "_", " ")</f>
@@ -7455,10 +7455,10 @@
         <v>Key.Inf.56</v>
       </c>
       <c r="X56" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y56" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7472,13 +7472,13 @@
         <v>87</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F57" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>1</v>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="M57" s="43" t="str">
         <f t="shared" ref="M57" si="151">CONCATENATE("", D57)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N57" s="43" t="str">
         <f t="shared" ref="N57" si="152">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E57),"."," ")," De "," de "))</f>
@@ -7512,10 +7512,10 @@
         <v>OAE.Longarina.de.Bordo</v>
       </c>
       <c r="P57" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q57" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R57" s="45" t="s">
         <v>1</v>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="T57" s="46" t="str">
         <f t="shared" ref="T57" si="155">SUBSTITUTE(D57, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U57" s="46" t="str">
         <f t="shared" ref="U57" si="156">SUBSTITUTE(E57, "_", " ")</f>
@@ -7541,10 +7541,10 @@
         <v>Key.Inf.57</v>
       </c>
       <c r="X57" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y57" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7558,13 +7558,13 @@
         <v>87</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F58" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G58" s="42" t="s">
         <v>1</v>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="M58" s="43" t="str">
         <f t="shared" si="143"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N58" s="43" t="str">
         <f t="shared" si="144"/>
@@ -7598,10 +7598,10 @@
         <v>OAE.Longarina.Interna</v>
       </c>
       <c r="P58" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q58" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R58" s="45" t="s">
         <v>1</v>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="T58" s="46" t="str">
         <f t="shared" si="147"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U58" s="46" t="str">
         <f t="shared" si="148"/>
@@ -7627,10 +7627,10 @@
         <v>Key.Inf.58</v>
       </c>
       <c r="X58" s="46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y58" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7644,13 +7644,13 @@
         <v>87</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F59" s="79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G59" s="42" t="s">
         <v>1</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="M59" s="43" t="str">
         <f t="shared" si="143"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N59" s="43" t="str">
         <f t="shared" si="144"/>
@@ -7684,10 +7684,10 @@
         <v>OAE.Transversina</v>
       </c>
       <c r="P59" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q59" s="47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R59" s="45" t="s">
         <v>1</v>
@@ -7698,7 +7698,7 @@
       </c>
       <c r="T59" s="46" t="str">
         <f t="shared" si="147"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U59" s="46" t="str">
         <f t="shared" si="148"/>
@@ -7713,10 +7713,10 @@
         <v>Key.Inf.59</v>
       </c>
       <c r="X59" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y59" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7730,13 +7730,13 @@
         <v>87</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F60" s="79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G60" s="42" t="s">
         <v>1</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="M60" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N60" s="43" t="str">
         <f t="shared" si="93"/>
@@ -7770,10 +7770,10 @@
         <v>OAE.Contraventamento</v>
       </c>
       <c r="P60" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q60" s="47" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R60" s="45" t="s">
         <v>1</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="T60" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U60" s="46" t="str">
         <f t="shared" si="108"/>
@@ -7799,10 +7799,10 @@
         <v>Key.Inf.60</v>
       </c>
       <c r="X60" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y60" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7816,13 +7816,13 @@
         <v>87</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F61" s="79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="42" t="s">
         <v>1</v>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="M61" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N61" s="43" t="str">
         <f t="shared" si="93"/>
@@ -7856,10 +7856,10 @@
         <v>OAE.Diafragma</v>
       </c>
       <c r="P61" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q61" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R61" s="45" t="s">
         <v>1</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="T61" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U61" s="46" t="str">
         <f t="shared" si="108"/>
@@ -7885,10 +7885,10 @@
         <v>Key.Inf.61</v>
       </c>
       <c r="X61" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y61" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7902,13 +7902,13 @@
         <v>87</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F62" s="79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>1</v>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="M62" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N62" s="43" t="str">
         <f t="shared" si="93"/>
@@ -7942,10 +7942,10 @@
         <v>OAE.Treliça</v>
       </c>
       <c r="P62" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q62" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R62" s="45" t="s">
         <v>1</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="T62" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U62" s="46" t="str">
         <f t="shared" si="108"/>
@@ -7971,10 +7971,10 @@
         <v>Key.Inf.62</v>
       </c>
       <c r="X62" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y62" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7988,13 +7988,13 @@
         <v>87</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F63" s="79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="42" t="s">
         <v>1</v>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="M63" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N63" s="43" t="str">
         <f t="shared" si="93"/>
@@ -8028,10 +8028,10 @@
         <v>OAE.Defesa</v>
       </c>
       <c r="P63" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q63" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R63" s="45" t="s">
         <v>1</v>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="T63" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U63" s="46" t="str">
         <f t="shared" si="108"/>
@@ -8057,10 +8057,10 @@
         <v>Key.Inf.63</v>
       </c>
       <c r="X63" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y63" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8074,13 +8074,13 @@
         <v>87</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F64" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G64" s="42" t="s">
         <v>1</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="M64" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N64" s="43" t="str">
         <f t="shared" si="93"/>
@@ -8114,10 +8114,10 @@
         <v>OAE.Rolamento</v>
       </c>
       <c r="P64" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q64" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R64" s="45" t="s">
         <v>1</v>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="T64" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U64" s="46" t="str">
         <f t="shared" si="108"/>
@@ -8143,10 +8143,10 @@
         <v>Key.Inf.64</v>
       </c>
       <c r="X64" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y64" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y64" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8160,13 +8160,13 @@
         <v>87</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F65" s="79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G65" s="42" t="s">
         <v>1</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="M65" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N65" s="43" t="str">
         <f t="shared" si="93"/>
@@ -8200,10 +8200,10 @@
         <v>OAE.Leito</v>
       </c>
       <c r="P65" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q65" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R65" s="45" t="s">
         <v>1</v>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="T65" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U65" s="46" t="str">
         <f t="shared" si="108"/>
@@ -8229,10 +8229,10 @@
         <v>Key.Inf.65</v>
       </c>
       <c r="X65" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y65" s="81" t="s">
         <v>173</v>
-      </c>
-      <c r="Y65" s="81" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,13 +8246,13 @@
         <v>87</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F66" s="79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G66" s="42" t="s">
         <v>1</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="M66" s="43" t="str">
         <f t="shared" ref="M66" si="159">CONCATENATE("", D66)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N66" s="43" t="str">
         <f t="shared" ref="N66" si="160">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E66),"."," ")," De "," de "))</f>
@@ -8286,10 +8286,10 @@
         <v>OAE.Junta</v>
       </c>
       <c r="P66" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q66" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R66" s="45" t="s">
         <v>1</v>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="T66" s="46" t="str">
         <f t="shared" ref="T66" si="163">SUBSTITUTE(D66, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U66" s="46" t="str">
         <f t="shared" ref="U66" si="164">SUBSTITUTE(E66, "_", " ")</f>
@@ -8315,10 +8315,10 @@
         <v>Key.Inf.66</v>
       </c>
       <c r="X66" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Y66" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8332,13 +8332,13 @@
         <v>87</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F67" s="79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G67" s="42" t="s">
         <v>1</v>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="M67" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N67" s="43" t="str">
         <f t="shared" si="93"/>
@@ -8372,10 +8372,10 @@
         <v>OAE.Drenagem</v>
       </c>
       <c r="P67" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q67" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R67" s="45" t="s">
         <v>1</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="T67" s="46" t="str">
         <f t="shared" si="108"/>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U67" s="46" t="str">
         <f t="shared" si="108"/>
@@ -8401,10 +8401,10 @@
         <v>Key.Inf.67</v>
       </c>
       <c r="X67" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y67" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="Y67" s="82" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8418,13 +8418,13 @@
         <v>87</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E68" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F68" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G68" s="42" t="s">
         <v>1</v>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="M68" s="43" t="str">
         <f t="shared" ref="M68" si="167">CONCATENATE("", D68)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N68" s="43" t="str">
         <f t="shared" ref="N68" si="168">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E68),"."," ")," De "," de "))</f>
@@ -8458,10 +8458,10 @@
         <v>OAE.Sinalização</v>
       </c>
       <c r="P68" s="44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q68" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R68" s="45" t="s">
         <v>1</v>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="T68" s="46" t="str">
         <f t="shared" ref="T68" si="171">SUBSTITUTE(D68, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U68" s="46" t="str">
         <f t="shared" ref="U68" si="172">SUBSTITUTE(E68, "_", " ")</f>
@@ -8487,10 +8487,10 @@
         <v>Key.Inf.68</v>
       </c>
       <c r="X68" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y68" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8504,13 +8504,13 @@
         <v>87</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="E69" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F69" s="79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G69" s="42" t="s">
         <v>1</v>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="M69" s="43" t="str">
         <f t="shared" ref="M69:M81" si="175">CONCATENATE("", D69)</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="N69" s="43" t="str">
         <f t="shared" ref="N69:N74" si="176">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
@@ -8544,10 +8544,10 @@
         <v>OAE.Iluminação</v>
       </c>
       <c r="P69" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q69" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R69" s="45" t="s">
         <v>1</v>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="T69" s="46" t="str">
         <f t="shared" ref="T69:T81" si="179">SUBSTITUTE(D69, "_", " ")</f>
-        <v>Viária</v>
+        <v>Rodoviária</v>
       </c>
       <c r="U69" s="46" t="str">
         <f t="shared" ref="U69:U81" si="180">SUBSTITUTE(E69, "_", " ")</f>
@@ -8573,10 +8573,10 @@
         <v>Key.Inf.69</v>
       </c>
       <c r="X69" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y69" s="46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8590,13 +8590,13 @@
         <v>87</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F70" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G70" s="50" t="s">
         <v>1</v>
@@ -8630,10 +8630,10 @@
         <v>Locomotiva</v>
       </c>
       <c r="P70" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q70" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R70" s="45" t="s">
         <v>1</v>
@@ -8659,10 +8659,10 @@
         <v>Key.Inf.70</v>
       </c>
       <c r="X70" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y70" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8676,13 +8676,13 @@
         <v>87</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E71" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G71" s="50" t="s">
         <v>1</v>
@@ -8716,10 +8716,10 @@
         <v>Vagão.Carga</v>
       </c>
       <c r="P71" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q71" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R71" s="45" t="s">
         <v>1</v>
@@ -8745,10 +8745,10 @@
         <v>Key.Inf.71</v>
       </c>
       <c r="X71" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y71" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8762,13 +8762,13 @@
         <v>87</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E72" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G72" s="50" t="s">
         <v>1</v>
@@ -8802,10 +8802,10 @@
         <v>Vagão.Passageiro</v>
       </c>
       <c r="P72" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q72" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R72" s="45" t="s">
         <v>1</v>
@@ -8831,10 +8831,10 @@
         <v>Key.Inf.72</v>
       </c>
       <c r="X72" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y72" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8848,13 +8848,13 @@
         <v>87</v>
       </c>
       <c r="D73" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E73" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G73" s="50" t="s">
         <v>1</v>
@@ -8888,10 +8888,10 @@
         <v>Vagão.Dormitório</v>
       </c>
       <c r="P73" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q73" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R73" s="45" t="s">
         <v>1</v>
@@ -8917,10 +8917,10 @@
         <v>Key.Inf.73</v>
       </c>
       <c r="X73" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y73" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8934,13 +8934,13 @@
         <v>87</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E74" s="58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G74" s="50" t="s">
         <v>1</v>
@@ -8974,10 +8974,10 @@
         <v>Vagão.Metro</v>
       </c>
       <c r="P74" s="48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q74" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R74" s="45" t="s">
         <v>1</v>
@@ -9003,10 +9003,10 @@
         <v>Key.Inf.74</v>
       </c>
       <c r="X74" s="46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Y74" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9020,13 +9020,13 @@
         <v>87</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E75" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F75" s="85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G75" s="42" t="s">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>Ferroviária</v>
       </c>
       <c r="N75" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E75),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N75:N82" si="194">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E75),"."," ")," De "," de "))</f>
         <v>Ferrovia</v>
       </c>
       <c r="O75" s="44" t="str">
@@ -9060,10 +9060,10 @@
         <v>Ferrovia.Radial</v>
       </c>
       <c r="P75" s="84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q75" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R75" s="45" t="s">
         <v>1</v>
@@ -9081,7 +9081,7 @@
         <v>Ferrovia</v>
       </c>
       <c r="V75" s="46" t="str">
-        <f>SUBSTITUTE(C75, "_", " ")</f>
+        <f t="shared" ref="V75:V82" si="195">SUBSTITUTE(C75, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W75" s="20" t="str">
@@ -9089,10 +9089,10 @@
         <v>Key.Inf.75</v>
       </c>
       <c r="X75" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y75" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9106,13 +9106,13 @@
         <v>87</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E76" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F76" s="85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G76" s="42" t="s">
         <v>1</v>
@@ -9138,7 +9138,7 @@
         <v>Ferroviária</v>
       </c>
       <c r="N76" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E76),"."," ")," De "," de "))</f>
+        <f t="shared" si="194"/>
         <v>Ferrovia</v>
       </c>
       <c r="O76" s="44" t="str">
@@ -9146,10 +9146,10 @@
         <v>Ferrovia.NS</v>
       </c>
       <c r="P76" s="84" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q76" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R76" s="45" t="s">
         <v>1</v>
@@ -9167,7 +9167,7 @@
         <v>Ferrovia</v>
       </c>
       <c r="V76" s="46" t="str">
-        <f>SUBSTITUTE(C76, "_", " ")</f>
+        <f t="shared" si="195"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W76" s="20" t="str">
@@ -9175,10 +9175,10 @@
         <v>Key.Inf.76</v>
       </c>
       <c r="X76" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y76" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9192,13 +9192,13 @@
         <v>87</v>
       </c>
       <c r="D77" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E77" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F77" s="85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G77" s="42" t="s">
         <v>1</v>
@@ -9224,7 +9224,7 @@
         <v>Ferroviária</v>
       </c>
       <c r="N77" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E77),"."," ")," De "," de "))</f>
+        <f t="shared" si="194"/>
         <v>Ferrovia</v>
       </c>
       <c r="O77" s="44" t="str">
@@ -9232,10 +9232,10 @@
         <v>Ferrovia.EW</v>
       </c>
       <c r="P77" s="84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q77" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R77" s="45" t="s">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>Ferrovia</v>
       </c>
       <c r="V77" s="46" t="str">
-        <f>SUBSTITUTE(C77, "_", " ")</f>
+        <f t="shared" si="195"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W77" s="20" t="str">
@@ -9261,10 +9261,10 @@
         <v>Key.Inf.77</v>
       </c>
       <c r="X77" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y77" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9278,13 +9278,13 @@
         <v>87</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E78" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F78" s="85" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G78" s="42" t="s">
         <v>1</v>
@@ -9310,7 +9310,7 @@
         <v>Ferroviária</v>
       </c>
       <c r="N78" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E78),"."," ")," De "," de "))</f>
+        <f t="shared" si="194"/>
         <v>Ferrovia</v>
       </c>
       <c r="O78" s="44" t="str">
@@ -9318,10 +9318,10 @@
         <v>Ferrovia.Diagonal</v>
       </c>
       <c r="P78" s="84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q78" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R78" s="45" t="s">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>Ferrovia</v>
       </c>
       <c r="V78" s="46" t="str">
-        <f>SUBSTITUTE(C78, "_", " ")</f>
+        <f t="shared" si="195"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W78" s="20" t="str">
@@ -9347,10 +9347,10 @@
         <v>Key.Inf.78</v>
       </c>
       <c r="X78" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y78" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9364,79 +9364,79 @@
         <v>87</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E79" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F79" s="85" t="s">
+        <v>361</v>
+      </c>
+      <c r="G79" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="43" t="str">
+        <f t="shared" ref="L79:L80" si="196">CONCATENATE("", C79)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M79" s="43" t="str">
+        <f t="shared" ref="M79:M80" si="197">CONCATENATE("", D79)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N79" s="43" t="str">
+        <f t="shared" si="194"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="O79" s="44" t="str">
+        <f t="shared" ref="O79:O80" si="198">F79</f>
+        <v>Ferrovia.Ligação</v>
+      </c>
+      <c r="P79" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q79" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R79" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S79" s="46" t="str">
+        <f t="shared" ref="S79:S80" si="199">SUBSTITUTE(C79, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T79" s="46" t="str">
+        <f t="shared" ref="T79:T80" si="200">SUBSTITUTE(D79, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U79" s="46" t="str">
+        <f t="shared" ref="U79:U80" si="201">SUBSTITUTE(E79, "_", " ")</f>
+        <v>Ferrovia</v>
+      </c>
+      <c r="V79" s="46" t="str">
+        <f t="shared" si="195"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W79" s="20" t="str">
+        <f t="shared" ref="W79:W80" si="202">CONCATENATE("Key.",LEFT(C79,3),".",A79)</f>
+        <v>Key.Inf.79</v>
+      </c>
+      <c r="X79" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y79" s="81" t="s">
         <v>336</v>
-      </c>
-      <c r="F79" s="85" t="s">
-        <v>362</v>
-      </c>
-      <c r="G79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L79" s="43" t="str">
-        <f t="shared" ref="L79:L80" si="194">CONCATENATE("", C79)</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M79" s="43" t="str">
-        <f t="shared" ref="M79:M80" si="195">CONCATENATE("", D79)</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N79" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E79),"."," ")," De "," de "))</f>
-        <v>Ferrovia</v>
-      </c>
-      <c r="O79" s="44" t="str">
-        <f t="shared" ref="O79:O80" si="196">F79</f>
-        <v>Ferrovia.Ligação</v>
-      </c>
-      <c r="P79" s="84" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q79" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="R79" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S79" s="46" t="str">
-        <f t="shared" ref="S79:S80" si="197">SUBSTITUTE(C79, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T79" s="46" t="str">
-        <f t="shared" ref="T79:T80" si="198">SUBSTITUTE(D79, "_", " ")</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U79" s="46" t="str">
-        <f t="shared" ref="U79:U80" si="199">SUBSTITUTE(E79, "_", " ")</f>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V79" s="46" t="str">
-        <f>SUBSTITUTE(C79, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W79" s="20" t="str">
-        <f t="shared" ref="W79:W80" si="200">CONCATENATE("Key.",LEFT(C79,3),".",A79)</f>
-        <v>Key.Inf.79</v>
-      </c>
-      <c r="X79" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y79" s="81" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9450,79 +9450,79 @@
         <v>87</v>
       </c>
       <c r="D80" s="79" t="s">
+        <v>442</v>
+      </c>
+      <c r="E80" s="79" t="s">
+        <v>335</v>
+      </c>
+      <c r="F80" s="85" t="s">
         <v>443</v>
       </c>
-      <c r="E80" s="79" t="s">
+      <c r="G80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="43" t="str">
+        <f t="shared" si="196"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M80" s="43" t="str">
+        <f t="shared" si="197"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N80" s="43" t="str">
+        <f t="shared" si="194"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="O80" s="44" t="str">
+        <f t="shared" si="198"/>
+        <v>Ferrovia.Metro</v>
+      </c>
+      <c r="P80" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q80" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="R80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S80" s="46" t="str">
+        <f t="shared" si="199"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T80" s="46" t="str">
+        <f t="shared" si="200"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U80" s="46" t="str">
+        <f t="shared" si="201"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="V80" s="46" t="str">
+        <f t="shared" si="195"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W80" s="20" t="str">
+        <f t="shared" si="202"/>
+        <v>Key.Inf.80</v>
+      </c>
+      <c r="X80" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y80" s="81" t="s">
         <v>336</v>
-      </c>
-      <c r="F80" s="85" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L80" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M80" s="43" t="str">
-        <f t="shared" si="195"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N80" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E80),"."," ")," De "," de "))</f>
-        <v>Ferrovia</v>
-      </c>
-      <c r="O80" s="44" t="str">
-        <f t="shared" si="196"/>
-        <v>Ferrovia.Metro</v>
-      </c>
-      <c r="P80" s="84" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q80" s="44" t="s">
-        <v>446</v>
-      </c>
-      <c r="R80" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S80" s="46" t="str">
-        <f t="shared" si="197"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T80" s="46" t="str">
-        <f t="shared" si="198"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U80" s="46" t="str">
-        <f t="shared" si="199"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V80" s="46" t="str">
-        <f>SUBSTITUTE(C80, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W80" s="20" t="str">
-        <f t="shared" si="200"/>
-        <v>Key.Inf.80</v>
-      </c>
-      <c r="X80" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y80" s="81" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9536,13 +9536,13 @@
         <v>87</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E81" s="79" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F81" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>1</v>
@@ -9568,7 +9568,7 @@
         <v>Ferroviária</v>
       </c>
       <c r="N81" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E81),"."," ")," De "," de "))</f>
+        <f t="shared" si="194"/>
         <v>Ferrovia</v>
       </c>
       <c r="O81" s="44" t="str">
@@ -9576,10 +9576,10 @@
         <v>Monotrilho</v>
       </c>
       <c r="P81" s="84" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q81" s="44" t="s">
         <v>448</v>
-      </c>
-      <c r="Q81" s="44" t="s">
-        <v>449</v>
       </c>
       <c r="R81" s="45" t="s">
         <v>1</v>
@@ -9597,7 +9597,7 @@
         <v>Ferrovia</v>
       </c>
       <c r="V81" s="46" t="str">
-        <f>SUBSTITUTE(C81, "_", " ")</f>
+        <f t="shared" si="195"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W81" s="20" t="str">
@@ -9605,10 +9605,10 @@
         <v>Key.Inf.81</v>
       </c>
       <c r="X81" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y81" s="81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9622,13 +9622,13 @@
         <v>87</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E82" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F82" s="86" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>1</v>
@@ -9646,15 +9646,15 @@
         <v>1</v>
       </c>
       <c r="L82" s="43" t="str">
-        <f t="shared" ref="L82" si="201">CONCATENATE("", C82)</f>
+        <f t="shared" ref="L82" si="203">CONCATENATE("", C82)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M82" s="43" t="str">
-        <f t="shared" ref="M82" si="202">CONCATENATE("", D82)</f>
+        <f t="shared" ref="M82" si="204">CONCATENATE("", D82)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N82" s="43" t="str">
-        <f>(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E82),"."," ")," De "," de "))</f>
+        <f t="shared" si="194"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O82" s="44" t="str">
@@ -9662,28 +9662,28 @@
         <v>Trilho</v>
       </c>
       <c r="P82" s="87" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q82" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R82" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S82" s="46" t="str">
-        <f t="shared" ref="S82" si="203">SUBSTITUTE(C82, "_", " ")</f>
+        <f t="shared" ref="S82" si="205">SUBSTITUTE(C82, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T82" s="46" t="str">
-        <f t="shared" ref="T82" si="204">SUBSTITUTE(D82, "_", " ")</f>
+        <f t="shared" ref="T82" si="206">SUBSTITUTE(D82, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U82" s="46" t="str">
-        <f t="shared" ref="U82" si="205">SUBSTITUTE(E82, "_", " ")</f>
+        <f t="shared" ref="U82" si="207">SUBSTITUTE(E82, "_", " ")</f>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V82" s="46" t="str">
-        <f>SUBSTITUTE(C82, "_", " ")</f>
+        <f t="shared" si="195"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W82" s="20" t="str">
@@ -9691,10 +9691,10 @@
         <v>Key.Inf.82</v>
       </c>
       <c r="X82" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y82" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9708,13 +9708,13 @@
         <v>87</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E83" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F83" s="86" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G83" s="42" t="s">
         <v>1</v>
@@ -9732,15 +9732,15 @@
         <v>1</v>
       </c>
       <c r="L83" s="43" t="str">
-        <f t="shared" ref="L83:L96" si="206">CONCATENATE("", C83)</f>
+        <f t="shared" ref="L83:L96" si="208">CONCATENATE("", C83)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M83" s="43" t="str">
-        <f t="shared" ref="M83:M96" si="207">CONCATENATE("", D83)</f>
+        <f t="shared" ref="M83:M96" si="209">CONCATENATE("", D83)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N83" s="43" t="str">
-        <f t="shared" ref="N83:N96" si="208">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E83),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N83:N96" si="210">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E83),"."," ")," De "," de "))</f>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O83" s="44" t="str">
@@ -9748,28 +9748,28 @@
         <v>Trilho.Lâmina</v>
       </c>
       <c r="P83" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q83" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R83" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S83" s="46" t="str">
-        <f t="shared" ref="S83:S96" si="209">SUBSTITUTE(C83, "_", " ")</f>
+        <f t="shared" ref="S83:S96" si="211">SUBSTITUTE(C83, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T83" s="46" t="str">
-        <f t="shared" ref="T83:T96" si="210">SUBSTITUTE(D83, "_", " ")</f>
+        <f t="shared" ref="T83:T96" si="212">SUBSTITUTE(D83, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U83" s="46" t="str">
-        <f t="shared" ref="U83:U96" si="211">SUBSTITUTE(E83, "_", " ")</f>
+        <f t="shared" ref="U83:U96" si="213">SUBSTITUTE(E83, "_", " ")</f>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V83" s="46" t="str">
-        <f t="shared" ref="V83:V96" si="212">SUBSTITUTE(C83, "_", " ")</f>
+        <f t="shared" ref="V83:V96" si="214">SUBSTITUTE(C83, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W83" s="20" t="str">
@@ -9777,10 +9777,10 @@
         <v>Key.Inf.83</v>
       </c>
       <c r="X83" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y83" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9794,13 +9794,13 @@
         <v>87</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E84" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F84" s="86" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G84" s="42" t="s">
         <v>1</v>
@@ -9818,15 +9818,15 @@
         <v>1</v>
       </c>
       <c r="L84" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M84" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N84" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O84" s="44" t="str">
@@ -9834,28 +9834,28 @@
         <v>Trilho.Contenção</v>
       </c>
       <c r="P84" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q84" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R84" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S84" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T84" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U84" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V84" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W84" s="20" t="str">
@@ -9863,10 +9863,10 @@
         <v>Key.Inf.84</v>
       </c>
       <c r="X84" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y84" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9880,13 +9880,13 @@
         <v>87</v>
       </c>
       <c r="D85" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E85" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F85" s="86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G85" s="42" t="s">
         <v>1</v>
@@ -9904,15 +9904,15 @@
         <v>1</v>
       </c>
       <c r="L85" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M85" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N85" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O85" s="44" t="str">
@@ -9920,28 +9920,28 @@
         <v>Trilho.Segurança</v>
       </c>
       <c r="P85" s="87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q85" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R85" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S85" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T85" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U85" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V85" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W85" s="20" t="str">
@@ -9949,10 +9949,10 @@
         <v>Key.Inf.85</v>
       </c>
       <c r="X85" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y85" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9966,13 +9966,13 @@
         <v>87</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E86" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F86" s="86" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>1</v>
@@ -9990,15 +9990,15 @@
         <v>1</v>
       </c>
       <c r="L86" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M86" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N86" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O86" s="44" t="str">
@@ -10006,28 +10006,28 @@
         <v>Trilho.Dentado</v>
       </c>
       <c r="P86" s="87" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q86" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R86" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S86" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T86" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U86" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V86" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W86" s="20" t="str">
@@ -10035,10 +10035,10 @@
         <v>Key.Inf.86</v>
       </c>
       <c r="X86" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y86" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10052,13 +10052,13 @@
         <v>87</v>
       </c>
       <c r="D87" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E87" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F87" s="86" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G87" s="42" t="s">
         <v>1</v>
@@ -10076,15 +10076,15 @@
         <v>1</v>
       </c>
       <c r="L87" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M87" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N87" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O87" s="44" t="str">
@@ -10092,28 +10092,28 @@
         <v>Trilho.Fixo</v>
       </c>
       <c r="P87" s="87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q87" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R87" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S87" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T87" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U87" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V87" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W87" s="20" t="str">
@@ -10121,10 +10121,10 @@
         <v>Key.Inf.87</v>
       </c>
       <c r="X87" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y87" s="81" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10138,13 +10138,13 @@
         <v>87</v>
       </c>
       <c r="D88" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E88" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F88" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G88" s="42" t="s">
         <v>1</v>
@@ -10162,15 +10162,15 @@
         <v>1</v>
       </c>
       <c r="L88" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M88" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N88" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O88" s="44" t="str">
@@ -10178,39 +10178,39 @@
         <v>Trilho.AMV</v>
       </c>
       <c r="P88" s="87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q88" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R88" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S88" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T88" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U88" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V88" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W88" s="20" t="str">
-        <f t="shared" ref="W88:W96" si="213">CONCATENATE("Key.",LEFT(C88,3),".",A88)</f>
+        <f t="shared" ref="W88:W96" si="215">CONCATENATE("Key.",LEFT(C88,3),".",A88)</f>
         <v>Key.Inf.88</v>
       </c>
       <c r="X88" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y88" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10224,13 +10224,13 @@
         <v>87</v>
       </c>
       <c r="D89" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E89" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F89" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G89" s="42" t="s">
         <v>1</v>
@@ -10248,15 +10248,15 @@
         <v>1</v>
       </c>
       <c r="L89" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M89" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N89" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O89" s="44" t="str">
@@ -10264,39 +10264,39 @@
         <v>Trilho.Bloqueador</v>
       </c>
       <c r="P89" s="87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q89" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R89" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S89" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T89" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U89" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V89" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W89" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.89</v>
       </c>
       <c r="X89" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y89" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10310,13 +10310,13 @@
         <v>87</v>
       </c>
       <c r="D90" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E90" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F90" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G90" s="42" t="s">
         <v>1</v>
@@ -10334,15 +10334,15 @@
         <v>1</v>
       </c>
       <c r="L90" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M90" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N90" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O90" s="44" t="str">
@@ -10350,39 +10350,39 @@
         <v>Trilho.Descarrilador</v>
       </c>
       <c r="P90" s="87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q90" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R90" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S90" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T90" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U90" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V90" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W90" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.90</v>
       </c>
       <c r="X90" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y90" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10396,13 +10396,13 @@
         <v>87</v>
       </c>
       <c r="D91" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E91" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F91" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G91" s="42" t="s">
         <v>1</v>
@@ -10420,15 +10420,15 @@
         <v>1</v>
       </c>
       <c r="L91" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M91" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N91" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O91" s="44" t="str">
@@ -10436,39 +10436,39 @@
         <v>Trilho.Cruz</v>
       </c>
       <c r="P91" s="87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q91" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R91" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S91" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T91" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U91" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V91" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W91" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.91</v>
       </c>
       <c r="X91" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y91" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10482,13 +10482,13 @@
         <v>87</v>
       </c>
       <c r="D92" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E92" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F92" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G92" s="42" t="s">
         <v>1</v>
@@ -10506,15 +10506,15 @@
         <v>1</v>
       </c>
       <c r="L92" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M92" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N92" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O92" s="44" t="str">
@@ -10522,39 +10522,39 @@
         <v>Trilho.Lâmina.Desviadora</v>
       </c>
       <c r="P92" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q92" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R92" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S92" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T92" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U92" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V92" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W92" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.92</v>
       </c>
       <c r="X92" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y92" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10568,13 +10568,13 @@
         <v>87</v>
       </c>
       <c r="D93" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E93" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F93" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G93" s="42" t="s">
         <v>1</v>
@@ -10592,15 +10592,15 @@
         <v>1</v>
       </c>
       <c r="L93" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M93" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N93" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O93" s="44" t="str">
@@ -10608,39 +10608,39 @@
         <v>Trilho.Dormente</v>
       </c>
       <c r="P93" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q93" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R93" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S93" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T93" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U93" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V93" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W93" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.93</v>
       </c>
       <c r="X93" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y93" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
@@ -10654,13 +10654,13 @@
         <v>87</v>
       </c>
       <c r="D94" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E94" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F94" s="86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G94" s="42" t="s">
         <v>1</v>
@@ -10678,15 +10678,15 @@
         <v>1</v>
       </c>
       <c r="L94" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M94" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N94" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O94" s="44" t="str">
@@ -10694,39 +10694,39 @@
         <v>Trilho.Regulador.Velocidade</v>
       </c>
       <c r="P94" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q94" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R94" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S94" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T94" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U94" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V94" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W94" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.94</v>
       </c>
       <c r="X94" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y94" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
@@ -10740,13 +10740,13 @@
         <v>87</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F95" s="86" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G95" s="42" t="s">
         <v>1</v>
@@ -10764,15 +10764,15 @@
         <v>1</v>
       </c>
       <c r="L95" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M95" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N95" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O95" s="44" t="str">
@@ -10780,39 +10780,39 @@
         <v>Trilho.Batente.Via</v>
       </c>
       <c r="P95" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q95" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R95" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S95" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T95" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U95" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V95" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W95" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.95</v>
       </c>
       <c r="X95" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y95" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
@@ -10826,13 +10826,13 @@
         <v>87</v>
       </c>
       <c r="D96" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F96" s="86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G96" s="42" t="s">
         <v>1</v>
@@ -10850,15 +10850,15 @@
         <v>1</v>
       </c>
       <c r="L96" s="43" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M96" s="43" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>Ferroviária</v>
       </c>
       <c r="N96" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O96" s="44" t="str">
@@ -10866,39 +10866,39 @@
         <v>Trilho.Batente.Veícular</v>
       </c>
       <c r="P96" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q96" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R96" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S96" s="46" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T96" s="46" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="212"/>
         <v>Ferroviária</v>
       </c>
       <c r="U96" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V96" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W96" s="20" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>Key.Inf.96</v>
       </c>
       <c r="X96" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y96" s="84" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10912,79 +10912,79 @@
         <v>87</v>
       </c>
       <c r="D97" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E97" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="F97" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="G97" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K97" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L97" s="43" t="str">
+        <f t="shared" ref="L97" si="216">CONCATENATE("", C97)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M97" s="43" t="str">
+        <f t="shared" ref="M97" si="217">CONCATENATE("", D97)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N97" s="43" t="str">
+        <f t="shared" ref="N97" si="218">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E97),"."," ")," De "," de "))</f>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O97" s="44" t="str">
+        <f t="shared" ref="O97" si="219">F97</f>
+        <v>Ferrovia.Componente</v>
+      </c>
+      <c r="P97" s="87" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q97" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="R97" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S97" s="46" t="str">
+        <f t="shared" ref="S97" si="220">SUBSTITUTE(C97, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T97" s="46" t="str">
+        <f t="shared" ref="T97" si="221">SUBSTITUTE(D97, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U97" s="46" t="str">
+        <f t="shared" ref="U97" si="222">SUBSTITUTE(E97, "_", " ")</f>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V97" s="46" t="str">
+        <f t="shared" ref="V97" si="223">SUBSTITUTE(C97, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W97" s="20" t="str">
+        <f t="shared" ref="W97" si="224">CONCATENATE("Key.",LEFT(C97,3),".",A97)</f>
+        <v>Key.Inf.97</v>
+      </c>
+      <c r="X97" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y97" s="84" t="s">
         <v>338</v>
-      </c>
-      <c r="F97" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="G97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K97" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L97" s="43" t="str">
-        <f t="shared" ref="L97" si="214">CONCATENATE("", C97)</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M97" s="43" t="str">
-        <f t="shared" ref="M97" si="215">CONCATENATE("", D97)</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N97" s="43" t="str">
-        <f t="shared" ref="N97" si="216">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E97),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
-      </c>
-      <c r="O97" s="44" t="str">
-        <f t="shared" ref="O97" si="217">F97</f>
-        <v>Ferrovia.Componente</v>
-      </c>
-      <c r="P97" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q97" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="R97" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S97" s="46" t="str">
-        <f t="shared" ref="S97" si="218">SUBSTITUTE(C97, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T97" s="46" t="str">
-        <f t="shared" ref="T97" si="219">SUBSTITUTE(D97, "_", " ")</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U97" s="46" t="str">
-        <f t="shared" ref="U97" si="220">SUBSTITUTE(E97, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
-      </c>
-      <c r="V97" s="46" t="str">
-        <f t="shared" ref="V97" si="221">SUBSTITUTE(C97, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W97" s="20" t="str">
-        <f t="shared" ref="W97" si="222">CONCATENATE("Key.",LEFT(C97,3),".",A97)</f>
-        <v>Key.Inf.97</v>
-      </c>
-      <c r="X97" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y97" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10998,13 +10998,13 @@
         <v>87</v>
       </c>
       <c r="D98" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E98" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G98" s="42" t="s">
         <v>1</v>
@@ -11022,44 +11022,44 @@
         <v>1</v>
       </c>
       <c r="L98" s="43" t="str">
-        <f t="shared" ref="L98:L102" si="223">CONCATENATE("", C98)</f>
+        <f t="shared" ref="L98:L102" si="225">CONCATENATE("", C98)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M98" s="43" t="str">
-        <f t="shared" ref="M98:M102" si="224">CONCATENATE("", D98)</f>
+        <f t="shared" ref="M98:M102" si="226">CONCATENATE("", D98)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N98" s="43" t="str">
-        <f t="shared" ref="N98:N102" si="225">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E98),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N98:N102" si="227">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E98),"."," ")," De "," de "))</f>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O98" s="44" t="str">
-        <f t="shared" ref="O98:O102" si="226">F98</f>
+        <f t="shared" ref="O98:O102" si="228">F98</f>
         <v>Ferrovia.Margem</v>
       </c>
       <c r="P98" s="87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q98" s="44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R98" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S98" s="46" t="str">
-        <f t="shared" ref="S98:S102" si="227">SUBSTITUTE(C98, "_", " ")</f>
+        <f t="shared" ref="S98:S102" si="229">SUBSTITUTE(C98, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T98" s="46" t="str">
-        <f t="shared" ref="T98:T102" si="228">SUBSTITUTE(D98, "_", " ")</f>
+        <f t="shared" ref="T98:T102" si="230">SUBSTITUTE(D98, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U98" s="46" t="str">
-        <f t="shared" ref="U98:U102" si="229">SUBSTITUTE(E98, "_", " ")</f>
+        <f t="shared" ref="U98:U102" si="231">SUBSTITUTE(E98, "_", " ")</f>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V98" s="46" t="str">
-        <f t="shared" ref="V98:V102" si="230">SUBSTITUTE(C98, "_", " ")</f>
+        <f t="shared" ref="V98:V102" si="232">SUBSTITUTE(C98, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W98" s="20" t="str">
@@ -11067,10 +11067,10 @@
         <v>Key.Inf.98</v>
       </c>
       <c r="X98" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y98" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11084,13 +11084,13 @@
         <v>87</v>
       </c>
       <c r="D99" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E99" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F99" s="86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G99" s="42" t="s">
         <v>1</v>
@@ -11108,44 +11108,44 @@
         <v>1</v>
       </c>
       <c r="L99" s="43" t="str">
-        <f t="shared" ref="L99" si="231">CONCATENATE("", C99)</f>
+        <f t="shared" ref="L99" si="233">CONCATENATE("", C99)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M99" s="43" t="str">
-        <f t="shared" ref="M99" si="232">CONCATENATE("", D99)</f>
+        <f t="shared" ref="M99" si="234">CONCATENATE("", D99)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N99" s="43" t="str">
-        <f t="shared" ref="N99" si="233">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E99),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N99" si="235">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E99),"."," ")," De "," de "))</f>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O99" s="44" t="str">
-        <f t="shared" ref="O99" si="234">F99</f>
+        <f t="shared" ref="O99" si="236">F99</f>
         <v>Ferrovia.Aerea</v>
       </c>
       <c r="P99" s="87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q99" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R99" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S99" s="46" t="str">
-        <f t="shared" ref="S99" si="235">SUBSTITUTE(C99, "_", " ")</f>
+        <f t="shared" ref="S99" si="237">SUBSTITUTE(C99, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T99" s="46" t="str">
-        <f t="shared" ref="T99" si="236">SUBSTITUTE(D99, "_", " ")</f>
+        <f t="shared" ref="T99" si="238">SUBSTITUTE(D99, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U99" s="46" t="str">
-        <f t="shared" ref="U99" si="237">SUBSTITUTE(E99, "_", " ")</f>
+        <f t="shared" ref="U99" si="239">SUBSTITUTE(E99, "_", " ")</f>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V99" s="46" t="str">
-        <f t="shared" ref="V99" si="238">SUBSTITUTE(C99, "_", " ")</f>
+        <f t="shared" ref="V99" si="240">SUBSTITUTE(C99, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W99" s="20" t="str">
@@ -11153,10 +11153,10 @@
         <v>Key.Inf.99</v>
       </c>
       <c r="X99" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y99" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11170,13 +11170,13 @@
         <v>87</v>
       </c>
       <c r="D100" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E100" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F100" s="86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G100" s="42" t="s">
         <v>1</v>
@@ -11194,44 +11194,44 @@
         <v>1</v>
       </c>
       <c r="L100" s="43" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M100" s="43" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>Ferroviária</v>
       </c>
       <c r="N100" s="43" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O100" s="44" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>Ferrovia.Superestrutura</v>
       </c>
       <c r="P100" s="87" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q100" s="44" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R100" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S100" s="46" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T100" s="46" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>Ferroviária</v>
       </c>
       <c r="U100" s="46" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V100" s="46" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W100" s="20" t="str">
@@ -11239,10 +11239,10 @@
         <v>Key.Inf.100</v>
       </c>
       <c r="X100" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y100" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11256,13 +11256,13 @@
         <v>87</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F101" s="86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G101" s="42" t="s">
         <v>1</v>
@@ -11280,44 +11280,44 @@
         <v>1</v>
       </c>
       <c r="L101" s="43" t="str">
-        <f t="shared" ref="L101" si="239">CONCATENATE("", C101)</f>
+        <f t="shared" ref="L101" si="241">CONCATENATE("", C101)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M101" s="43" t="str">
-        <f t="shared" ref="M101" si="240">CONCATENATE("", D101)</f>
+        <f t="shared" ref="M101" si="242">CONCATENATE("", D101)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N101" s="43" t="str">
-        <f t="shared" ref="N101" si="241">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E101),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N101" si="243">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E101),"."," ")," De "," de "))</f>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O101" s="44" t="str">
-        <f t="shared" ref="O101" si="242">F101</f>
+        <f t="shared" ref="O101" si="244">F101</f>
         <v>Ferrovia.Subestrutura</v>
       </c>
       <c r="P101" s="87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q101" s="44" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R101" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S101" s="46" t="str">
-        <f t="shared" ref="S101" si="243">SUBSTITUTE(C101, "_", " ")</f>
+        <f t="shared" ref="S101" si="245">SUBSTITUTE(C101, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T101" s="46" t="str">
-        <f t="shared" ref="T101" si="244">SUBSTITUTE(D101, "_", " ")</f>
+        <f t="shared" ref="T101" si="246">SUBSTITUTE(D101, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U101" s="46" t="str">
-        <f t="shared" ref="U101" si="245">SUBSTITUTE(E101, "_", " ")</f>
+        <f t="shared" ref="U101" si="247">SUBSTITUTE(E101, "_", " ")</f>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V101" s="46" t="str">
-        <f t="shared" ref="V101" si="246">SUBSTITUTE(C101, "_", " ")</f>
+        <f t="shared" ref="V101" si="248">SUBSTITUTE(C101, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W101" s="20" t="str">
@@ -11325,10 +11325,10 @@
         <v>Key.Inf.101</v>
       </c>
       <c r="X101" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y101" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11342,13 +11342,13 @@
         <v>87</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E102" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F102" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G102" s="42" t="s">
         <v>1</v>
@@ -11366,44 +11366,44 @@
         <v>1</v>
       </c>
       <c r="L102" s="43" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M102" s="43" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>Ferroviária</v>
       </c>
       <c r="N102" s="43" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O102" s="44" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>Ferrovia.Simples</v>
       </c>
       <c r="P102" s="87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q102" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R102" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S102" s="46" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T102" s="46" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" si="230"/>
         <v>Ferroviária</v>
       </c>
       <c r="U102" s="46" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V102" s="46" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W102" s="20" t="str">
@@ -11411,10 +11411,10 @@
         <v>Key.Inf.102</v>
       </c>
       <c r="X102" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y102" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11428,13 +11428,13 @@
         <v>87</v>
       </c>
       <c r="D103" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E103" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F103" s="86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G103" s="42" t="s">
         <v>1</v>
@@ -11452,44 +11452,44 @@
         <v>1</v>
       </c>
       <c r="L103" s="43" t="str">
-        <f t="shared" ref="L103:L104" si="247">CONCATENATE("", C103)</f>
+        <f t="shared" ref="L103:L104" si="249">CONCATENATE("", C103)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M103" s="43" t="str">
-        <f t="shared" ref="M103:M104" si="248">CONCATENATE("", D103)</f>
+        <f t="shared" ref="M103:M104" si="250">CONCATENATE("", D103)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N103" s="43" t="str">
-        <f t="shared" ref="N103:N104" si="249">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E103),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N103:N104" si="251">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E103),"."," ")," De "," de "))</f>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O103" s="44" t="str">
-        <f t="shared" ref="O103:O104" si="250">F103</f>
+        <f t="shared" ref="O103:O104" si="252">F103</f>
         <v>Ferrovia.Completa</v>
       </c>
       <c r="P103" s="87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q103" s="44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R103" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S103" s="46" t="str">
-        <f t="shared" ref="S103:S104" si="251">SUBSTITUTE(C103, "_", " ")</f>
+        <f t="shared" ref="S103:S104" si="253">SUBSTITUTE(C103, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T103" s="46" t="str">
-        <f t="shared" ref="T103:T104" si="252">SUBSTITUTE(D103, "_", " ")</f>
+        <f t="shared" ref="T103:T104" si="254">SUBSTITUTE(D103, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U103" s="46" t="str">
-        <f t="shared" ref="U103:U104" si="253">SUBSTITUTE(E103, "_", " ")</f>
+        <f t="shared" ref="U103:U104" si="255">SUBSTITUTE(E103, "_", " ")</f>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V103" s="46" t="str">
-        <f t="shared" ref="V103:V104" si="254">SUBSTITUTE(C103, "_", " ")</f>
+        <f t="shared" ref="V103:V104" si="256">SUBSTITUTE(C103, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W103" s="20" t="str">
@@ -11497,10 +11497,10 @@
         <v>Key.Inf.103</v>
       </c>
       <c r="X103" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Y103" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11514,105 +11514,103 @@
         <v>87</v>
       </c>
       <c r="D104" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E104" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L104" s="43" t="str">
+        <f t="shared" si="249"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M104" s="43" t="str">
+        <f t="shared" si="250"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N104" s="43" t="str">
+        <f t="shared" si="251"/>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O104" s="44" t="str">
+        <f t="shared" si="252"/>
+        <v>Ferrovia.Dilatação</v>
+      </c>
+      <c r="P104" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q104" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="R104" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S104" s="46" t="str">
+        <f t="shared" si="253"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T104" s="46" t="str">
+        <f t="shared" si="254"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U104" s="46" t="str">
+        <f t="shared" si="255"/>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V104" s="46" t="str">
+        <f t="shared" si="256"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W104" s="20" t="str">
+        <f t="shared" ref="W104" si="257">CONCATENATE("Key.",LEFT(C104,3),".",A104)</f>
+        <v>Key.Inf.104</v>
+      </c>
+      <c r="X104" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y104" s="84" t="s">
         <v>338</v>
-      </c>
-      <c r="F104" s="86" t="s">
-        <v>393</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L104" s="43" t="str">
-        <f t="shared" si="247"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M104" s="43" t="str">
-        <f t="shared" si="248"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N104" s="43" t="str">
-        <f t="shared" si="249"/>
-        <v>Ferrovia Parte</v>
-      </c>
-      <c r="O104" s="44" t="str">
-        <f t="shared" si="250"/>
-        <v>Ferrovia.Dilatação</v>
-      </c>
-      <c r="P104" s="87" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q104" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="R104" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S104" s="46" t="str">
-        <f t="shared" si="251"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T104" s="46" t="str">
-        <f t="shared" si="252"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U104" s="46" t="str">
-        <f t="shared" si="253"/>
-        <v>Ferrovia.Parte</v>
-      </c>
-      <c r="V104" s="46" t="str">
-        <f t="shared" si="254"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W104" s="20" t="str">
-        <f t="shared" ref="W104" si="255">CONCATENATE("Key.",LEFT(C104,3),".",A104)</f>
-        <v>Key.Inf.104</v>
-      </c>
-      <c r="X104" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y104" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="duplicateValues" dxfId="12" priority="208"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F40">
-    <cfRule type="duplicateValues" dxfId="11" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="duplicateValues" dxfId="10" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F70:F74">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F1048576 F1:F46">
-    <cfRule type="duplicateValues" dxfId="9" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="121"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F1048576 F1:F74">
-    <cfRule type="duplicateValues" dxfId="8" priority="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F74">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F74">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="99"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -12102,7 +12100,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>84</v>
@@ -12135,7 +12133,7 @@
         <v>88</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>1</v>
@@ -12245,7 +12243,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>105</v>
@@ -12278,7 +12276,7 @@
         <v>88</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" s="33" t="s">
         <v>1</v>

--- a/Versão5/VEIC/Ontologia_VEICU.xlsx
+++ b/Versão5/VEIC/Ontologia_VEICU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\VEIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05007C8-CFDE-4FD9-87CD-C502B4C6F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C4C231-D9D5-4663-A277-BB81C3604470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="587" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="462">
   <si>
     <t>Key</t>
   </si>
@@ -634,9 +634,6 @@
     <t>Obra.de.Arte.Especial</t>
   </si>
   <si>
-    <t>AOE.Parte</t>
-  </si>
-  <si>
     <t>OAE.Aparelho.Apóio</t>
   </si>
   <si>
@@ -1258,9 +1255,6 @@
     <t>Vagão.Metro</t>
   </si>
   <si>
-    <t>Metro</t>
-  </si>
-  <si>
     <t>Locomotiva</t>
   </si>
   <si>
@@ -1421,6 +1415,48 @@
   </si>
   <si>
     <t>Rodoviária</t>
+  </si>
+  <si>
+    <t>Vagão.Monotrilho</t>
+  </si>
+  <si>
+    <t>Obra.Trator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obra.Escavadeira.Hidráulica </t>
+  </si>
+  <si>
+    <t>Obra.Retroescavadeira</t>
+  </si>
+  <si>
+    <t>Obra.Motoniveladora</t>
+  </si>
+  <si>
+    <t>Veículo de obra tipo trator.</t>
+  </si>
+  <si>
+    <t>Veículo de obra tipo escavadeira hidráulica.</t>
+  </si>
+  <si>
+    <t>Veículo de obra tipo retroescavadeira.</t>
+  </si>
+  <si>
+    <t>Veículo de obra tipo motoniveladora.</t>
+  </si>
+  <si>
+    <t>Vehículo de construcción tipo tractor.</t>
+  </si>
+  <si>
+    <t>Vehículo de construcción tipo excavadora hidráulica.</t>
+  </si>
+  <si>
+    <t>Vehículo de trabajo tipo retroexcavadora.</t>
+  </si>
+  <si>
+    <t>Vehículo de trabajo tipo motoniveladora.</t>
+  </si>
+  <si>
+    <t>OAE.Parte</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2609,7 @@
       </c>
       <c r="B18" s="11">
         <f ca="1">NOW()</f>
-        <v>45923.430777430556</v>
+        <v>45923.45211377315</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2623,11 +2659,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375F50FD-D5BA-45CD-9CBD-E4284A1EA77F}">
-  <dimension ref="A1:Y104"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2807,7 +2843,7 @@
         <v>81</v>
       </c>
       <c r="W2" s="20" t="str">
-        <f t="shared" ref="W2:W69" si="4">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <f t="shared" ref="W2:W73" si="4">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
         <v>Key.Ges.2</v>
       </c>
       <c r="X2" s="46" t="s">
@@ -2828,7 +2864,7 @@
         <v>87</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E3" s="58" t="s">
         <v>116</v>
@@ -2871,7 +2907,7 @@
         <v>99</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R3" s="45" t="s">
         <v>1</v>
@@ -2897,10 +2933,10 @@
         <v>Key.Inf.3</v>
       </c>
       <c r="X3" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y3" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2914,7 +2950,7 @@
         <v>87</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E4" s="58" t="s">
         <v>116</v>
@@ -2957,7 +2993,7 @@
         <v>100</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R4" s="45" t="s">
         <v>1</v>
@@ -2967,15 +3003,15 @@
         <v>Infraestrutura</v>
       </c>
       <c r="T4" s="46" t="str">
-        <f t="shared" ref="T4:T40" si="11">SUBSTITUTE(D4, "_", " ")</f>
+        <f t="shared" ref="T4:T44" si="11">SUBSTITUTE(D4, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U4" s="43" t="str">
-        <f t="shared" ref="U4:U40" si="12">SUBSTITUTE(E4, "_", " ")</f>
+        <f t="shared" ref="U4:U44" si="12">SUBSTITUTE(E4, "_", " ")</f>
         <v>Veículo</v>
       </c>
       <c r="V4" s="43" t="str">
-        <f t="shared" ref="V4:V40" si="13">C4</f>
+        <f t="shared" ref="V4:V44" si="13">C4</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W4" s="20" t="str">
@@ -2983,10 +3019,10 @@
         <v>Key.Inf.4</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3000,7 +3036,7 @@
         <v>87</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E5" s="58" t="s">
         <v>116</v>
@@ -3043,7 +3079,7 @@
         <v>101</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R5" s="45" t="s">
         <v>1</v>
@@ -3069,10 +3105,10 @@
         <v>Key.Inf.5</v>
       </c>
       <c r="X5" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y5" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3086,13 +3122,13 @@
         <v>87</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G6" s="50" t="s">
         <v>1</v>
@@ -3126,10 +3162,10 @@
         <v>Caminhão.Baú</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R6" s="45" t="s">
         <v>1</v>
@@ -3155,10 +3191,10 @@
         <v>Key.Inf.6</v>
       </c>
       <c r="X6" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y6" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3172,13 +3208,13 @@
         <v>87</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>1</v>
@@ -3212,10 +3248,10 @@
         <v>Caminhão.Tanque</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R7" s="45" t="s">
         <v>1</v>
@@ -3241,10 +3277,10 @@
         <v>Key.Inf.7</v>
       </c>
       <c r="X7" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y7" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3258,13 +3294,13 @@
         <v>87</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E8" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="50" t="s">
         <v>1</v>
@@ -3298,10 +3334,10 @@
         <v>Caminhão.Caçamba</v>
       </c>
       <c r="P8" s="48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R8" s="45" t="s">
         <v>1</v>
@@ -3327,10 +3363,10 @@
         <v>Key.Inf.8</v>
       </c>
       <c r="X8" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y8" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3344,13 +3380,13 @@
         <v>87</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E9" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>1</v>
@@ -3384,10 +3420,10 @@
         <v>Caminhão.BiTrem</v>
       </c>
       <c r="P9" s="48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R9" s="45" t="s">
         <v>1</v>
@@ -3413,10 +3449,10 @@
         <v>Key.Inf.9</v>
       </c>
       <c r="X9" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y9" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3430,13 +3466,13 @@
         <v>87</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E10" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="50" t="s">
         <v>1</v>
@@ -3470,10 +3506,10 @@
         <v>Caminhão.Carroceria</v>
       </c>
       <c r="P10" s="48" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R10" s="45" t="s">
         <v>1</v>
@@ -3499,10 +3535,10 @@
         <v>Key.Inf.10</v>
       </c>
       <c r="X10" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y10" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3516,13 +3552,13 @@
         <v>87</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E11" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F11" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G11" s="50" t="s">
         <v>1</v>
@@ -3556,10 +3592,10 @@
         <v>Caminhão.Graneleiro</v>
       </c>
       <c r="P11" s="48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R11" s="45" t="s">
         <v>1</v>
@@ -3585,10 +3621,10 @@
         <v>Key.Inf.11</v>
       </c>
       <c r="X11" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y11" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3602,13 +3638,13 @@
         <v>87</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G12" s="50" t="s">
         <v>1</v>
@@ -3642,10 +3678,10 @@
         <v>Caminhão.Frigorífico</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q12" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R12" s="45" t="s">
         <v>1</v>
@@ -3671,10 +3707,10 @@
         <v>Key.Inf.12</v>
       </c>
       <c r="X12" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y12" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3688,13 +3724,13 @@
         <v>87</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E13" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>1</v>
@@ -3728,10 +3764,10 @@
         <v>Caminhão.Trator</v>
       </c>
       <c r="P13" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q13" s="47" t="s">
         <v>326</v>
-      </c>
-      <c r="Q13" s="47" t="s">
-        <v>327</v>
       </c>
       <c r="R13" s="45" t="s">
         <v>1</v>
@@ -3757,10 +3793,10 @@
         <v>Key.Inf.13</v>
       </c>
       <c r="X13" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y13" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3774,7 +3810,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E14" s="58" t="s">
         <v>116</v>
@@ -3817,7 +3853,7 @@
         <v>102</v>
       </c>
       <c r="Q14" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R14" s="45" t="s">
         <v>1</v>
@@ -3843,10 +3879,10 @@
         <v>Key.Inf.14</v>
       </c>
       <c r="X14" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y14" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3860,7 +3896,7 @@
         <v>87</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>116</v>
@@ -3903,7 +3939,7 @@
         <v>103</v>
       </c>
       <c r="Q15" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="R15" s="45" t="s">
         <v>1</v>
@@ -3929,10 +3965,10 @@
         <v>Key.Inf.15</v>
       </c>
       <c r="X15" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y15" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3946,13 +3982,13 @@
         <v>87</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E16" s="58" t="s">
         <v>116</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="50" t="s">
         <v>1</v>
@@ -3986,10 +4022,10 @@
         <v>Bicicleta</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R16" s="45" t="s">
         <v>1</v>
@@ -4015,10 +4051,10 @@
         <v>Key.Inf.16</v>
       </c>
       <c r="X16" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y16" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4032,7 +4068,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E17" s="58" t="s">
         <v>116</v>
@@ -4072,10 +4108,10 @@
         <v>Motocicleta</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R17" s="45" t="s">
         <v>1</v>
@@ -4101,10 +4137,10 @@
         <v>Key.Inf.17</v>
       </c>
       <c r="X17" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y17" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4118,7 +4154,7 @@
         <v>87</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E18" s="58" t="s">
         <v>116</v>
@@ -4158,10 +4194,10 @@
         <v>Motoneta</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q18" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R18" s="45" t="s">
         <v>1</v>
@@ -4187,10 +4223,10 @@
         <v>Key.Inf.18</v>
       </c>
       <c r="X18" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y18" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4204,7 +4240,7 @@
         <v>87</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>116</v>
@@ -4244,10 +4280,10 @@
         <v>Triciclo</v>
       </c>
       <c r="P19" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="R19" s="45" t="s">
         <v>1</v>
@@ -4273,10 +4309,10 @@
         <v>Key.Inf.19</v>
       </c>
       <c r="X19" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y19" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4290,7 +4326,7 @@
         <v>87</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E20" s="58" t="s">
         <v>116</v>
@@ -4330,10 +4366,10 @@
         <v>Quadriciclo</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R20" s="45" t="s">
         <v>1</v>
@@ -4359,10 +4395,10 @@
         <v>Key.Inf.20</v>
       </c>
       <c r="X20" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y20" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4376,7 +4412,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E21" s="58" t="s">
         <v>116</v>
@@ -4416,10 +4452,10 @@
         <v>Reboque</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R21" s="45" t="s">
         <v>1</v>
@@ -4445,10 +4481,10 @@
         <v>Key.Inf.21</v>
       </c>
       <c r="X21" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y21" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4462,7 +4498,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E22" s="58" t="s">
         <v>116</v>
@@ -4502,10 +4538,10 @@
         <v>Semirreboque</v>
       </c>
       <c r="P22" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R22" s="45" t="s">
         <v>1</v>
@@ -4531,10 +4567,10 @@
         <v>Key.Inf.22</v>
       </c>
       <c r="X22" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y22" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4548,7 +4584,7 @@
         <v>87</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E23" s="58" t="s">
         <v>116</v>
@@ -4572,32 +4608,32 @@
         <v>1</v>
       </c>
       <c r="L23" s="47" t="str">
-        <f t="shared" ref="L23:L40" si="38">_xlfn.CONCAT(C23)</f>
+        <f t="shared" ref="L23:L44" si="38">_xlfn.CONCAT(C23)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M23" s="43" t="str">
-        <f t="shared" ref="M23:M40" si="39">CONCATENATE("", D23)</f>
+        <f t="shared" ref="M23:M44" si="39">CONCATENATE("", D23)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N23" s="43" t="str">
-        <f t="shared" ref="N23:N40" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N23:N44" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
         <v>Veículo</v>
       </c>
       <c r="O23" s="44" t="str">
-        <f t="shared" ref="O23:O40" si="41">F23</f>
+        <f t="shared" ref="O23:O44" si="41">F23</f>
         <v>Veículo.Misto</v>
       </c>
       <c r="P23" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q23" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R23" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="46" t="str">
-        <f t="shared" ref="S23:S40" si="42">SUBSTITUTE(C23, "_", " ")</f>
+        <f t="shared" ref="S23:S44" si="42">SUBSTITUTE(C23, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T23" s="46" t="str">
@@ -4617,10 +4653,10 @@
         <v>Key.Inf.23</v>
       </c>
       <c r="X23" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y23" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4634,7 +4670,7 @@
         <v>87</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E24" s="58" t="s">
         <v>116</v>
@@ -4658,55 +4694,55 @@
         <v>1</v>
       </c>
       <c r="L24" s="47" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="L24:L27" si="43">_xlfn.CONCAT(C24)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M24" s="43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="M24:M27" si="44">CONCATENATE("", D24)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N24" s="43" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N24:N27" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
         <v>Veículo</v>
       </c>
       <c r="O24" s="44" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="O24:O27" si="46">F24</f>
         <v>Veículo.Especial</v>
       </c>
       <c r="P24" s="48" t="s">
         <v>104</v>
       </c>
       <c r="Q24" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R24" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S24" s="46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S24:S27" si="47">SUBSTITUTE(C24, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T24" s="46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="T24:T27" si="48">SUBSTITUTE(D24, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U24" s="43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U24:U27" si="49">SUBSTITUTE(E24, "_", " ")</f>
         <v>Veículo</v>
       </c>
       <c r="V24" s="43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="V24:V27" si="50">C24</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W24" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W24:W27" si="51">CONCATENATE("Key.",LEFT(C24,3),".",A24)</f>
         <v>Key.Inf.24</v>
       </c>
       <c r="X24" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y24" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4720,14 +4756,14 @@
         <v>87</v>
       </c>
       <c r="D25" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="60" t="s">
-        <v>135</v>
-      </c>
       <c r="G25" s="50" t="s">
         <v>1</v>
       </c>
@@ -4744,55 +4780,55 @@
         <v>1</v>
       </c>
       <c r="L25" s="47" t="str">
-        <f t="shared" ref="L25" si="43">_xlfn.CONCAT(C25)</f>
+        <f t="shared" si="43"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M25" s="43" t="str">
-        <f t="shared" ref="M25" si="44">CONCATENATE("", D25)</f>
+        <f t="shared" si="44"/>
         <v>Rodoviária</v>
       </c>
       <c r="N25" s="43" t="str">
-        <f t="shared" ref="N25" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
-        <v>Via</v>
+        <f t="shared" si="45"/>
+        <v>Veículo</v>
       </c>
       <c r="O25" s="44" t="str">
-        <f t="shared" ref="O25" si="46">F25</f>
-        <v>Estrada.Vicinal</v>
+        <f t="shared" si="46"/>
+        <v>Obra.Trator</v>
       </c>
       <c r="P25" s="48" t="s">
-        <v>96</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="47" t="s">
-        <v>275</v>
+        <v>457</v>
       </c>
       <c r="R25" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S25" s="46" t="str">
-        <f t="shared" ref="S25" si="47">SUBSTITUTE(C25, "_", " ")</f>
+        <f t="shared" si="47"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T25" s="46" t="str">
-        <f t="shared" ref="T25" si="48">SUBSTITUTE(D25, "_", " ")</f>
+        <f t="shared" si="48"/>
         <v>Rodoviária</v>
       </c>
       <c r="U25" s="43" t="str">
-        <f t="shared" ref="U25" si="49">SUBSTITUTE(E25, "_", " ")</f>
-        <v>Via</v>
+        <f t="shared" si="49"/>
+        <v>Veículo</v>
       </c>
       <c r="V25" s="43" t="str">
-        <f t="shared" ref="V25" si="50">C25</f>
+        <f t="shared" si="50"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W25" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="51"/>
         <v>Key.Inf.25</v>
       </c>
-      <c r="X25" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y25" s="81" t="s">
-        <v>173</v>
+      <c r="X25" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y25" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4806,13 +4842,13 @@
         <v>87</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E26" s="58" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="G26" s="50" t="s">
         <v>1</v>
@@ -4830,55 +4866,55 @@
         <v>1</v>
       </c>
       <c r="L26" s="47" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M26" s="43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>Rodoviária</v>
       </c>
       <c r="N26" s="43" t="str">
-        <f t="shared" si="40"/>
-        <v>Via</v>
+        <f t="shared" si="45"/>
+        <v>Veículo</v>
       </c>
       <c r="O26" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>Rodovia.Vicinal</v>
+        <f t="shared" si="46"/>
+        <v xml:space="preserve">Obra.Escavadeira.Hidráulica </v>
       </c>
       <c r="P26" s="48" t="s">
-        <v>97</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="47" t="s">
-        <v>276</v>
+        <v>458</v>
       </c>
       <c r="R26" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S26" s="46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T26" s="46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="48"/>
         <v>Rodoviária</v>
       </c>
       <c r="U26" s="43" t="str">
-        <f t="shared" si="12"/>
-        <v>Via</v>
+        <f t="shared" si="49"/>
+        <v>Veículo</v>
       </c>
       <c r="V26" s="43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="50"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W26" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="51"/>
         <v>Key.Inf.26</v>
       </c>
-      <c r="X26" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y26" s="81" t="s">
-        <v>173</v>
+      <c r="X26" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y26" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4892,13 +4928,13 @@
         <v>87</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>144</v>
+        <v>451</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>1</v>
@@ -4916,55 +4952,55 @@
         <v>1</v>
       </c>
       <c r="L27" s="47" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M27" s="43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>Rodoviária</v>
       </c>
       <c r="N27" s="43" t="str">
-        <f t="shared" si="40"/>
-        <v>Via</v>
+        <f t="shared" si="45"/>
+        <v>Veículo</v>
       </c>
       <c r="O27" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>Viela.Urbana</v>
+        <f t="shared" si="46"/>
+        <v>Obra.Retroescavadeira</v>
       </c>
       <c r="P27" s="48" t="s">
-        <v>149</v>
+        <v>455</v>
       </c>
       <c r="Q27" s="47" t="s">
-        <v>277</v>
+        <v>459</v>
       </c>
       <c r="R27" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T27" s="46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="48"/>
         <v>Rodoviária</v>
       </c>
       <c r="U27" s="43" t="str">
-        <f t="shared" si="12"/>
-        <v>Via</v>
+        <f t="shared" si="49"/>
+        <v>Veículo</v>
       </c>
       <c r="V27" s="43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="50"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W27" s="20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="51"/>
         <v>Key.Inf.27</v>
       </c>
-      <c r="X27" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y27" s="81" t="s">
-        <v>173</v>
+      <c r="X27" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y27" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4978,13 +5014,13 @@
         <v>87</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>146</v>
+        <v>452</v>
       </c>
       <c r="G28" s="50" t="s">
         <v>1</v>
@@ -5002,55 +5038,55 @@
         <v>1</v>
       </c>
       <c r="L28" s="47" t="str">
-        <f t="shared" ref="L28" si="51">_xlfn.CONCAT(C28)</f>
+        <f t="shared" si="38"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M28" s="43" t="str">
-        <f t="shared" ref="M28" si="52">CONCATENATE("", D28)</f>
+        <f t="shared" si="39"/>
         <v>Rodoviária</v>
       </c>
       <c r="N28" s="43" t="str">
-        <f t="shared" ref="N28" si="53">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
-        <v>Via</v>
+        <f t="shared" si="40"/>
+        <v>Veículo</v>
       </c>
       <c r="O28" s="44" t="str">
-        <f t="shared" ref="O28" si="54">F28</f>
-        <v>Rua.Local.Urbana</v>
+        <f t="shared" si="41"/>
+        <v>Obra.Motoniveladora</v>
       </c>
       <c r="P28" s="48" t="s">
-        <v>153</v>
+        <v>456</v>
       </c>
       <c r="Q28" s="47" t="s">
-        <v>278</v>
+        <v>460</v>
       </c>
       <c r="R28" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="46" t="str">
-        <f t="shared" ref="S28" si="55">SUBSTITUTE(C28, "_", " ")</f>
+        <f t="shared" si="42"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T28" s="46" t="str">
-        <f t="shared" ref="T28" si="56">SUBSTITUTE(D28, "_", " ")</f>
+        <f t="shared" si="11"/>
         <v>Rodoviária</v>
       </c>
       <c r="U28" s="43" t="str">
-        <f t="shared" ref="U28" si="57">SUBSTITUTE(E28, "_", " ")</f>
-        <v>Via</v>
+        <f t="shared" si="12"/>
+        <v>Veículo</v>
       </c>
       <c r="V28" s="43" t="str">
-        <f t="shared" ref="V28" si="58">C28</f>
+        <f t="shared" si="13"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W28" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.28</v>
       </c>
-      <c r="X28" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y28" s="81" t="s">
-        <v>173</v>
+      <c r="X28" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y28" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5064,13 +5100,13 @@
         <v>87</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>137</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G29" s="50" t="s">
         <v>1</v>
@@ -5088,44 +5124,44 @@
         <v>1</v>
       </c>
       <c r="L29" s="47" t="str">
-        <f t="shared" ref="L29" si="59">_xlfn.CONCAT(C29)</f>
+        <f t="shared" ref="L29" si="52">_xlfn.CONCAT(C29)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M29" s="43" t="str">
-        <f t="shared" ref="M29" si="60">CONCATENATE("", D29)</f>
+        <f t="shared" ref="M29" si="53">CONCATENATE("", D29)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N29" s="43" t="str">
-        <f t="shared" ref="N29" si="61">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N29" si="54">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
         <v>Via</v>
       </c>
       <c r="O29" s="44" t="str">
-        <f t="shared" ref="O29" si="62">F29</f>
-        <v>Rua.Coletora.Urbana</v>
+        <f t="shared" ref="O29" si="55">F29</f>
+        <v>Estrada.Vicinal</v>
       </c>
       <c r="P29" s="48" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="47" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="R29" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="46" t="str">
-        <f t="shared" ref="S29" si="63">SUBSTITUTE(C29, "_", " ")</f>
+        <f t="shared" ref="S29" si="56">SUBSTITUTE(C29, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T29" s="46" t="str">
-        <f t="shared" ref="T29" si="64">SUBSTITUTE(D29, "_", " ")</f>
+        <f t="shared" ref="T29" si="57">SUBSTITUTE(D29, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U29" s="43" t="str">
-        <f t="shared" ref="U29" si="65">SUBSTITUTE(E29, "_", " ")</f>
+        <f t="shared" ref="U29" si="58">SUBSTITUTE(E29, "_", " ")</f>
         <v>Via</v>
       </c>
       <c r="V29" s="43" t="str">
-        <f t="shared" ref="V29" si="66">C29</f>
+        <f t="shared" ref="V29" si="59">C29</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W29" s="20" t="str">
@@ -5150,13 +5186,13 @@
         <v>87</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E30" s="58" t="s">
         <v>137</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G30" s="50" t="s">
         <v>1</v>
@@ -5187,13 +5223,13 @@
       </c>
       <c r="O30" s="44" t="str">
         <f t="shared" si="41"/>
-        <v>Avenida.Arterial</v>
+        <v>Rodovia.Vicinal</v>
       </c>
       <c r="P30" s="48" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="Q30" s="47" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="R30" s="45" t="s">
         <v>1</v>
@@ -5236,13 +5272,13 @@
         <v>87</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E31" s="58" t="s">
         <v>137</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G31" s="50" t="s">
         <v>1</v>
@@ -5260,44 +5296,44 @@
         <v>1</v>
       </c>
       <c r="L31" s="47" t="str">
-        <f t="shared" ref="L31" si="67">_xlfn.CONCAT(C31)</f>
+        <f t="shared" si="38"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M31" s="43" t="str">
-        <f t="shared" ref="M31" si="68">CONCATENATE("", D31)</f>
+        <f t="shared" si="39"/>
         <v>Rodoviária</v>
       </c>
       <c r="N31" s="43" t="str">
-        <f t="shared" ref="N31" si="69">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
+        <f t="shared" si="40"/>
         <v>Via</v>
       </c>
       <c r="O31" s="44" t="str">
-        <f t="shared" ref="O31" si="70">F31</f>
-        <v>Avenida.Expressa</v>
+        <f t="shared" si="41"/>
+        <v>Viela.Urbana</v>
       </c>
       <c r="P31" s="48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q31" s="47" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="R31" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S31" s="46" t="str">
-        <f t="shared" ref="S31" si="71">SUBSTITUTE(C31, "_", " ")</f>
+        <f t="shared" si="42"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T31" s="46" t="str">
-        <f t="shared" ref="T31" si="72">SUBSTITUTE(D31, "_", " ")</f>
+        <f t="shared" si="11"/>
         <v>Rodoviária</v>
       </c>
       <c r="U31" s="43" t="str">
-        <f t="shared" ref="U31" si="73">SUBSTITUTE(E31, "_", " ")</f>
+        <f t="shared" si="12"/>
         <v>Via</v>
       </c>
       <c r="V31" s="43" t="str">
-        <f t="shared" ref="V31" si="74">C31</f>
+        <f t="shared" si="13"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W31" s="20" t="str">
@@ -5322,13 +5358,13 @@
         <v>87</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E32" s="58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="G32" s="50" t="s">
         <v>1</v>
@@ -5346,44 +5382,44 @@
         <v>1</v>
       </c>
       <c r="L32" s="47" t="str">
-        <f t="shared" ref="L32:L35" si="75">_xlfn.CONCAT(C32)</f>
+        <f t="shared" ref="L32" si="60">_xlfn.CONCAT(C32)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M32" s="43" t="str">
-        <f t="shared" ref="M32:M35" si="76">CONCATENATE("", D32)</f>
+        <f t="shared" ref="M32" si="61">CONCATENATE("", D32)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N32" s="43" t="str">
-        <f t="shared" ref="N32:N35" si="77">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
-        <v>Faixa</v>
+        <f t="shared" ref="N32" si="62">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
+        <v>Via</v>
       </c>
       <c r="O32" s="44" t="str">
-        <f t="shared" ref="O32:O35" si="78">F32</f>
-        <v>Faixa.de.Rolamento</v>
+        <f t="shared" ref="O32" si="63">F32</f>
+        <v>Rua.Local.Urbana</v>
       </c>
       <c r="P32" s="48" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="Q32" s="47" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R32" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S32" s="46" t="str">
-        <f t="shared" ref="S32:S35" si="79">SUBSTITUTE(C32, "_", " ")</f>
+        <f t="shared" ref="S32" si="64">SUBSTITUTE(C32, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T32" s="46" t="str">
-        <f t="shared" ref="T32:T35" si="80">SUBSTITUTE(D32, "_", " ")</f>
+        <f t="shared" ref="T32" si="65">SUBSTITUTE(D32, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U32" s="43" t="str">
-        <f t="shared" ref="U32:U35" si="81">SUBSTITUTE(E32, "_", " ")</f>
-        <v>Faixa</v>
+        <f t="shared" ref="U32" si="66">SUBSTITUTE(E32, "_", " ")</f>
+        <v>Via</v>
       </c>
       <c r="V32" s="43" t="str">
-        <f t="shared" ref="V32:V35" si="82">C32</f>
+        <f t="shared" ref="V32" si="67">C32</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W32" s="20" t="str">
@@ -5408,13 +5444,13 @@
         <v>87</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E33" s="58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G33" s="50" t="s">
         <v>1</v>
@@ -5432,44 +5468,44 @@
         <v>1</v>
       </c>
       <c r="L33" s="47" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="L33" si="68">_xlfn.CONCAT(C33)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M33" s="43" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="M33" si="69">CONCATENATE("", D33)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N33" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>Faixa</v>
+        <f t="shared" ref="N33" si="70">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
+        <v>Via</v>
       </c>
       <c r="O33" s="44" t="str">
-        <f t="shared" si="78"/>
-        <v>Meio.Fio</v>
+        <f t="shared" ref="O33" si="71">F33</f>
+        <v>Rua.Coletora.Urbana</v>
       </c>
       <c r="P33" s="48" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="Q33" s="47" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="R33" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S33" s="46" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="S33" si="72">SUBSTITUTE(C33, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T33" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="T33" si="73">SUBSTITUTE(D33, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U33" s="43" t="str">
-        <f t="shared" si="81"/>
-        <v>Faixa</v>
+        <f t="shared" ref="U33" si="74">SUBSTITUTE(E33, "_", " ")</f>
+        <v>Via</v>
       </c>
       <c r="V33" s="43" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="V33" si="75">C33</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W33" s="20" t="str">
@@ -5480,7 +5516,7 @@
         <v>172</v>
       </c>
       <c r="Y33" s="81" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5494,13 +5530,13 @@
         <v>87</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E34" s="58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G34" s="50" t="s">
         <v>1</v>
@@ -5518,44 +5554,44 @@
         <v>1</v>
       </c>
       <c r="L34" s="47" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="38"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M34" s="43" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="39"/>
         <v>Rodoviária</v>
       </c>
       <c r="N34" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>Faixa</v>
+        <f t="shared" si="40"/>
+        <v>Via</v>
       </c>
       <c r="O34" s="44" t="str">
-        <f t="shared" si="78"/>
-        <v>Calçada</v>
+        <f t="shared" si="41"/>
+        <v>Avenida.Arterial</v>
       </c>
       <c r="P34" s="48" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="47" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="R34" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="46" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="42"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T34" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="11"/>
         <v>Rodoviária</v>
       </c>
       <c r="U34" s="43" t="str">
-        <f t="shared" si="81"/>
-        <v>Faixa</v>
+        <f t="shared" si="12"/>
+        <v>Via</v>
       </c>
       <c r="V34" s="43" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="13"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W34" s="20" t="str">
@@ -5580,13 +5616,13 @@
         <v>87</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E35" s="58" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" s="50" t="s">
         <v>1</v>
@@ -5604,44 +5640,44 @@
         <v>1</v>
       </c>
       <c r="L35" s="47" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="L35" si="76">_xlfn.CONCAT(C35)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M35" s="43" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="M35" si="77">CONCATENATE("", D35)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N35" s="43" t="str">
-        <f t="shared" si="77"/>
-        <v>Faixa</v>
+        <f t="shared" ref="N35" si="78">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E35),"."," ")," De "," de "))</f>
+        <v>Via</v>
       </c>
       <c r="O35" s="44" t="str">
-        <f t="shared" si="78"/>
-        <v>Ciclofaixa</v>
+        <f t="shared" ref="O35" si="79">F35</f>
+        <v>Avenida.Expressa</v>
       </c>
       <c r="P35" s="48" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q35" s="47" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="R35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S35" s="46" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="S35" si="80">SUBSTITUTE(C35, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T35" s="46" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="T35" si="81">SUBSTITUTE(D35, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U35" s="43" t="str">
-        <f t="shared" si="81"/>
-        <v>Faixa</v>
+        <f t="shared" ref="U35" si="82">SUBSTITUTE(E35, "_", " ")</f>
+        <v>Via</v>
       </c>
       <c r="V35" s="43" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="V35" si="83">C35</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W35" s="20" t="str">
@@ -5666,13 +5702,13 @@
         <v>87</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E36" s="58" t="s">
         <v>126</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>1</v>
@@ -5690,44 +5726,44 @@
         <v>1</v>
       </c>
       <c r="L36" s="47" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="L36:L39" si="84">_xlfn.CONCAT(C36)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M36" s="43" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="M36:M39" si="85">CONCATENATE("", D36)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N36" s="43" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N36:N39" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E36),"."," ")," De "," de "))</f>
         <v>Faixa</v>
       </c>
       <c r="O36" s="44" t="str">
-        <f t="shared" si="41"/>
-        <v>Ciclovia</v>
+        <f t="shared" ref="O36:O39" si="87">F36</f>
+        <v>Faixa.de.Rolamento</v>
       </c>
       <c r="P36" s="48" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="Q36" s="47" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="R36" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S36" s="46" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="S36:S39" si="88">SUBSTITUTE(C36, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T36" s="46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="T36:T39" si="89">SUBSTITUTE(D36, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U36" s="43" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U36:U39" si="90">SUBSTITUTE(E36, "_", " ")</f>
         <v>Faixa</v>
       </c>
       <c r="V36" s="43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="V36:V39" si="91">C36</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W36" s="20" t="str">
@@ -5752,13 +5788,13 @@
         <v>87</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E37" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="G37" s="50" t="s">
         <v>1</v>
@@ -5776,44 +5812,44 @@
         <v>1</v>
       </c>
       <c r="L37" s="47" t="str">
-        <f t="shared" ref="L37:L39" si="83">_xlfn.CONCAT(C37)</f>
+        <f t="shared" si="84"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M37" s="43" t="str">
-        <f t="shared" ref="M37:M39" si="84">CONCATENATE("", D37)</f>
+        <f t="shared" si="85"/>
         <v>Rodoviária</v>
       </c>
       <c r="N37" s="43" t="str">
-        <f t="shared" ref="N37:N39" si="85">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E37),"."," ")," De "," de "))</f>
-        <v>Proteção</v>
+        <f t="shared" si="86"/>
+        <v>Faixa</v>
       </c>
       <c r="O37" s="44" t="str">
-        <f t="shared" ref="O37:O39" si="86">F37</f>
-        <v>Contenção.Perfil</v>
+        <f t="shared" si="87"/>
+        <v>Meio.Fio</v>
       </c>
       <c r="P37" s="48" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="Q37" s="47" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="R37" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S37" s="46" t="str">
-        <f t="shared" ref="S37:S39" si="87">SUBSTITUTE(C37, "_", " ")</f>
+        <f t="shared" si="88"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T37" s="46" t="str">
-        <f t="shared" ref="T37:T39" si="88">SUBSTITUTE(D37, "_", " ")</f>
+        <f t="shared" si="89"/>
         <v>Rodoviária</v>
       </c>
       <c r="U37" s="43" t="str">
-        <f t="shared" ref="U37:U39" si="89">SUBSTITUTE(E37, "_", " ")</f>
-        <v>Proteção</v>
+        <f t="shared" si="90"/>
+        <v>Faixa</v>
       </c>
       <c r="V37" s="43" t="str">
-        <f t="shared" ref="V37:V39" si="90">C37</f>
+        <f t="shared" si="91"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W37" s="20" t="str">
@@ -5821,10 +5857,10 @@
         <v>Key.Inf.37</v>
       </c>
       <c r="X37" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y37" s="46" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="Y37" s="81" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5838,13 +5874,13 @@
         <v>87</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="G38" s="50" t="s">
         <v>1</v>
@@ -5862,44 +5898,44 @@
         <v>1</v>
       </c>
       <c r="L38" s="47" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M38" s="43" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Rodoviária</v>
       </c>
       <c r="N38" s="43" t="str">
-        <f t="shared" si="85"/>
-        <v>Proteção</v>
+        <f t="shared" si="86"/>
+        <v>Faixa</v>
       </c>
       <c r="O38" s="44" t="str">
-        <f t="shared" si="86"/>
-        <v>Contenção.Cortina</v>
+        <f t="shared" si="87"/>
+        <v>Calçada</v>
       </c>
       <c r="P38" s="48" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="47" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="R38" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S38" s="46" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T38" s="46" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>Rodoviária</v>
       </c>
       <c r="U38" s="43" t="str">
-        <f t="shared" si="89"/>
-        <v>Proteção</v>
+        <f t="shared" si="90"/>
+        <v>Faixa</v>
       </c>
       <c r="V38" s="43" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W38" s="20" t="str">
@@ -5907,10 +5943,10 @@
         <v>Key.Inf.38</v>
       </c>
       <c r="X38" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y38" s="46" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="Y38" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5924,13 +5960,13 @@
         <v>87</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>320</v>
+        <v>142</v>
       </c>
       <c r="G39" s="50" t="s">
         <v>1</v>
@@ -5948,44 +5984,44 @@
         <v>1</v>
       </c>
       <c r="L39" s="47" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M39" s="43" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>Rodoviária</v>
       </c>
       <c r="N39" s="43" t="str">
-        <f t="shared" si="85"/>
-        <v>Proteção</v>
+        <f t="shared" si="86"/>
+        <v>Faixa</v>
       </c>
       <c r="O39" s="44" t="str">
-        <f t="shared" si="86"/>
-        <v>Contenção.Guardacorpo</v>
+        <f t="shared" si="87"/>
+        <v>Ciclofaixa</v>
       </c>
       <c r="P39" s="48" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="Q39" s="47" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="R39" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="46" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T39" s="46" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>Rodoviária</v>
       </c>
       <c r="U39" s="43" t="str">
-        <f t="shared" si="89"/>
-        <v>Proteção</v>
+        <f t="shared" si="90"/>
+        <v>Faixa</v>
       </c>
       <c r="V39" s="43" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W39" s="20" t="str">
@@ -5993,10 +6029,10 @@
         <v>Key.Inf.39</v>
       </c>
       <c r="X39" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y39" s="46" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="Y39" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6010,13 +6046,13 @@
         <v>87</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>321</v>
+        <v>140</v>
       </c>
       <c r="G40" s="50" t="s">
         <v>1</v>
@@ -6043,17 +6079,17 @@
       </c>
       <c r="N40" s="43" t="str">
         <f t="shared" si="40"/>
-        <v>Proteção</v>
+        <v>Faixa</v>
       </c>
       <c r="O40" s="44" t="str">
         <f t="shared" si="41"/>
-        <v>Contenção.GuardaRail</v>
+        <v>Ciclovia</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="47" t="s">
-        <v>406</v>
+        <v>285</v>
       </c>
       <c r="R40" s="45" t="s">
         <v>1</v>
@@ -6068,7 +6104,7 @@
       </c>
       <c r="U40" s="43" t="str">
         <f t="shared" si="12"/>
-        <v>Proteção</v>
+        <v>Faixa</v>
       </c>
       <c r="V40" s="43" t="str">
         <f t="shared" si="13"/>
@@ -6079,10 +6115,10 @@
         <v>Key.Inf.40</v>
       </c>
       <c r="X40" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y40" s="46" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="Y40" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6096,13 +6132,13 @@
         <v>87</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E41" s="58" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F41" s="60" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="G41" s="50" t="s">
         <v>1</v>
@@ -6120,55 +6156,55 @@
         <v>1</v>
       </c>
       <c r="L41" s="47" t="str">
-        <f t="shared" ref="L41:L46" si="91">_xlfn.CONCAT(C41)</f>
+        <f t="shared" ref="L41:L43" si="92">_xlfn.CONCAT(C41)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M41" s="43" t="str">
-        <f t="shared" ref="M41:M46" si="92">CONCATENATE("", D41)</f>
+        <f t="shared" ref="M41:M43" si="93">CONCATENATE("", D41)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N41" s="43" t="str">
-        <f t="shared" ref="N41:N67" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
-        <v>Obra de Arte Especial</v>
+        <f t="shared" ref="N41:N43" si="94">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
+        <v>Proteção</v>
       </c>
       <c r="O41" s="44" t="str">
-        <f t="shared" ref="O41:O67" si="94">F41</f>
-        <v>Ponte</v>
+        <f t="shared" ref="O41:O43" si="95">F41</f>
+        <v>Contenção.Perfil</v>
       </c>
       <c r="P41" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q41" s="47" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R41" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S41" s="46" t="str">
-        <f t="shared" ref="S41:S46" si="95">SUBSTITUTE(C41, "_", " ")</f>
+        <f t="shared" ref="S41:S43" si="96">SUBSTITUTE(C41, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T41" s="46" t="str">
-        <f t="shared" ref="T41:T46" si="96">SUBSTITUTE(D41, "_", " ")</f>
+        <f t="shared" ref="T41:T43" si="97">SUBSTITUTE(D41, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U41" s="43" t="str">
-        <f t="shared" ref="U41:U46" si="97">SUBSTITUTE(E41, "_", " ")</f>
-        <v>Obra.de.Arte.Especial</v>
+        <f t="shared" ref="U41:U43" si="98">SUBSTITUTE(E41, "_", " ")</f>
+        <v>Proteção</v>
       </c>
       <c r="V41" s="43" t="str">
-        <f t="shared" ref="V41:V46" si="98">C41</f>
+        <f t="shared" ref="V41:V43" si="99">C41</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W41" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.41</v>
       </c>
-      <c r="X41" s="46" t="s">
-        <v>1</v>
+      <c r="X41" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="Y41" s="46" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6182,13 +6218,13 @@
         <v>87</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="G42" s="50" t="s">
         <v>1</v>
@@ -6206,55 +6242,55 @@
         <v>1</v>
       </c>
       <c r="L42" s="47" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M42" s="43" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>Rodoviária</v>
       </c>
       <c r="N42" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>Obra de Arte Especial</v>
+        <f t="shared" si="94"/>
+        <v>Proteção</v>
       </c>
       <c r="O42" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>Viaduto</v>
+        <f t="shared" si="95"/>
+        <v>Contenção.Cortina</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q42" s="47" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="R42" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S42" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T42" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Rodoviária</v>
       </c>
       <c r="U42" s="43" t="str">
-        <f t="shared" si="97"/>
-        <v>Obra.de.Arte.Especial</v>
+        <f t="shared" si="98"/>
+        <v>Proteção</v>
       </c>
       <c r="V42" s="43" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W42" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.42</v>
       </c>
-      <c r="X42" s="46" t="s">
-        <v>1</v>
+      <c r="X42" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="Y42" s="46" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6268,13 +6304,13 @@
         <v>87</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F43" s="60" t="s">
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="G43" s="50" t="s">
         <v>1</v>
@@ -6292,55 +6328,55 @@
         <v>1</v>
       </c>
       <c r="L43" s="47" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M43" s="43" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>Rodoviária</v>
       </c>
       <c r="N43" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>Obra de Arte Especial</v>
+        <f t="shared" si="94"/>
+        <v>Proteção</v>
       </c>
       <c r="O43" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>Passarela</v>
+        <f t="shared" si="95"/>
+        <v>Contenção.Guardacorpo</v>
       </c>
       <c r="P43" s="48" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="Q43" s="47" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R43" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S43" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T43" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>Rodoviária</v>
       </c>
       <c r="U43" s="43" t="str">
-        <f t="shared" si="97"/>
-        <v>Obra.de.Arte.Especial</v>
+        <f t="shared" si="98"/>
+        <v>Proteção</v>
       </c>
       <c r="V43" s="43" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W43" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.43</v>
       </c>
-      <c r="X43" s="46" t="s">
-        <v>1</v>
+      <c r="X43" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="Y43" s="46" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6354,13 +6390,13 @@
         <v>87</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G44" s="50" t="s">
         <v>1</v>
@@ -6378,55 +6414,55 @@
         <v>1</v>
       </c>
       <c r="L44" s="47" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="38"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M44" s="43" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="39"/>
         <v>Rodoviária</v>
       </c>
       <c r="N44" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>Obra de Arte Especial</v>
+        <f t="shared" si="40"/>
+        <v>Proteção</v>
       </c>
       <c r="O44" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>Túnel.Terrestre</v>
+        <f t="shared" si="41"/>
+        <v>Contenção.GuardaRail</v>
       </c>
       <c r="P44" s="48" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="Q44" s="47" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="R44" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="42"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T44" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="11"/>
         <v>Rodoviária</v>
       </c>
       <c r="U44" s="43" t="str">
-        <f t="shared" si="97"/>
-        <v>Obra.de.Arte.Especial</v>
+        <f t="shared" si="12"/>
+        <v>Proteção</v>
       </c>
       <c r="V44" s="43" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="13"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W44" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.44</v>
       </c>
-      <c r="X44" s="46" t="s">
-        <v>1</v>
+      <c r="X44" s="44" t="s">
+        <v>322</v>
       </c>
       <c r="Y44" s="46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6440,13 +6476,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E45" s="58" t="s">
         <v>186</v>
       </c>
       <c r="F45" s="60" t="s">
-        <v>329</v>
+        <v>129</v>
       </c>
       <c r="G45" s="50" t="s">
         <v>1</v>
@@ -6464,44 +6500,44 @@
         <v>1</v>
       </c>
       <c r="L45" s="47" t="str">
-        <f t="shared" ref="L45" si="99">_xlfn.CONCAT(C45)</f>
+        <f t="shared" ref="L45:L50" si="100">_xlfn.CONCAT(C45)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M45" s="43" t="str">
-        <f t="shared" ref="M45" si="100">CONCATENATE("", D45)</f>
+        <f t="shared" ref="M45:M50" si="101">CONCATENATE("", D45)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N45" s="43" t="str">
-        <f t="shared" ref="N45" si="101">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N45:N71" si="102">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
         <v>Obra de Arte Especial</v>
       </c>
       <c r="O45" s="44" t="str">
-        <f t="shared" ref="O45" si="102">F45</f>
-        <v>Túnel.Acuático</v>
+        <f t="shared" ref="O45:O71" si="103">F45</f>
+        <v>Ponte</v>
       </c>
       <c r="P45" s="48" t="s">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="Q45" s="47" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="R45" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S45" s="46" t="str">
-        <f t="shared" ref="S45" si="103">SUBSTITUTE(C45, "_", " ")</f>
+        <f t="shared" ref="S45:S50" si="104">SUBSTITUTE(C45, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T45" s="46" t="str">
-        <f t="shared" ref="T45" si="104">SUBSTITUTE(D45, "_", " ")</f>
+        <f t="shared" ref="T45:T50" si="105">SUBSTITUTE(D45, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U45" s="43" t="str">
-        <f t="shared" ref="U45" si="105">SUBSTITUTE(E45, "_", " ")</f>
+        <f t="shared" ref="U45:U50" si="106">SUBSTITUTE(E45, "_", " ")</f>
         <v>Obra.de.Arte.Especial</v>
       </c>
       <c r="V45" s="43" t="str">
-        <f t="shared" ref="V45" si="106">C45</f>
+        <f t="shared" ref="V45:V50" si="107">C45</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W45" s="20" t="str">
@@ -6512,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="Y45" s="46" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6526,13 +6562,13 @@
         <v>87</v>
       </c>
       <c r="D46" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E46" s="58" t="s">
         <v>186</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G46" s="50" t="s">
         <v>1</v>
@@ -6550,44 +6586,44 @@
         <v>1</v>
       </c>
       <c r="L46" s="47" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M46" s="43" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>Rodoviária</v>
       </c>
       <c r="N46" s="43" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="102"/>
         <v>Obra de Arte Especial</v>
       </c>
       <c r="O46" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>Garagem</v>
+        <f t="shared" si="103"/>
+        <v>Viaduto</v>
       </c>
       <c r="P46" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q46" s="47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="R46" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S46" s="46" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T46" s="46" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>Rodoviária</v>
       </c>
       <c r="U46" s="43" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>Obra.de.Arte.Especial</v>
       </c>
       <c r="V46" s="43" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="107"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W46" s="20" t="str">
@@ -6598,82 +6634,82 @@
         <v>1</v>
       </c>
       <c r="Y46" s="46" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>47</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E47" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F47" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L47" s="43" t="str">
-        <f t="shared" ref="L47:M67" si="107">CONCATENATE("", C47)</f>
+        <v>186</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L47" s="47" t="str">
+        <f t="shared" si="100"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M47" s="43" t="str">
+        <f t="shared" si="101"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="N47" s="43" t="str">
+        <f t="shared" si="102"/>
+        <v>Obra de Arte Especial</v>
+      </c>
+      <c r="O47" s="44" t="str">
+        <f t="shared" si="103"/>
+        <v>Passarela</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q47" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="R47" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S47" s="46" t="str">
+        <f t="shared" si="104"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T47" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U47" s="43" t="str">
+        <f t="shared" si="106"/>
+        <v>Obra.de.Arte.Especial</v>
+      </c>
+      <c r="V47" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="N47" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
-      </c>
-      <c r="O47" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Aparelho.Apóio</v>
-      </c>
-      <c r="P47" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q47" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="R47" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S47" s="46" t="str">
-        <f t="shared" ref="S47:U67" si="108">SUBSTITUTE(C47, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T47" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="U47" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
-      </c>
-      <c r="V47" s="46" t="str">
-        <f t="shared" ref="V47:V67" si="109">SUBSTITUTE(C47, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W47" s="20" t="str">
@@ -6681,85 +6717,85 @@
         <v>Key.Inf.47</v>
       </c>
       <c r="X47" s="46" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>48</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>189</v>
-      </c>
-      <c r="G48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="43" t="str">
-        <f t="shared" ref="L48" si="110">CONCATENATE("", C48)</f>
+        <v>186</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" s="47" t="str">
+        <f t="shared" si="100"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M48" s="43" t="str">
-        <f t="shared" ref="M48" si="111">CONCATENATE("", D48)</f>
+        <f t="shared" si="101"/>
         <v>Rodoviária</v>
       </c>
       <c r="N48" s="43" t="str">
-        <f t="shared" ref="N48" si="112">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E48),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>Obra de Arte Especial</v>
       </c>
       <c r="O48" s="44" t="str">
-        <f t="shared" ref="O48" si="113">F48</f>
-        <v>OAE.Estaca</v>
-      </c>
-      <c r="P48" s="44" t="s">
-        <v>212</v>
+        <f t="shared" si="103"/>
+        <v>Túnel.Terrestre</v>
+      </c>
+      <c r="P48" s="48" t="s">
+        <v>233</v>
       </c>
       <c r="Q48" s="47" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="R48" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S48" s="46" t="str">
-        <f t="shared" ref="S48" si="114">SUBSTITUTE(C48, "_", " ")</f>
+        <f t="shared" si="104"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T48" s="46" t="str">
-        <f t="shared" ref="T48" si="115">SUBSTITUTE(D48, "_", " ")</f>
-        <v>Rodoviária</v>
-      </c>
-      <c r="U48" s="46" t="str">
-        <f t="shared" ref="U48" si="116">SUBSTITUTE(E48, "_", " ")</f>
-        <v>AOE.Parte</v>
-      </c>
-      <c r="V48" s="46" t="str">
-        <f t="shared" ref="V48" si="117">SUBSTITUTE(C48, "_", " ")</f>
+        <f t="shared" si="105"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U48" s="43" t="str">
+        <f t="shared" si="106"/>
+        <v>Obra.de.Arte.Especial</v>
+      </c>
+      <c r="V48" s="43" t="str">
+        <f t="shared" si="107"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W48" s="20" t="str">
@@ -6767,85 +6803,85 @@
         <v>Key.Inf.48</v>
       </c>
       <c r="X48" s="46" t="s">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="46" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>49</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="80" t="s">
+      <c r="C49" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E49" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L49" s="43" t="str">
-        <f t="shared" si="107"/>
+        <v>186</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="47" t="str">
+        <f t="shared" ref="L49" si="108">_xlfn.CONCAT(C49)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M49" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="M49" si="109">CONCATENATE("", D49)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N49" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N49" si="110">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E49),"."," ")," De "," de "))</f>
+        <v>Obra de Arte Especial</v>
       </c>
       <c r="O49" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Fundação</v>
-      </c>
-      <c r="P49" s="44" t="s">
-        <v>213</v>
+        <f t="shared" ref="O49" si="111">F49</f>
+        <v>Túnel.Acuático</v>
+      </c>
+      <c r="P49" s="48" t="s">
+        <v>329</v>
       </c>
       <c r="Q49" s="47" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="R49" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S49" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="S49" si="112">SUBSTITUTE(C49, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T49" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="U49" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
-      </c>
-      <c r="V49" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="T49" si="113">SUBSTITUTE(D49, "_", " ")</f>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U49" s="43" t="str">
+        <f t="shared" ref="U49" si="114">SUBSTITUTE(E49, "_", " ")</f>
+        <v>Obra.de.Arte.Especial</v>
+      </c>
+      <c r="V49" s="43" t="str">
+        <f t="shared" ref="V49" si="115">C49</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W49" s="20" t="str">
@@ -6853,85 +6889,85 @@
         <v>Key.Inf.49</v>
       </c>
       <c r="X49" s="46" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="46" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>50</v>
       </c>
-      <c r="B50" s="79" t="s">
+      <c r="B50" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="80" t="s">
+      <c r="C50" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L50" s="43" t="str">
+        <v>186</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="47" t="str">
+        <f t="shared" si="100"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M50" s="43" t="str">
+        <f t="shared" si="101"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="N50" s="43" t="str">
+        <f t="shared" si="102"/>
+        <v>Obra de Arte Especial</v>
+      </c>
+      <c r="O50" s="44" t="str">
+        <f t="shared" si="103"/>
+        <v>Garagem</v>
+      </c>
+      <c r="P50" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q50" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="R50" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S50" s="46" t="str">
+        <f t="shared" si="104"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T50" s="46" t="str">
+        <f t="shared" si="105"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U50" s="43" t="str">
+        <f t="shared" si="106"/>
+        <v>Obra.de.Arte.Especial</v>
+      </c>
+      <c r="V50" s="43" t="str">
         <f t="shared" si="107"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M50" s="43" t="str">
-        <f t="shared" si="107"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="N50" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
-      </c>
-      <c r="O50" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Encontro</v>
-      </c>
-      <c r="P50" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q50" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="R50" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S50" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T50" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="U50" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
-      </c>
-      <c r="V50" s="46" t="str">
-        <f t="shared" si="109"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W50" s="20" t="str">
@@ -6939,10 +6975,10 @@
         <v>Key.Inf.50</v>
       </c>
       <c r="X50" s="46" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="46" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -6956,14 +6992,14 @@
         <v>87</v>
       </c>
       <c r="D51" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E51" s="58" t="s">
+        <v>461</v>
+      </c>
+      <c r="F51" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="79" t="s">
-        <v>192</v>
-      </c>
       <c r="G51" s="42" t="s">
         <v>1</v>
       </c>
@@ -6980,44 +7016,44 @@
         <v>1</v>
       </c>
       <c r="L51" s="43" t="str">
-        <f t="shared" ref="L51:L53" si="118">CONCATENATE("", C51)</f>
+        <f t="shared" ref="L51:M71" si="116">CONCATENATE("", C51)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M51" s="43" t="str">
-        <f t="shared" ref="M51:M53" si="119">CONCATENATE("", D51)</f>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N51" s="43" t="str">
-        <f t="shared" ref="N51:N53" si="120">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E51),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O51" s="44" t="str">
-        <f t="shared" ref="O51:O53" si="121">F51</f>
-        <v>OAE.Pilone</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Aparelho.Apóio</v>
       </c>
       <c r="P51" s="44" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q51" s="47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="R51" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="46" t="str">
-        <f t="shared" ref="S51:S53" si="122">SUBSTITUTE(C51, "_", " ")</f>
+        <f t="shared" ref="S51:U71" si="117">SUBSTITUTE(C51, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T51" s="46" t="str">
-        <f t="shared" ref="T51:T53" si="123">SUBSTITUTE(D51, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U51" s="46" t="str">
-        <f t="shared" ref="U51:U53" si="124">SUBSTITUTE(E51, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V51" s="46" t="str">
-        <f t="shared" ref="V51:V53" si="125">SUBSTITUTE(C51, "_", " ")</f>
+        <f t="shared" ref="V51:V71" si="118">SUBSTITUTE(C51, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W51" s="20" t="str">
@@ -7025,10 +7061,10 @@
         <v>Key.Inf.51</v>
       </c>
       <c r="X51" s="46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y51" s="46" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -7042,13 +7078,13 @@
         <v>87</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G52" s="42" t="s">
         <v>1</v>
@@ -7066,44 +7102,44 @@
         <v>1</v>
       </c>
       <c r="L52" s="43" t="str">
-        <f t="shared" ref="L52" si="126">CONCATENATE("", C52)</f>
+        <f t="shared" ref="L52" si="119">CONCATENATE("", C52)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M52" s="43" t="str">
-        <f t="shared" ref="M52" si="127">CONCATENATE("", D52)</f>
+        <f t="shared" ref="M52" si="120">CONCATENATE("", D52)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N52" s="43" t="str">
-        <f t="shared" ref="N52" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E52),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N52" si="121">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E52),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O52" s="44" t="str">
-        <f t="shared" ref="O52" si="129">F52</f>
-        <v>OAE.Arco</v>
+        <f t="shared" ref="O52" si="122">F52</f>
+        <v>OAE.Estaca</v>
       </c>
       <c r="P52" s="44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q52" s="47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="R52" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S52" s="46" t="str">
-        <f t="shared" ref="S52" si="130">SUBSTITUTE(C52, "_", " ")</f>
+        <f t="shared" ref="S52" si="123">SUBSTITUTE(C52, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T52" s="46" t="str">
-        <f t="shared" ref="T52" si="131">SUBSTITUTE(D52, "_", " ")</f>
+        <f t="shared" ref="T52" si="124">SUBSTITUTE(D52, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U52" s="46" t="str">
-        <f t="shared" ref="U52" si="132">SUBSTITUTE(E52, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U52" si="125">SUBSTITUTE(E52, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V52" s="46" t="str">
-        <f t="shared" ref="V52" si="133">SUBSTITUTE(C52, "_", " ")</f>
+        <f t="shared" ref="V52" si="126">SUBSTITUTE(C52, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W52" s="20" t="str">
@@ -7111,7 +7147,7 @@
         <v>Key.Inf.52</v>
       </c>
       <c r="X52" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y52" s="46" t="s">
         <v>165</v>
@@ -7128,13 +7164,13 @@
         <v>87</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F53" s="79" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>1</v>
@@ -7152,44 +7188,44 @@
         <v>1</v>
       </c>
       <c r="L53" s="43" t="str">
+        <f t="shared" si="116"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M53" s="43" t="str">
+        <f t="shared" si="116"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="N53" s="43" t="str">
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
+      </c>
+      <c r="O53" s="44" t="str">
+        <f t="shared" si="103"/>
+        <v>OAE.Fundação</v>
+      </c>
+      <c r="P53" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q53" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="R53" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="46" t="str">
+        <f t="shared" si="117"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T53" s="46" t="str">
+        <f t="shared" si="117"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U53" s="46" t="str">
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
+      </c>
+      <c r="V53" s="46" t="str">
         <f t="shared" si="118"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M53" s="43" t="str">
-        <f t="shared" si="119"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="N53" s="43" t="str">
-        <f t="shared" si="120"/>
-        <v>AOE Parte</v>
-      </c>
-      <c r="O53" s="44" t="str">
-        <f t="shared" si="121"/>
-        <v>OAE.Torre</v>
-      </c>
-      <c r="P53" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q53" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="R53" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S53" s="46" t="str">
-        <f t="shared" si="122"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T53" s="46" t="str">
-        <f t="shared" si="123"/>
-        <v>Rodoviária</v>
-      </c>
-      <c r="U53" s="46" t="str">
-        <f t="shared" si="124"/>
-        <v>AOE.Parte</v>
-      </c>
-      <c r="V53" s="46" t="str">
-        <f t="shared" si="125"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W53" s="20" t="str">
@@ -7197,7 +7233,7 @@
         <v>Key.Inf.53</v>
       </c>
       <c r="X53" s="46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Y53" s="46" t="s">
         <v>165</v>
@@ -7214,13 +7250,13 @@
         <v>87</v>
       </c>
       <c r="D54" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F54" s="79" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G54" s="42" t="s">
         <v>1</v>
@@ -7238,44 +7274,44 @@
         <v>1</v>
       </c>
       <c r="L54" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M54" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N54" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O54" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Mastro</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Encontro</v>
       </c>
       <c r="P54" s="44" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q54" s="47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="R54" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S54" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T54" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U54" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V54" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W54" s="20" t="str">
@@ -7283,7 +7319,7 @@
         <v>Key.Inf.54</v>
       </c>
       <c r="X54" s="46" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Y54" s="46" t="s">
         <v>165</v>
@@ -7300,13 +7336,13 @@
         <v>87</v>
       </c>
       <c r="D55" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F55" s="79" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G55" s="42" t="s">
         <v>1</v>
@@ -7324,44 +7360,44 @@
         <v>1</v>
       </c>
       <c r="L55" s="43" t="str">
-        <f t="shared" ref="L55" si="134">CONCATENATE("", C55)</f>
+        <f t="shared" ref="L55:L57" si="127">CONCATENATE("", C55)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M55" s="43" t="str">
-        <f t="shared" ref="M55" si="135">CONCATENATE("", D55)</f>
+        <f t="shared" ref="M55:M57" si="128">CONCATENATE("", D55)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N55" s="43" t="str">
-        <f t="shared" ref="N55" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E55),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N55:N57" si="129">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E55),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O55" s="44" t="str">
-        <f t="shared" ref="O55" si="137">F55</f>
-        <v>OAE.Tabuleiro</v>
+        <f t="shared" ref="O55:O57" si="130">F55</f>
+        <v>OAE.Pilone</v>
       </c>
       <c r="P55" s="44" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q55" s="47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="R55" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S55" s="46" t="str">
-        <f t="shared" ref="S55" si="138">SUBSTITUTE(C55, "_", " ")</f>
+        <f t="shared" ref="S55:S57" si="131">SUBSTITUTE(C55, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T55" s="46" t="str">
-        <f t="shared" ref="T55" si="139">SUBSTITUTE(D55, "_", " ")</f>
+        <f t="shared" ref="T55:T57" si="132">SUBSTITUTE(D55, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U55" s="46" t="str">
-        <f t="shared" ref="U55" si="140">SUBSTITUTE(E55, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U55:U57" si="133">SUBSTITUTE(E55, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V55" s="46" t="str">
-        <f t="shared" ref="V55" si="141">SUBSTITUTE(C55, "_", " ")</f>
+        <f t="shared" ref="V55:V57" si="134">SUBSTITUTE(C55, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W55" s="20" t="str">
@@ -7369,7 +7405,7 @@
         <v>Key.Inf.55</v>
       </c>
       <c r="X55" s="46" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="Y55" s="46" t="s">
         <v>165</v>
@@ -7386,13 +7422,13 @@
         <v>87</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E56" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F56" s="79" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G56" s="42" t="s">
         <v>1</v>
@@ -7410,44 +7446,44 @@
         <v>1</v>
       </c>
       <c r="L56" s="43" t="str">
-        <f t="shared" ref="L56:L59" si="142">CONCATENATE("", C56)</f>
+        <f t="shared" ref="L56" si="135">CONCATENATE("", C56)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M56" s="43" t="str">
-        <f t="shared" ref="M56:M59" si="143">CONCATENATE("", D56)</f>
+        <f t="shared" ref="M56" si="136">CONCATENATE("", D56)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N56" s="43" t="str">
-        <f t="shared" ref="N56:N59" si="144">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E56),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N56" si="137">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E56),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O56" s="44" t="str">
-        <f t="shared" ref="O56:O59" si="145">F56</f>
-        <v>OAE.Estai</v>
+        <f t="shared" ref="O56" si="138">F56</f>
+        <v>OAE.Arco</v>
       </c>
       <c r="P56" s="44" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q56" s="47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="R56" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="46" t="str">
-        <f t="shared" ref="S56:S59" si="146">SUBSTITUTE(C56, "_", " ")</f>
+        <f t="shared" ref="S56" si="139">SUBSTITUTE(C56, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T56" s="46" t="str">
-        <f t="shared" ref="T56:T59" si="147">SUBSTITUTE(D56, "_", " ")</f>
+        <f t="shared" ref="T56" si="140">SUBSTITUTE(D56, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U56" s="46" t="str">
-        <f t="shared" ref="U56:U59" si="148">SUBSTITUTE(E56, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U56" si="141">SUBSTITUTE(E56, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V56" s="46" t="str">
-        <f t="shared" ref="V56:V59" si="149">SUBSTITUTE(C56, "_", " ")</f>
+        <f t="shared" ref="V56" si="142">SUBSTITUTE(C56, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W56" s="20" t="str">
@@ -7455,7 +7491,7 @@
         <v>Key.Inf.56</v>
       </c>
       <c r="X56" s="46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Y56" s="46" t="s">
         <v>165</v>
@@ -7472,13 +7508,13 @@
         <v>87</v>
       </c>
       <c r="D57" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F57" s="79" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G57" s="42" t="s">
         <v>1</v>
@@ -7496,44 +7532,44 @@
         <v>1</v>
       </c>
       <c r="L57" s="43" t="str">
-        <f t="shared" ref="L57" si="150">CONCATENATE("", C57)</f>
+        <f t="shared" si="127"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M57" s="43" t="str">
-        <f t="shared" ref="M57" si="151">CONCATENATE("", D57)</f>
+        <f t="shared" si="128"/>
         <v>Rodoviária</v>
       </c>
       <c r="N57" s="43" t="str">
-        <f t="shared" ref="N57" si="152">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E57),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="129"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O57" s="44" t="str">
-        <f t="shared" ref="O57" si="153">F57</f>
-        <v>OAE.Longarina.de.Bordo</v>
+        <f t="shared" si="130"/>
+        <v>OAE.Torre</v>
       </c>
       <c r="P57" s="44" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q57" s="47" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R57" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S57" s="46" t="str">
-        <f t="shared" ref="S57" si="154">SUBSTITUTE(C57, "_", " ")</f>
+        <f t="shared" si="131"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T57" s="46" t="str">
-        <f t="shared" ref="T57" si="155">SUBSTITUTE(D57, "_", " ")</f>
+        <f t="shared" si="132"/>
         <v>Rodoviária</v>
       </c>
       <c r="U57" s="46" t="str">
-        <f t="shared" ref="U57" si="156">SUBSTITUTE(E57, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" si="133"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V57" s="46" t="str">
-        <f t="shared" ref="V57" si="157">SUBSTITUTE(C57, "_", " ")</f>
+        <f t="shared" si="134"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W57" s="20" t="str">
@@ -7541,7 +7577,7 @@
         <v>Key.Inf.57</v>
       </c>
       <c r="X57" s="46" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Y57" s="46" t="s">
         <v>165</v>
@@ -7558,13 +7594,13 @@
         <v>87</v>
       </c>
       <c r="D58" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E58" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F58" s="79" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G58" s="42" t="s">
         <v>1</v>
@@ -7582,44 +7618,44 @@
         <v>1</v>
       </c>
       <c r="L58" s="43" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M58" s="43" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N58" s="43" t="str">
-        <f t="shared" si="144"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O58" s="44" t="str">
-        <f t="shared" si="145"/>
-        <v>OAE.Longarina.Interna</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Mastro</v>
       </c>
       <c r="P58" s="44" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="Q58" s="47" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="R58" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S58" s="46" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T58" s="46" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U58" s="46" t="str">
-        <f t="shared" si="148"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V58" s="46" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W58" s="20" t="str">
@@ -7627,7 +7663,7 @@
         <v>Key.Inf.58</v>
       </c>
       <c r="X58" s="46" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="Y58" s="46" t="s">
         <v>165</v>
@@ -7644,13 +7680,13 @@
         <v>87</v>
       </c>
       <c r="D59" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F59" s="79" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G59" s="42" t="s">
         <v>1</v>
@@ -7668,44 +7704,44 @@
         <v>1</v>
       </c>
       <c r="L59" s="43" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="L59" si="143">CONCATENATE("", C59)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M59" s="43" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="M59" si="144">CONCATENATE("", D59)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N59" s="43" t="str">
-        <f t="shared" si="144"/>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N59" si="145">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E59),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O59" s="44" t="str">
-        <f t="shared" si="145"/>
-        <v>OAE.Transversina</v>
+        <f t="shared" ref="O59" si="146">F59</f>
+        <v>OAE.Tabuleiro</v>
       </c>
       <c r="P59" s="44" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q59" s="47" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="R59" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S59" s="46" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="S59" si="147">SUBSTITUTE(C59, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T59" s="46" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="T59" si="148">SUBSTITUTE(D59, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U59" s="46" t="str">
-        <f t="shared" si="148"/>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U59" si="149">SUBSTITUTE(E59, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V59" s="46" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="V59" si="150">SUBSTITUTE(C59, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W59" s="20" t="str">
@@ -7713,7 +7749,7 @@
         <v>Key.Inf.59</v>
       </c>
       <c r="X59" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y59" s="46" t="s">
         <v>165</v>
@@ -7730,13 +7766,13 @@
         <v>87</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E60" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F60" s="79" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G60" s="42" t="s">
         <v>1</v>
@@ -7754,44 +7790,44 @@
         <v>1</v>
       </c>
       <c r="L60" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="L60:L63" si="151">CONCATENATE("", C60)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M60" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="M60:M63" si="152">CONCATENATE("", D60)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N60" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N60:N63" si="153">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E60),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O60" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Contraventamento</v>
+        <f t="shared" ref="O60:O63" si="154">F60</f>
+        <v>OAE.Estai</v>
       </c>
       <c r="P60" s="44" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q60" s="47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="R60" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S60" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="S60:S63" si="155">SUBSTITUTE(C60, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T60" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="T60:T63" si="156">SUBSTITUTE(D60, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U60" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U60:U63" si="157">SUBSTITUTE(E60, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V60" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="V60:V63" si="158">SUBSTITUTE(C60, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W60" s="20" t="str">
@@ -7799,7 +7835,7 @@
         <v>Key.Inf.60</v>
       </c>
       <c r="X60" s="46" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Y60" s="46" t="s">
         <v>165</v>
@@ -7816,13 +7852,13 @@
         <v>87</v>
       </c>
       <c r="D61" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E61" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F61" s="79" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G61" s="42" t="s">
         <v>1</v>
@@ -7840,44 +7876,44 @@
         <v>1</v>
       </c>
       <c r="L61" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="L61" si="159">CONCATENATE("", C61)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M61" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="M61" si="160">CONCATENATE("", D61)</f>
         <v>Rodoviária</v>
       </c>
       <c r="N61" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" ref="N61" si="161">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E61),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O61" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Diafragma</v>
+        <f t="shared" ref="O61" si="162">F61</f>
+        <v>OAE.Longarina.de.Bordo</v>
       </c>
       <c r="P61" s="44" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Q61" s="47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="R61" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="S61" si="163">SUBSTITUTE(C61, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T61" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="T61" si="164">SUBSTITUTE(D61, "_", " ")</f>
         <v>Rodoviária</v>
       </c>
       <c r="U61" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" ref="U61" si="165">SUBSTITUTE(E61, "_", " ")</f>
+        <v>OAE.Parte</v>
       </c>
       <c r="V61" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="V61" si="166">SUBSTITUTE(C61, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W61" s="20" t="str">
@@ -7885,7 +7921,7 @@
         <v>Key.Inf.61</v>
       </c>
       <c r="X61" s="46" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Y61" s="46" t="s">
         <v>165</v>
@@ -7902,13 +7938,13 @@
         <v>87</v>
       </c>
       <c r="D62" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E62" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F62" s="79" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>1</v>
@@ -7926,44 +7962,44 @@
         <v>1</v>
       </c>
       <c r="L62" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="151"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M62" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="152"/>
         <v>Rodoviária</v>
       </c>
       <c r="N62" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="153"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O62" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Treliça</v>
+        <f t="shared" si="154"/>
+        <v>OAE.Longarina.Interna</v>
       </c>
       <c r="P62" s="44" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q62" s="47" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="R62" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S62" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="155"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T62" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="156"/>
         <v>Rodoviária</v>
       </c>
       <c r="U62" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="157"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V62" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="158"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W62" s="20" t="str">
@@ -7971,7 +8007,7 @@
         <v>Key.Inf.62</v>
       </c>
       <c r="X62" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y62" s="46" t="s">
         <v>165</v>
@@ -7988,13 +8024,13 @@
         <v>87</v>
       </c>
       <c r="D63" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E63" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F63" s="79" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G63" s="42" t="s">
         <v>1</v>
@@ -8012,44 +8048,44 @@
         <v>1</v>
       </c>
       <c r="L63" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="151"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M63" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="152"/>
         <v>Rodoviária</v>
       </c>
       <c r="N63" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="153"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O63" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Defesa</v>
+        <f t="shared" si="154"/>
+        <v>OAE.Transversina</v>
       </c>
       <c r="P63" s="44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q63" s="47" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="R63" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S63" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="155"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T63" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="156"/>
         <v>Rodoviária</v>
       </c>
       <c r="U63" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="157"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V63" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="158"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W63" s="20" t="str">
@@ -8057,7 +8093,7 @@
         <v>Key.Inf.63</v>
       </c>
       <c r="X63" s="46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Y63" s="46" t="s">
         <v>165</v>
@@ -8074,13 +8110,13 @@
         <v>87</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F64" s="79" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G64" s="42" t="s">
         <v>1</v>
@@ -8098,55 +8134,55 @@
         <v>1</v>
       </c>
       <c r="L64" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M64" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N64" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O64" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Rolamento</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Contraventamento</v>
       </c>
       <c r="P64" s="44" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q64" s="47" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R64" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S64" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T64" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U64" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V64" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W64" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.64</v>
       </c>
-      <c r="X64" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y64" s="81" t="s">
-        <v>173</v>
+      <c r="X64" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y64" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8160,13 +8196,13 @@
         <v>87</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E65" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F65" s="79" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G65" s="42" t="s">
         <v>1</v>
@@ -8184,55 +8220,55 @@
         <v>1</v>
       </c>
       <c r="L65" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M65" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N65" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O65" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Leito</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Diafragma</v>
       </c>
       <c r="P65" s="44" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q65" s="47" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R65" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S65" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T65" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U65" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V65" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W65" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.65</v>
       </c>
-      <c r="X65" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y65" s="81" t="s">
-        <v>173</v>
+      <c r="X65" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y65" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,13 +8282,13 @@
         <v>87</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F66" s="79" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G66" s="42" t="s">
         <v>1</v>
@@ -8270,55 +8306,55 @@
         <v>1</v>
       </c>
       <c r="L66" s="43" t="str">
-        <f t="shared" ref="L66" si="158">CONCATENATE("", C66)</f>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M66" s="43" t="str">
-        <f t="shared" ref="M66" si="159">CONCATENATE("", D66)</f>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N66" s="43" t="str">
-        <f t="shared" ref="N66" si="160">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E66),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O66" s="44" t="str">
-        <f t="shared" ref="O66" si="161">F66</f>
-        <v>OAE.Junta</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Treliça</v>
       </c>
       <c r="P66" s="44" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q66" s="47" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="R66" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="46" t="str">
-        <f t="shared" ref="S66" si="162">SUBSTITUTE(C66, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T66" s="46" t="str">
-        <f t="shared" ref="T66" si="163">SUBSTITUTE(D66, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U66" s="46" t="str">
-        <f t="shared" ref="U66" si="164">SUBSTITUTE(E66, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V66" s="46" t="str">
-        <f t="shared" ref="V66" si="165">SUBSTITUTE(C66, "_", " ")</f>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W66" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.66</v>
       </c>
-      <c r="X66" s="44" t="s">
-        <v>172</v>
+      <c r="X66" s="46" t="s">
+        <v>170</v>
       </c>
       <c r="Y66" s="46" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8332,13 +8368,13 @@
         <v>87</v>
       </c>
       <c r="D67" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F67" s="79" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G67" s="42" t="s">
         <v>1</v>
@@ -8356,55 +8392,55 @@
         <v>1</v>
       </c>
       <c r="L67" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M67" s="43" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N67" s="43" t="str">
-        <f t="shared" si="93"/>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O67" s="44" t="str">
-        <f t="shared" si="94"/>
-        <v>OAE.Drenagem</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Defesa</v>
       </c>
       <c r="P67" s="44" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q67" s="47" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="R67" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S67" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T67" s="46" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U67" s="46" t="str">
-        <f t="shared" si="108"/>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V67" s="46" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W67" s="20" t="str">
         <f t="shared" si="4"/>
         <v>Key.Inf.67</v>
       </c>
-      <c r="X67" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y67" s="82" t="s">
-        <v>178</v>
+      <c r="X67" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y67" s="46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8418,13 +8454,13 @@
         <v>87</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E68" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F68" s="79" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G68" s="42" t="s">
         <v>1</v>
@@ -8442,44 +8478,44 @@
         <v>1</v>
       </c>
       <c r="L68" s="43" t="str">
-        <f t="shared" ref="L68" si="166">CONCATENATE("", C68)</f>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M68" s="43" t="str">
-        <f t="shared" ref="M68" si="167">CONCATENATE("", D68)</f>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N68" s="43" t="str">
-        <f t="shared" ref="N68" si="168">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E68),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O68" s="44" t="str">
-        <f t="shared" ref="O68" si="169">F68</f>
-        <v>OAE.Sinalização</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Rolamento</v>
       </c>
       <c r="P68" s="44" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q68" s="47" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="R68" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S68" s="46" t="str">
-        <f t="shared" ref="S68" si="170">SUBSTITUTE(C68, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T68" s="46" t="str">
-        <f t="shared" ref="T68" si="171">SUBSTITUTE(D68, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U68" s="46" t="str">
-        <f t="shared" ref="U68" si="172">SUBSTITUTE(E68, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V68" s="46" t="str">
-        <f t="shared" ref="V68" si="173">SUBSTITUTE(C68, "_", " ")</f>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W68" s="20" t="str">
@@ -8487,10 +8523,10 @@
         <v>Key.Inf.68</v>
       </c>
       <c r="X68" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y68" s="46" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="Y68" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8504,13 +8540,13 @@
         <v>87</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E69" s="58" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
       <c r="F69" s="79" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G69" s="42" t="s">
         <v>1</v>
@@ -8528,44 +8564,44 @@
         <v>1</v>
       </c>
       <c r="L69" s="43" t="str">
-        <f t="shared" ref="L69:L81" si="174">CONCATENATE("", C69)</f>
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M69" s="43" t="str">
-        <f t="shared" ref="M69:M81" si="175">CONCATENATE("", D69)</f>
+        <f t="shared" si="116"/>
         <v>Rodoviária</v>
       </c>
       <c r="N69" s="43" t="str">
-        <f t="shared" ref="N69:N74" si="176">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
-        <v>AOE Parte</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O69" s="44" t="str">
-        <f t="shared" ref="O69:O96" si="177">F69</f>
-        <v>OAE.Iluminação</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Leito</v>
       </c>
       <c r="P69" s="44" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="Q69" s="47" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="R69" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S69" s="46" t="str">
-        <f t="shared" ref="S69:S81" si="178">SUBSTITUTE(C69, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T69" s="46" t="str">
-        <f t="shared" ref="T69:T81" si="179">SUBSTITUTE(D69, "_", " ")</f>
+        <f t="shared" si="117"/>
         <v>Rodoviária</v>
       </c>
       <c r="U69" s="46" t="str">
-        <f t="shared" ref="U69:U81" si="180">SUBSTITUTE(E69, "_", " ")</f>
-        <v>AOE.Parte</v>
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
       </c>
       <c r="V69" s="46" t="str">
-        <f t="shared" ref="V69" si="181">SUBSTITUTE(C69, "_", " ")</f>
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W69" s="20" t="str">
@@ -8573,354 +8609,354 @@
         <v>Key.Inf.69</v>
       </c>
       <c r="X69" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y69" s="46" t="s">
-        <v>181</v>
+        <v>172</v>
+      </c>
+      <c r="Y69" s="81" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>70</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="52" t="s">
+      <c r="C70" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D70" s="79" t="s">
-        <v>442</v>
+      <c r="D70" s="51" t="s">
+        <v>447</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="F70" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="G70" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I70" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J70" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K70" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L70" s="47" t="str">
-        <f t="shared" ref="L70:L74" si="182">_xlfn.CONCAT(C70)</f>
+        <v>461</v>
+      </c>
+      <c r="F70" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" s="43" t="str">
+        <f t="shared" ref="L70" si="167">CONCATENATE("", C70)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M70" s="43" t="str">
-        <f t="shared" si="175"/>
-        <v>Ferroviária</v>
+        <f t="shared" ref="M70" si="168">CONCATENATE("", D70)</f>
+        <v>Rodoviária</v>
       </c>
       <c r="N70" s="43" t="str">
-        <f t="shared" si="176"/>
-        <v>Trem</v>
+        <f t="shared" ref="N70" si="169">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E70),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O70" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Locomotiva</v>
-      </c>
-      <c r="P70" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q70" s="44" t="s">
-        <v>407</v>
+        <f t="shared" ref="O70" si="170">F70</f>
+        <v>OAE.Junta</v>
+      </c>
+      <c r="P70" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q70" s="47" t="s">
+        <v>311</v>
       </c>
       <c r="R70" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S70" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="S70" si="171">SUBSTITUTE(C70, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T70" s="46" t="str">
-        <f t="shared" si="179"/>
-        <v>Ferroviária</v>
+        <f t="shared" ref="T70" si="172">SUBSTITUTE(D70, "_", " ")</f>
+        <v>Rodoviária</v>
       </c>
       <c r="U70" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Trem</v>
-      </c>
-      <c r="V70" s="43" t="str">
-        <f>C70</f>
+        <f t="shared" ref="U70" si="173">SUBSTITUTE(E70, "_", " ")</f>
+        <v>OAE.Parte</v>
+      </c>
+      <c r="V70" s="46" t="str">
+        <f t="shared" ref="V70" si="174">SUBSTITUTE(C70, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W70" s="20" t="str">
-        <f t="shared" ref="W70:W103" si="183">CONCATENATE("Key.",LEFT(C70,3),".",A70)</f>
+        <f t="shared" si="4"/>
         <v>Key.Inf.70</v>
       </c>
-      <c r="X70" s="46" t="s">
-        <v>317</v>
+      <c r="X70" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="Y70" s="46" t="s">
-        <v>316</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>71</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="79" t="s">
-        <v>442</v>
+      <c r="D71" s="51" t="s">
+        <v>447</v>
       </c>
       <c r="E71" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="F71" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="G71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L71" s="47" t="str">
-        <f t="shared" si="182"/>
+        <v>461</v>
+      </c>
+      <c r="F71" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="43" t="str">
+        <f t="shared" si="116"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M71" s="43" t="str">
-        <f t="shared" si="175"/>
-        <v>Ferroviária</v>
+        <f t="shared" si="116"/>
+        <v>Rodoviária</v>
       </c>
       <c r="N71" s="43" t="str">
-        <f t="shared" si="176"/>
-        <v>Trem</v>
+        <f t="shared" si="102"/>
+        <v>OAE Parte</v>
       </c>
       <c r="O71" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Vagão.Carga</v>
-      </c>
-      <c r="P71" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q71" s="44" t="s">
-        <v>408</v>
+        <f t="shared" si="103"/>
+        <v>OAE.Drenagem</v>
+      </c>
+      <c r="P71" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q71" s="47" t="s">
+        <v>312</v>
       </c>
       <c r="R71" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S71" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="117"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T71" s="46" t="str">
-        <f t="shared" si="179"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U71" s="43" t="str">
-        <f t="shared" si="180"/>
-        <v>Trem</v>
-      </c>
-      <c r="V71" s="43" t="str">
-        <f t="shared" ref="V71:V72" si="184">C71</f>
+        <f t="shared" si="117"/>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U71" s="46" t="str">
+        <f t="shared" si="117"/>
+        <v>OAE.Parte</v>
+      </c>
+      <c r="V71" s="46" t="str">
+        <f t="shared" si="118"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W71" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="4"/>
         <v>Key.Inf.71</v>
       </c>
-      <c r="X71" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y71" s="46" t="s">
-        <v>316</v>
+      <c r="X71" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y71" s="82" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>72</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="79" t="s">
-        <v>442</v>
+      <c r="D72" s="51" t="s">
+        <v>447</v>
       </c>
       <c r="E72" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="F72" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="G72" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I72" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J72" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L72" s="47" t="str">
-        <f t="shared" si="182"/>
+        <v>461</v>
+      </c>
+      <c r="F72" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="43" t="str">
+        <f t="shared" ref="L72" si="175">CONCATENATE("", C72)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M72" s="43" t="str">
-        <f t="shared" si="175"/>
-        <v>Ferroviária</v>
+        <f t="shared" ref="M72" si="176">CONCATENATE("", D72)</f>
+        <v>Rodoviária</v>
       </c>
       <c r="N72" s="43" t="str">
-        <f t="shared" si="176"/>
-        <v>Trem</v>
+        <f t="shared" ref="N72" si="177">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E72),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O72" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Vagão.Passageiro</v>
-      </c>
-      <c r="P72" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q72" s="44" t="s">
-        <v>409</v>
+        <f t="shared" ref="O72" si="178">F72</f>
+        <v>OAE.Sinalização</v>
+      </c>
+      <c r="P72" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q72" s="47" t="s">
+        <v>313</v>
       </c>
       <c r="R72" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S72" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="S72" si="179">SUBSTITUTE(C72, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T72" s="46" t="str">
-        <f t="shared" si="179"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U72" s="43" t="str">
-        <f t="shared" si="180"/>
-        <v>Trem</v>
-      </c>
-      <c r="V72" s="43" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" ref="T72" si="180">SUBSTITUTE(D72, "_", " ")</f>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U72" s="46" t="str">
+        <f t="shared" ref="U72" si="181">SUBSTITUTE(E72, "_", " ")</f>
+        <v>OAE.Parte</v>
+      </c>
+      <c r="V72" s="46" t="str">
+        <f t="shared" ref="V72" si="182">SUBSTITUTE(C72, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W72" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="4"/>
         <v>Key.Inf.72</v>
       </c>
-      <c r="X72" s="46" t="s">
-        <v>317</v>
+      <c r="X72" s="44" t="s">
+        <v>180</v>
       </c>
       <c r="Y72" s="46" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>73</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="79" t="s">
-        <v>442</v>
+      <c r="D73" s="51" t="s">
+        <v>447</v>
       </c>
       <c r="E73" s="58" t="s">
-        <v>393</v>
-      </c>
-      <c r="F73" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="G73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="J73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="K73" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="L73" s="47" t="str">
-        <f t="shared" ref="L73" si="185">_xlfn.CONCAT(C73)</f>
+        <v>461</v>
+      </c>
+      <c r="F73" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="43" t="str">
+        <f t="shared" ref="L73:L86" si="183">CONCATENATE("", C73)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M73" s="43" t="str">
-        <f t="shared" ref="M73" si="186">CONCATENATE("", D73)</f>
-        <v>Ferroviária</v>
+        <f t="shared" ref="M73:M86" si="184">CONCATENATE("", D73)</f>
+        <v>Rodoviária</v>
       </c>
       <c r="N73" s="43" t="str">
-        <f t="shared" ref="N73" si="187">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E73),"."," ")," De "," de "))</f>
-        <v>Trem</v>
+        <f t="shared" ref="N73:N79" si="185">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E73),"."," ")," De "," de "))</f>
+        <v>OAE Parte</v>
       </c>
       <c r="O73" s="44" t="str">
-        <f t="shared" ref="O73" si="188">F73</f>
-        <v>Vagão.Dormitório</v>
-      </c>
-      <c r="P73" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q73" s="44" t="s">
-        <v>410</v>
+        <f t="shared" ref="O73:O101" si="186">F73</f>
+        <v>OAE.Iluminação</v>
+      </c>
+      <c r="P73" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q73" s="47" t="s">
+        <v>314</v>
       </c>
       <c r="R73" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S73" s="46" t="str">
-        <f t="shared" ref="S73" si="189">SUBSTITUTE(C73, "_", " ")</f>
+        <f t="shared" ref="S73:S86" si="187">SUBSTITUTE(C73, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T73" s="46" t="str">
-        <f t="shared" ref="T73" si="190">SUBSTITUTE(D73, "_", " ")</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U73" s="43" t="str">
-        <f t="shared" ref="U73" si="191">SUBSTITUTE(E73, "_", " ")</f>
-        <v>Trem</v>
-      </c>
-      <c r="V73" s="43" t="str">
-        <f t="shared" ref="V73" si="192">C73</f>
+        <f t="shared" ref="T73:T86" si="188">SUBSTITUTE(D73, "_", " ")</f>
+        <v>Rodoviária</v>
+      </c>
+      <c r="U73" s="46" t="str">
+        <f t="shared" ref="U73:U86" si="189">SUBSTITUTE(E73, "_", " ")</f>
+        <v>OAE.Parte</v>
+      </c>
+      <c r="V73" s="46" t="str">
+        <f t="shared" ref="V73" si="190">SUBSTITUTE(C73, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W73" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="4"/>
         <v>Key.Inf.73</v>
       </c>
-      <c r="X73" s="46" t="s">
-        <v>317</v>
+      <c r="X73" s="44" t="s">
+        <v>182</v>
       </c>
       <c r="Y73" s="46" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -8934,10 +8970,10 @@
         <v>87</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E74" s="58" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F74" s="60" t="s">
         <v>394</v>
@@ -8958,485 +8994,485 @@
         <v>1</v>
       </c>
       <c r="L74" s="47" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" ref="L74:L79" si="191">_xlfn.CONCAT(C74)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M74" s="43" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N74" s="43" t="str">
-        <f t="shared" si="176"/>
-        <v>Metro</v>
+        <f t="shared" si="185"/>
+        <v>Trem</v>
       </c>
       <c r="O74" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Vagão.Metro</v>
+        <f t="shared" si="186"/>
+        <v>Locomotiva</v>
       </c>
       <c r="P74" s="48" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q74" s="44" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="R74" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S74" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T74" s="46" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U74" s="43" t="str">
-        <f t="shared" si="180"/>
-        <v>Metro</v>
+      <c r="U74" s="46" t="str">
+        <f t="shared" si="189"/>
+        <v>Trem</v>
       </c>
       <c r="V74" s="43" t="str">
-        <f t="shared" ref="V74" si="193">C74</f>
+        <f>C74</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W74" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="W74:W108" si="192">CONCATENATE("Key.",LEFT(C74,3),".",A74)</f>
         <v>Key.Inf.74</v>
       </c>
       <c r="X74" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y74" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>75</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="80" t="s">
+      <c r="C75" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E75" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F75" s="85" t="s">
-        <v>357</v>
-      </c>
-      <c r="G75" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I75" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J75" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K75" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L75" s="43" t="str">
-        <f t="shared" si="174"/>
+        <v>440</v>
+      </c>
+      <c r="E75" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F75" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="47" t="str">
+        <f t="shared" si="191"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M75" s="43" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N75" s="43" t="str">
-        <f t="shared" ref="N75:N82" si="194">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E75),"."," ")," De "," de "))</f>
-        <v>Ferrovia</v>
+        <f t="shared" si="185"/>
+        <v>Trem</v>
       </c>
       <c r="O75" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Ferrovia.Radial</v>
-      </c>
-      <c r="P75" s="84" t="s">
-        <v>341</v>
+        <f t="shared" si="186"/>
+        <v>Vagão.Carga</v>
+      </c>
+      <c r="P75" s="48" t="s">
+        <v>398</v>
       </c>
       <c r="Q75" s="44" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="R75" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S75" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T75" s="46" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U75" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V75" s="46" t="str">
-        <f t="shared" ref="V75:V82" si="195">SUBSTITUTE(C75, "_", " ")</f>
+      <c r="U75" s="43" t="str">
+        <f t="shared" si="189"/>
+        <v>Trem</v>
+      </c>
+      <c r="V75" s="43" t="str">
+        <f t="shared" ref="V75:V76" si="193">C75</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W75" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.75</v>
       </c>
-      <c r="X75" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y75" s="81" t="s">
-        <v>336</v>
+      <c r="X75" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y75" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>76</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="80" t="s">
+      <c r="C76" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E76" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F76" s="85" t="s">
-        <v>358</v>
-      </c>
-      <c r="G76" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I76" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J76" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K76" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L76" s="43" t="str">
-        <f t="shared" si="174"/>
+        <v>440</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K76" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" s="47" t="str">
+        <f t="shared" si="191"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M76" s="43" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N76" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
+        <f t="shared" si="185"/>
+        <v>Trem</v>
       </c>
       <c r="O76" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Ferrovia.NS</v>
-      </c>
-      <c r="P76" s="84" t="s">
-        <v>342</v>
+        <f t="shared" si="186"/>
+        <v>Vagão.Passageiro</v>
+      </c>
+      <c r="P76" s="48" t="s">
+        <v>399</v>
       </c>
       <c r="Q76" s="44" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="R76" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S76" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T76" s="46" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U76" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V76" s="46" t="str">
-        <f t="shared" si="195"/>
+      <c r="U76" s="43" t="str">
+        <f t="shared" si="189"/>
+        <v>Trem</v>
+      </c>
+      <c r="V76" s="43" t="str">
+        <f t="shared" si="193"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W76" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.76</v>
       </c>
-      <c r="X76" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y76" s="81" t="s">
-        <v>336</v>
+      <c r="X76" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y76" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>77</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E77" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F77" s="85" t="s">
-        <v>359</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I77" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J77" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K77" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L77" s="43" t="str">
-        <f t="shared" si="174"/>
+        <v>440</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K77" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" s="47" t="str">
+        <f t="shared" ref="L77:L78" si="194">_xlfn.CONCAT(C77)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M77" s="43" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" ref="M77:M78" si="195">CONCATENATE("", D77)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N77" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
+        <f t="shared" ref="N77:N78" si="196">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E77),"."," ")," De "," de "))</f>
+        <v>Trem</v>
       </c>
       <c r="O77" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Ferrovia.EW</v>
-      </c>
-      <c r="P77" s="84" t="s">
-        <v>343</v>
+        <f t="shared" ref="O77:O78" si="197">F77</f>
+        <v>Vagão.Dormitório</v>
+      </c>
+      <c r="P77" s="48" t="s">
+        <v>402</v>
       </c>
       <c r="Q77" s="44" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="R77" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S77" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="S77:S78" si="198">SUBSTITUTE(C77, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T77" s="46" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" ref="T77:T78" si="199">SUBSTITUTE(D77, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
-      <c r="U77" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V77" s="46" t="str">
-        <f t="shared" si="195"/>
+      <c r="U77" s="43" t="str">
+        <f t="shared" ref="U77:U78" si="200">SUBSTITUTE(E77, "_", " ")</f>
+        <v>Trem</v>
+      </c>
+      <c r="V77" s="43" t="str">
+        <f t="shared" ref="V77:V78" si="201">C77</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W77" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.77</v>
       </c>
-      <c r="X77" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y77" s="81" t="s">
-        <v>336</v>
+      <c r="X77" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y77" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>78</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="80" t="s">
+      <c r="C78" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E78" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F78" s="85" t="s">
-        <v>360</v>
-      </c>
-      <c r="G78" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H78" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I78" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J78" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K78" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L78" s="43" t="str">
-        <f t="shared" si="174"/>
+        <v>440</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F78" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K78" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L78" s="47" t="str">
+        <f t="shared" si="194"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M78" s="43" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" si="195"/>
         <v>Ferroviária</v>
       </c>
       <c r="N78" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
+        <f t="shared" si="196"/>
+        <v>Trem</v>
       </c>
       <c r="O78" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Ferrovia.Diagonal</v>
-      </c>
-      <c r="P78" s="84" t="s">
-        <v>344</v>
+        <f t="shared" si="197"/>
+        <v>Vagão.Metro</v>
+      </c>
+      <c r="P78" s="48" t="s">
+        <v>400</v>
       </c>
       <c r="Q78" s="44" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="R78" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S78" s="46" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="198"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T78" s="46" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="199"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U78" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V78" s="46" t="str">
-        <f t="shared" si="195"/>
+      <c r="U78" s="43" t="str">
+        <f t="shared" si="200"/>
+        <v>Trem</v>
+      </c>
+      <c r="V78" s="43" t="str">
+        <f t="shared" si="201"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W78" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="W78" si="202">CONCATENATE("Key.",LEFT(C78,3),".",A78)</f>
         <v>Key.Inf.78</v>
       </c>
-      <c r="X78" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y78" s="81" t="s">
-        <v>336</v>
+      <c r="X78" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y78" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>79</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="52" t="s">
         <v>87</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F79" s="85" t="s">
-        <v>361</v>
-      </c>
-      <c r="G79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K79" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L79" s="43" t="str">
-        <f t="shared" ref="L79:L80" si="196">CONCATENATE("", C79)</f>
+        <v>440</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="F79" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K79" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L79" s="47" t="str">
+        <f t="shared" si="191"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M79" s="43" t="str">
-        <f t="shared" ref="M79:M80" si="197">CONCATENATE("", D79)</f>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N79" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
+        <f t="shared" si="185"/>
+        <v>Trem</v>
       </c>
       <c r="O79" s="44" t="str">
-        <f t="shared" ref="O79:O80" si="198">F79</f>
-        <v>Ferrovia.Ligação</v>
-      </c>
-      <c r="P79" s="84" t="s">
-        <v>340</v>
+        <f t="shared" si="186"/>
+        <v>Vagão.Monotrilho</v>
+      </c>
+      <c r="P79" s="48" t="s">
+        <v>400</v>
       </c>
       <c r="Q79" s="44" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="R79" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S79" s="46" t="str">
-        <f t="shared" ref="S79:S80" si="199">SUBSTITUTE(C79, "_", " ")</f>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T79" s="46" t="str">
-        <f t="shared" ref="T79:T80" si="200">SUBSTITUTE(D79, "_", " ")</f>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U79" s="46" t="str">
-        <f t="shared" ref="U79:U80" si="201">SUBSTITUTE(E79, "_", " ")</f>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V79" s="46" t="str">
-        <f t="shared" si="195"/>
+      <c r="U79" s="43" t="str">
+        <f t="shared" si="189"/>
+        <v>Trem</v>
+      </c>
+      <c r="V79" s="43" t="str">
+        <f t="shared" ref="V79" si="203">C79</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W79" s="20" t="str">
-        <f t="shared" ref="W79:W80" si="202">CONCATENATE("Key.",LEFT(C79,3),".",A79)</f>
+        <f t="shared" si="192"/>
         <v>Key.Inf.79</v>
       </c>
-      <c r="X79" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y79" s="81" t="s">
-        <v>336</v>
+      <c r="X79" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y79" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9450,79 +9486,79 @@
         <v>87</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E80" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F80" s="85" t="s">
+        <v>356</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L80" s="43" t="str">
+        <f t="shared" si="183"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M80" s="43" t="str">
+        <f t="shared" si="184"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N80" s="43" t="str">
+        <f t="shared" ref="N80:N87" si="204">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E80),"."," ")," De "," de "))</f>
+        <v>Ferrovia</v>
+      </c>
+      <c r="O80" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Ferrovia.Radial</v>
+      </c>
+      <c r="P80" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q80" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="R80" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S80" s="46" t="str">
+        <f t="shared" si="187"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T80" s="46" t="str">
+        <f t="shared" si="188"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U80" s="46" t="str">
+        <f t="shared" si="189"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="V80" s="46" t="str">
+        <f t="shared" ref="V80:V87" si="205">SUBSTITUTE(C80, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W80" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.80</v>
+      </c>
+      <c r="X80" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y80" s="81" t="s">
         <v>335</v>
-      </c>
-      <c r="F80" s="85" t="s">
-        <v>443</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K80" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L80" s="43" t="str">
-        <f t="shared" si="196"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M80" s="43" t="str">
-        <f t="shared" si="197"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N80" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="O80" s="44" t="str">
-        <f t="shared" si="198"/>
-        <v>Ferrovia.Metro</v>
-      </c>
-      <c r="P80" s="84" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q80" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="R80" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S80" s="46" t="str">
-        <f t="shared" si="199"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T80" s="46" t="str">
-        <f t="shared" si="200"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U80" s="46" t="str">
-        <f t="shared" si="201"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V80" s="46" t="str">
-        <f t="shared" si="195"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W80" s="20" t="str">
-        <f t="shared" si="202"/>
-        <v>Key.Inf.80</v>
-      </c>
-      <c r="X80" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y80" s="81" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9536,79 +9572,79 @@
         <v>87</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E81" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F81" s="85" t="s">
+        <v>357</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K81" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L81" s="43" t="str">
+        <f t="shared" si="183"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M81" s="43" t="str">
+        <f t="shared" si="184"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N81" s="43" t="str">
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="O81" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Ferrovia.NS</v>
+      </c>
+      <c r="P81" s="84" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q81" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="R81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S81" s="46" t="str">
+        <f t="shared" si="187"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T81" s="46" t="str">
+        <f t="shared" si="188"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U81" s="46" t="str">
+        <f t="shared" si="189"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="V81" s="46" t="str">
+        <f t="shared" si="205"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W81" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.81</v>
+      </c>
+      <c r="X81" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y81" s="81" t="s">
         <v>335</v>
-      </c>
-      <c r="F81" s="85" t="s">
-        <v>446</v>
-      </c>
-      <c r="G81" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I81" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J81" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K81" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L81" s="43" t="str">
-        <f t="shared" si="174"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M81" s="43" t="str">
-        <f t="shared" si="175"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N81" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="O81" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Monotrilho</v>
-      </c>
-      <c r="P81" s="84" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q81" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="R81" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S81" s="46" t="str">
-        <f t="shared" si="178"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T81" s="46" t="str">
-        <f t="shared" si="179"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U81" s="46" t="str">
-        <f t="shared" si="180"/>
-        <v>Ferrovia</v>
-      </c>
-      <c r="V81" s="46" t="str">
-        <f t="shared" si="195"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W81" s="20" t="str">
-        <f t="shared" si="183"/>
-        <v>Key.Inf.81</v>
-      </c>
-      <c r="X81" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y81" s="81" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9622,13 +9658,13 @@
         <v>87</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E82" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F82" s="86" t="s">
-        <v>349</v>
+        <v>334</v>
+      </c>
+      <c r="F82" s="85" t="s">
+        <v>358</v>
       </c>
       <c r="G82" s="42" t="s">
         <v>1</v>
@@ -9646,55 +9682,55 @@
         <v>1</v>
       </c>
       <c r="L82" s="43" t="str">
-        <f t="shared" ref="L82" si="203">CONCATENATE("", C82)</f>
+        <f t="shared" si="183"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M82" s="43" t="str">
-        <f t="shared" ref="M82" si="204">CONCATENATE("", D82)</f>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N82" s="43" t="str">
-        <f t="shared" si="194"/>
-        <v>Ferrovia Trilho</v>
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
       </c>
       <c r="O82" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho</v>
-      </c>
-      <c r="P82" s="87" t="s">
-        <v>350</v>
+        <f t="shared" si="186"/>
+        <v>Ferrovia.EW</v>
+      </c>
+      <c r="P82" s="84" t="s">
+        <v>342</v>
       </c>
       <c r="Q82" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="R82" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S82" s="46" t="str">
-        <f t="shared" ref="S82" si="205">SUBSTITUTE(C82, "_", " ")</f>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T82" s="46" t="str">
-        <f t="shared" ref="T82" si="206">SUBSTITUTE(D82, "_", " ")</f>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
       <c r="U82" s="46" t="str">
-        <f t="shared" ref="U82" si="207">SUBSTITUTE(E82, "_", " ")</f>
-        <v>Ferrovia.Trilho</v>
+        <f t="shared" si="189"/>
+        <v>Ferrovia</v>
       </c>
       <c r="V82" s="46" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="205"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W82" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.82</v>
       </c>
       <c r="X82" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y82" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="83" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9708,13 +9744,13 @@
         <v>87</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E83" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F83" s="86" t="s">
-        <v>356</v>
+        <v>334</v>
+      </c>
+      <c r="F83" s="85" t="s">
+        <v>359</v>
       </c>
       <c r="G83" s="42" t="s">
         <v>1</v>
@@ -9732,55 +9768,55 @@
         <v>1</v>
       </c>
       <c r="L83" s="43" t="str">
-        <f t="shared" ref="L83:L96" si="208">CONCATENATE("", C83)</f>
+        <f t="shared" si="183"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M83" s="43" t="str">
-        <f t="shared" ref="M83:M96" si="209">CONCATENATE("", D83)</f>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N83" s="43" t="str">
-        <f t="shared" ref="N83:N96" si="210">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E83),"."," ")," De "," de "))</f>
-        <v>Ferrovia Trilho</v>
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
       </c>
       <c r="O83" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Lâmina</v>
-      </c>
-      <c r="P83" s="87" t="s">
-        <v>345</v>
+        <f t="shared" si="186"/>
+        <v>Ferrovia.Diagonal</v>
+      </c>
+      <c r="P83" s="84" t="s">
+        <v>343</v>
       </c>
       <c r="Q83" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="R83" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S83" s="46" t="str">
-        <f t="shared" ref="S83:S96" si="211">SUBSTITUTE(C83, "_", " ")</f>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T83" s="46" t="str">
-        <f t="shared" ref="T83:T96" si="212">SUBSTITUTE(D83, "_", " ")</f>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
       <c r="U83" s="46" t="str">
-        <f t="shared" ref="U83:U96" si="213">SUBSTITUTE(E83, "_", " ")</f>
-        <v>Ferrovia.Trilho</v>
+        <f t="shared" si="189"/>
+        <v>Ferrovia</v>
       </c>
       <c r="V83" s="46" t="str">
-        <f t="shared" ref="V83:V96" si="214">SUBSTITUTE(C83, "_", " ")</f>
+        <f t="shared" si="205"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W83" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.83</v>
       </c>
       <c r="X83" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y83" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9794,13 +9830,13 @@
         <v>87</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E84" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F84" s="86" t="s">
-        <v>355</v>
+        <v>334</v>
+      </c>
+      <c r="F84" s="85" t="s">
+        <v>360</v>
       </c>
       <c r="G84" s="42" t="s">
         <v>1</v>
@@ -9818,55 +9854,55 @@
         <v>1</v>
       </c>
       <c r="L84" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" ref="L84:L85" si="206">CONCATENATE("", C84)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M84" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" ref="M84:M85" si="207">CONCATENATE("", D84)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N84" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
       </c>
       <c r="O84" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Contenção</v>
-      </c>
-      <c r="P84" s="87" t="s">
-        <v>346</v>
+        <f t="shared" ref="O84:O85" si="208">F84</f>
+        <v>Ferrovia.Ligação</v>
+      </c>
+      <c r="P84" s="84" t="s">
+        <v>339</v>
       </c>
       <c r="Q84" s="44" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="R84" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S84" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" ref="S84:S85" si="209">SUBSTITUTE(C84, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T84" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" ref="T84:T85" si="210">SUBSTITUTE(D84, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U84" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
+        <f t="shared" ref="U84:U85" si="211">SUBSTITUTE(E84, "_", " ")</f>
+        <v>Ferrovia</v>
       </c>
       <c r="V84" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="205"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W84" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="W84:W85" si="212">CONCATENATE("Key.",LEFT(C84,3),".",A84)</f>
         <v>Key.Inf.84</v>
       </c>
       <c r="X84" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y84" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="85" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9880,79 +9916,79 @@
         <v>87</v>
       </c>
       <c r="D85" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E85" s="79" t="s">
+        <v>334</v>
+      </c>
+      <c r="F85" s="85" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K85" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="43" t="str">
+        <f t="shared" si="206"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M85" s="43" t="str">
+        <f t="shared" si="207"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N85" s="43" t="str">
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
+      </c>
+      <c r="O85" s="44" t="str">
+        <f t="shared" si="208"/>
+        <v>Ferrovia.Metro</v>
+      </c>
+      <c r="P85" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="E85" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F85" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="G85" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H85" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I85" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J85" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K85" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L85" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M85" s="43" t="str">
+      <c r="Q85" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="R85" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S85" s="46" t="str">
         <f t="shared" si="209"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T85" s="46" t="str">
+        <f t="shared" si="210"/>
         <v>Ferroviária</v>
       </c>
-      <c r="N85" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O85" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Segurança</v>
-      </c>
-      <c r="P85" s="87" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q85" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="R85" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S85" s="46" t="str">
+      <c r="U85" s="46" t="str">
         <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T85" s="46" t="str">
+        <v>Ferrovia</v>
+      </c>
+      <c r="V85" s="46" t="str">
+        <f t="shared" si="205"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W85" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U85" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V85" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W85" s="20" t="str">
-        <f t="shared" si="183"/>
         <v>Key.Inf.85</v>
       </c>
       <c r="X85" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y85" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9966,13 +10002,13 @@
         <v>87</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E86" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F86" s="86" t="s">
-        <v>353</v>
+        <v>334</v>
+      </c>
+      <c r="F86" s="85" t="s">
+        <v>444</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>1</v>
@@ -9990,55 +10026,55 @@
         <v>1</v>
       </c>
       <c r="L86" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="183"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M86" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="184"/>
         <v>Ferroviária</v>
       </c>
       <c r="N86" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
+        <f t="shared" si="204"/>
+        <v>Ferrovia</v>
       </c>
       <c r="O86" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Dentado</v>
-      </c>
-      <c r="P86" s="87" t="s">
-        <v>348</v>
+        <f t="shared" si="186"/>
+        <v>Monotrilho</v>
+      </c>
+      <c r="P86" s="84" t="s">
+        <v>445</v>
       </c>
       <c r="Q86" s="44" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="R86" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S86" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="187"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T86" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="188"/>
         <v>Ferroviária</v>
       </c>
       <c r="U86" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
+        <f t="shared" si="189"/>
+        <v>Ferrovia</v>
       </c>
       <c r="V86" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="205"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W86" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="192"/>
         <v>Key.Inf.86</v>
       </c>
       <c r="X86" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y86" s="81" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10052,79 +10088,79 @@
         <v>87</v>
       </c>
       <c r="D87" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E87" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F87" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="G87" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L87" s="43" t="str">
+        <f t="shared" ref="L87" si="213">CONCATENATE("", C87)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M87" s="43" t="str">
+        <f t="shared" ref="M87" si="214">CONCATENATE("", D87)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N87" s="43" t="str">
+        <f t="shared" si="204"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O87" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho</v>
+      </c>
+      <c r="P87" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q87" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="R87" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S87" s="46" t="str">
+        <f t="shared" ref="S87" si="215">SUBSTITUTE(C87, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T87" s="46" t="str">
+        <f t="shared" ref="T87" si="216">SUBSTITUTE(D87, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U87" s="46" t="str">
+        <f t="shared" ref="U87" si="217">SUBSTITUTE(E87, "_", " ")</f>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V87" s="46" t="str">
+        <f t="shared" si="205"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W87" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.87</v>
+      </c>
+      <c r="X87" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y87" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F87" s="86" t="s">
-        <v>352</v>
-      </c>
-      <c r="G87" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H87" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I87" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J87" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K87" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L87" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M87" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N87" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O87" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Fixo</v>
-      </c>
-      <c r="P87" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q87" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="R87" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S87" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T87" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U87" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V87" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W87" s="20" t="str">
-        <f t="shared" si="183"/>
-        <v>Key.Inf.87</v>
-      </c>
-      <c r="X87" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y87" s="81" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10138,79 +10174,79 @@
         <v>87</v>
       </c>
       <c r="D88" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E88" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F88" s="86" t="s">
+        <v>355</v>
+      </c>
+      <c r="G88" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I88" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L88" s="43" t="str">
+        <f t="shared" ref="L88:L101" si="218">CONCATENATE("", C88)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M88" s="43" t="str">
+        <f t="shared" ref="M88:M101" si="219">CONCATENATE("", D88)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N88" s="43" t="str">
+        <f t="shared" ref="N88:N101" si="220">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E88),"."," ")," De "," de "))</f>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O88" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Lâmina</v>
+      </c>
+      <c r="P88" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q88" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="R88" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S88" s="46" t="str">
+        <f t="shared" ref="S88:S101" si="221">SUBSTITUTE(C88, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T88" s="46" t="str">
+        <f t="shared" ref="T88:T101" si="222">SUBSTITUTE(D88, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U88" s="46" t="str">
+        <f t="shared" ref="U88:U101" si="223">SUBSTITUTE(E88, "_", " ")</f>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V88" s="46" t="str">
+        <f t="shared" ref="V88:V101" si="224">SUBSTITUTE(C88, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W88" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.88</v>
+      </c>
+      <c r="X88" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y88" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F88" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="G88" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H88" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I88" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J88" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K88" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L88" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M88" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N88" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O88" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.AMV</v>
-      </c>
-      <c r="P88" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q88" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="R88" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S88" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T88" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U88" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V88" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W88" s="20" t="str">
-        <f t="shared" ref="W88:W96" si="215">CONCATENATE("Key.",LEFT(C88,3),".",A88)</f>
-        <v>Key.Inf.88</v>
-      </c>
-      <c r="X88" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y88" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10224,79 +10260,79 @@
         <v>87</v>
       </c>
       <c r="D89" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E89" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F89" s="86" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K89" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L89" s="43" t="str">
+        <f t="shared" si="218"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M89" s="43" t="str">
+        <f t="shared" si="219"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N89" s="43" t="str">
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O89" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Contenção</v>
+      </c>
+      <c r="P89" s="87" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q89" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="R89" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S89" s="46" t="str">
+        <f t="shared" si="221"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T89" s="46" t="str">
+        <f t="shared" si="222"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U89" s="46" t="str">
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V89" s="46" t="str">
+        <f t="shared" si="224"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W89" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.89</v>
+      </c>
+      <c r="X89" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y89" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F89" s="86" t="s">
-        <v>383</v>
-      </c>
-      <c r="G89" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H89" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I89" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J89" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K89" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L89" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M89" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N89" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O89" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Bloqueador</v>
-      </c>
-      <c r="P89" s="87" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q89" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="R89" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S89" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T89" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U89" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V89" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W89" s="20" t="str">
-        <f t="shared" si="215"/>
-        <v>Key.Inf.89</v>
-      </c>
-      <c r="X89" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y89" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10310,79 +10346,79 @@
         <v>87</v>
       </c>
       <c r="D90" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E90" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F90" s="86" t="s">
+        <v>353</v>
+      </c>
+      <c r="G90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" s="43" t="str">
+        <f t="shared" si="218"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M90" s="43" t="str">
+        <f t="shared" si="219"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N90" s="43" t="str">
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O90" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Segurança</v>
+      </c>
+      <c r="P90" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q90" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="R90" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S90" s="46" t="str">
+        <f t="shared" si="221"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T90" s="46" t="str">
+        <f t="shared" si="222"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U90" s="46" t="str">
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V90" s="46" t="str">
+        <f t="shared" si="224"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W90" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.90</v>
+      </c>
+      <c r="X90" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y90" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F90" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="G90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K90" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L90" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M90" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N90" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O90" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Descarrilador</v>
-      </c>
-      <c r="P90" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q90" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="R90" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S90" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T90" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U90" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V90" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W90" s="20" t="str">
-        <f t="shared" si="215"/>
-        <v>Key.Inf.90</v>
-      </c>
-      <c r="X90" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y90" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10396,79 +10432,79 @@
         <v>87</v>
       </c>
       <c r="D91" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E91" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F91" s="86" t="s">
+        <v>352</v>
+      </c>
+      <c r="G91" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" s="43" t="str">
+        <f t="shared" si="218"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M91" s="43" t="str">
+        <f t="shared" si="219"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N91" s="43" t="str">
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O91" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Dentado</v>
+      </c>
+      <c r="P91" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q91" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="R91" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S91" s="46" t="str">
+        <f t="shared" si="221"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T91" s="46" t="str">
+        <f t="shared" si="222"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U91" s="46" t="str">
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V91" s="46" t="str">
+        <f t="shared" si="224"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W91" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.91</v>
+      </c>
+      <c r="X91" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y91" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F91" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="G91" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I91" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J91" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K91" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L91" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M91" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N91" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O91" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Cruz</v>
-      </c>
-      <c r="P91" s="87" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q91" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="R91" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S91" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T91" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U91" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V91" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W91" s="20" t="str">
-        <f t="shared" si="215"/>
-        <v>Key.Inf.91</v>
-      </c>
-      <c r="X91" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y91" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10482,79 +10518,79 @@
         <v>87</v>
       </c>
       <c r="D92" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E92" s="79" t="s">
+        <v>332</v>
+      </c>
+      <c r="F92" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="G92" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I92" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K92" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L92" s="43" t="str">
+        <f t="shared" si="218"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M92" s="43" t="str">
+        <f t="shared" si="219"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N92" s="43" t="str">
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O92" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Fixo</v>
+      </c>
+      <c r="P92" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q92" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="R92" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S92" s="46" t="str">
+        <f t="shared" si="221"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T92" s="46" t="str">
+        <f t="shared" si="222"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U92" s="46" t="str">
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V92" s="46" t="str">
+        <f t="shared" si="224"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W92" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.92</v>
+      </c>
+      <c r="X92" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y92" s="81" t="s">
         <v>333</v>
-      </c>
-      <c r="F92" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I92" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J92" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K92" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L92" s="43" t="str">
-        <f t="shared" si="208"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M92" s="43" t="str">
-        <f t="shared" si="209"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N92" s="43" t="str">
-        <f t="shared" si="210"/>
-        <v>Ferrovia Trilho</v>
-      </c>
-      <c r="O92" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Lâmina.Desviadora</v>
-      </c>
-      <c r="P92" s="87" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q92" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="R92" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S92" s="46" t="str">
-        <f t="shared" si="211"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T92" s="46" t="str">
-        <f t="shared" si="212"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U92" s="46" t="str">
-        <f t="shared" si="213"/>
-        <v>Ferrovia.Trilho</v>
-      </c>
-      <c r="V92" s="46" t="str">
-        <f t="shared" si="214"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W92" s="20" t="str">
-        <f t="shared" si="215"/>
-        <v>Key.Inf.92</v>
-      </c>
-      <c r="X92" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y92" s="84" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10568,13 +10604,13 @@
         <v>87</v>
       </c>
       <c r="D93" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E93" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F93" s="86" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G93" s="42" t="s">
         <v>1</v>
@@ -10592,58 +10628,58 @@
         <v>1</v>
       </c>
       <c r="L93" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M93" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N93" s="43" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="220"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O93" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Dormente</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.AMV</v>
       </c>
       <c r="P93" s="87" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q93" s="44" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="R93" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S93" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T93" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U93" s="46" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="223"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V93" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W93" s="20" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" ref="W93:W101" si="225">CONCATENATE("Key.",LEFT(C93,3),".",A93)</f>
         <v>Key.Inf.93</v>
       </c>
       <c r="X93" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y93" s="84" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>94</v>
       </c>
@@ -10654,13 +10690,13 @@
         <v>87</v>
       </c>
       <c r="D94" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E94" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F94" s="86" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G94" s="42" t="s">
         <v>1</v>
@@ -10678,58 +10714,58 @@
         <v>1</v>
       </c>
       <c r="L94" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M94" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N94" s="43" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="220"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O94" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Regulador.Velocidade</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Bloqueador</v>
       </c>
       <c r="P94" s="87" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="Q94" s="44" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="R94" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S94" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T94" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U94" s="46" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="223"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V94" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W94" s="20" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.94</v>
       </c>
       <c r="X94" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y94" s="84" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>95</v>
       </c>
@@ -10740,13 +10776,13 @@
         <v>87</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E95" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F95" s="86" t="s">
-        <v>441</v>
+        <v>379</v>
       </c>
       <c r="G95" s="42" t="s">
         <v>1</v>
@@ -10764,58 +10800,58 @@
         <v>1</v>
       </c>
       <c r="L95" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M95" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N95" s="43" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="220"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O95" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Batente.Via</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Descarrilador</v>
       </c>
       <c r="P95" s="87" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q95" s="44" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="R95" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S95" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T95" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U95" s="46" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="223"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V95" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W95" s="20" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.95</v>
       </c>
       <c r="X95" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y95" s="84" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>96</v>
       </c>
@@ -10826,13 +10862,13 @@
         <v>87</v>
       </c>
       <c r="D96" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F96" s="86" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="G96" s="42" t="s">
         <v>1</v>
@@ -10850,55 +10886,55 @@
         <v>1</v>
       </c>
       <c r="L96" s="43" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M96" s="43" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N96" s="43" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" si="220"/>
         <v>Ferrovia Trilho</v>
       </c>
       <c r="O96" s="44" t="str">
-        <f t="shared" si="177"/>
-        <v>Trilho.Batente.Veícular</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Cruz</v>
       </c>
       <c r="P96" s="87" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q96" s="44" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="R96" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S96" s="46" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T96" s="46" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U96" s="46" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" si="223"/>
         <v>Ferrovia.Trilho</v>
       </c>
       <c r="V96" s="46" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W96" s="20" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.96</v>
       </c>
       <c r="X96" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y96" s="84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10912,13 +10948,13 @@
         <v>87</v>
       </c>
       <c r="D97" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E97" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F97" s="86" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G97" s="42" t="s">
         <v>1</v>
@@ -10936,52 +10972,52 @@
         <v>1</v>
       </c>
       <c r="L97" s="43" t="str">
-        <f t="shared" ref="L97" si="216">CONCATENATE("", C97)</f>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M97" s="43" t="str">
-        <f t="shared" ref="M97" si="217">CONCATENATE("", D97)</f>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N97" s="43" t="str">
-        <f t="shared" ref="N97" si="218">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E97),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
       </c>
       <c r="O97" s="44" t="str">
-        <f t="shared" ref="O97" si="219">F97</f>
-        <v>Ferrovia.Componente</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Lâmina.Desviadora</v>
       </c>
       <c r="P97" s="87" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q97" s="44" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="R97" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S97" s="46" t="str">
-        <f t="shared" ref="S97" si="220">SUBSTITUTE(C97, "_", " ")</f>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T97" s="46" t="str">
-        <f t="shared" ref="T97" si="221">SUBSTITUTE(D97, "_", " ")</f>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U97" s="46" t="str">
-        <f t="shared" ref="U97" si="222">SUBSTITUTE(E97, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
       </c>
       <c r="V97" s="46" t="str">
-        <f t="shared" ref="V97" si="223">SUBSTITUTE(C97, "_", " ")</f>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W97" s="20" t="str">
-        <f t="shared" ref="W97" si="224">CONCATENATE("Key.",LEFT(C97,3),".",A97)</f>
+        <f t="shared" si="225"/>
         <v>Key.Inf.97</v>
       </c>
       <c r="X97" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y97" s="84" t="s">
         <v>338</v>
@@ -10998,13 +11034,13 @@
         <v>87</v>
       </c>
       <c r="D98" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E98" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G98" s="42" t="s">
         <v>1</v>
@@ -11022,58 +11058,58 @@
         <v>1</v>
       </c>
       <c r="L98" s="43" t="str">
-        <f t="shared" ref="L98:L102" si="225">CONCATENATE("", C98)</f>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M98" s="43" t="str">
-        <f t="shared" ref="M98:M102" si="226">CONCATENATE("", D98)</f>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N98" s="43" t="str">
-        <f t="shared" ref="N98:N102" si="227">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E98),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
       </c>
       <c r="O98" s="44" t="str">
-        <f t="shared" ref="O98:O102" si="228">F98</f>
-        <v>Ferrovia.Margem</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Dormente</v>
       </c>
       <c r="P98" s="87" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q98" s="44" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="R98" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S98" s="46" t="str">
-        <f t="shared" ref="S98:S102" si="229">SUBSTITUTE(C98, "_", " ")</f>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T98" s="46" t="str">
-        <f t="shared" ref="T98:T102" si="230">SUBSTITUTE(D98, "_", " ")</f>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U98" s="46" t="str">
-        <f t="shared" ref="U98:U102" si="231">SUBSTITUTE(E98, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
       </c>
       <c r="V98" s="46" t="str">
-        <f t="shared" ref="V98:V102" si="232">SUBSTITUTE(C98, "_", " ")</f>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W98" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.98</v>
       </c>
       <c r="X98" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y98" s="84" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="41">
         <v>99</v>
       </c>
@@ -11084,13 +11120,13 @@
         <v>87</v>
       </c>
       <c r="D99" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E99" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F99" s="86" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G99" s="42" t="s">
         <v>1</v>
@@ -11108,58 +11144,58 @@
         <v>1</v>
       </c>
       <c r="L99" s="43" t="str">
-        <f t="shared" ref="L99" si="233">CONCATENATE("", C99)</f>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M99" s="43" t="str">
-        <f t="shared" ref="M99" si="234">CONCATENATE("", D99)</f>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N99" s="43" t="str">
-        <f t="shared" ref="N99" si="235">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E99),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
       </c>
       <c r="O99" s="44" t="str">
-        <f t="shared" ref="O99" si="236">F99</f>
-        <v>Ferrovia.Aerea</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Regulador.Velocidade</v>
       </c>
       <c r="P99" s="87" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q99" s="44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="R99" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S99" s="46" t="str">
-        <f t="shared" ref="S99" si="237">SUBSTITUTE(C99, "_", " ")</f>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T99" s="46" t="str">
-        <f t="shared" ref="T99" si="238">SUBSTITUTE(D99, "_", " ")</f>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U99" s="46" t="str">
-        <f t="shared" ref="U99" si="239">SUBSTITUTE(E99, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
       </c>
       <c r="V99" s="46" t="str">
-        <f t="shared" ref="V99" si="240">SUBSTITUTE(C99, "_", " ")</f>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W99" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.99</v>
       </c>
       <c r="X99" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y99" s="84" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="41">
         <v>100</v>
       </c>
@@ -11170,13 +11206,13 @@
         <v>87</v>
       </c>
       <c r="D100" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E100" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F100" s="86" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="G100" s="42" t="s">
         <v>1</v>
@@ -11194,58 +11230,58 @@
         <v>1</v>
       </c>
       <c r="L100" s="43" t="str">
+        <f t="shared" si="218"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M100" s="43" t="str">
+        <f t="shared" si="219"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N100" s="43" t="str">
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
+      </c>
+      <c r="O100" s="44" t="str">
+        <f t="shared" si="186"/>
+        <v>Trilho.Batente.Via</v>
+      </c>
+      <c r="P100" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q100" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="R100" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S100" s="46" t="str">
+        <f t="shared" si="221"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T100" s="46" t="str">
+        <f t="shared" si="222"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U100" s="46" t="str">
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
+      </c>
+      <c r="V100" s="46" t="str">
+        <f t="shared" si="224"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W100" s="20" t="str">
         <f t="shared" si="225"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M100" s="43" t="str">
-        <f t="shared" si="226"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N100" s="43" t="str">
-        <f t="shared" si="227"/>
-        <v>Ferrovia Parte</v>
-      </c>
-      <c r="O100" s="44" t="str">
-        <f t="shared" si="228"/>
-        <v>Ferrovia.Superestrutura</v>
-      </c>
-      <c r="P100" s="87" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q100" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="R100" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S100" s="46" t="str">
-        <f t="shared" si="229"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T100" s="46" t="str">
-        <f t="shared" si="230"/>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U100" s="46" t="str">
-        <f t="shared" si="231"/>
-        <v>Ferrovia.Parte</v>
-      </c>
-      <c r="V100" s="46" t="str">
-        <f t="shared" si="232"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W100" s="20" t="str">
-        <f t="shared" si="183"/>
         <v>Key.Inf.100</v>
       </c>
       <c r="X100" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y100" s="84" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" s="83" customFormat="1" ht="7.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="41">
         <v>101</v>
       </c>
@@ -11256,13 +11292,13 @@
         <v>87</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E101" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F101" s="86" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="G101" s="42" t="s">
         <v>1</v>
@@ -11280,52 +11316,52 @@
         <v>1</v>
       </c>
       <c r="L101" s="43" t="str">
-        <f t="shared" ref="L101" si="241">CONCATENATE("", C101)</f>
+        <f t="shared" si="218"/>
         <v>Infraestrutura</v>
       </c>
       <c r="M101" s="43" t="str">
-        <f t="shared" ref="M101" si="242">CONCATENATE("", D101)</f>
+        <f t="shared" si="219"/>
         <v>Ferroviária</v>
       </c>
       <c r="N101" s="43" t="str">
-        <f t="shared" ref="N101" si="243">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E101),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
+        <f t="shared" si="220"/>
+        <v>Ferrovia Trilho</v>
       </c>
       <c r="O101" s="44" t="str">
-        <f t="shared" ref="O101" si="244">F101</f>
-        <v>Ferrovia.Subestrutura</v>
+        <f t="shared" si="186"/>
+        <v>Trilho.Batente.Veícular</v>
       </c>
       <c r="P101" s="87" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="Q101" s="44" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="R101" s="45" t="s">
         <v>1</v>
       </c>
       <c r="S101" s="46" t="str">
-        <f t="shared" ref="S101" si="245">SUBSTITUTE(C101, "_", " ")</f>
+        <f t="shared" si="221"/>
         <v>Infraestrutura</v>
       </c>
       <c r="T101" s="46" t="str">
-        <f t="shared" ref="T101" si="246">SUBSTITUTE(D101, "_", " ")</f>
+        <f t="shared" si="222"/>
         <v>Ferroviária</v>
       </c>
       <c r="U101" s="46" t="str">
-        <f t="shared" ref="U101" si="247">SUBSTITUTE(E101, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
+        <f t="shared" si="223"/>
+        <v>Ferrovia.Trilho</v>
       </c>
       <c r="V101" s="46" t="str">
-        <f t="shared" ref="V101" si="248">SUBSTITUTE(C101, "_", " ")</f>
+        <f t="shared" si="224"/>
         <v>Infraestrutura</v>
       </c>
       <c r="W101" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" si="225"/>
         <v>Key.Inf.101</v>
       </c>
       <c r="X101" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y101" s="84" t="s">
         <v>338</v>
@@ -11342,13 +11378,13 @@
         <v>87</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E102" s="79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F102" s="86" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G102" s="42" t="s">
         <v>1</v>
@@ -11366,23 +11402,23 @@
         <v>1</v>
       </c>
       <c r="L102" s="43" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="L102" si="226">CONCATENATE("", C102)</f>
         <v>Infraestrutura</v>
       </c>
       <c r="M102" s="43" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" ref="M102" si="227">CONCATENATE("", D102)</f>
         <v>Ferroviária</v>
       </c>
       <c r="N102" s="43" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="N102" si="228">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E102),"."," ")," De "," de "))</f>
         <v>Ferrovia Parte</v>
       </c>
       <c r="O102" s="44" t="str">
-        <f t="shared" si="228"/>
-        <v>Ferrovia.Simples</v>
+        <f t="shared" ref="O102" si="229">F102</f>
+        <v>Ferrovia.Componente</v>
       </c>
       <c r="P102" s="87" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q102" s="44" t="s">
         <v>436</v>
@@ -11391,30 +11427,30 @@
         <v>1</v>
       </c>
       <c r="S102" s="46" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" ref="S102" si="230">SUBSTITUTE(C102, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="T102" s="46" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" ref="T102" si="231">SUBSTITUTE(D102, "_", " ")</f>
         <v>Ferroviária</v>
       </c>
       <c r="U102" s="46" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" ref="U102" si="232">SUBSTITUTE(E102, "_", " ")</f>
         <v>Ferrovia.Parte</v>
       </c>
       <c r="V102" s="46" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" ref="V102" si="233">SUBSTITUTE(C102, "_", " ")</f>
         <v>Infraestrutura</v>
       </c>
       <c r="W102" s="20" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="W102" si="234">CONCATENATE("Key.",LEFT(C102,3),".",A102)</f>
         <v>Key.Inf.102</v>
       </c>
       <c r="X102" s="44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y102" s="84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="103" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11428,79 +11464,79 @@
         <v>87</v>
       </c>
       <c r="D103" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E103" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F103" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G103" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I103" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K103" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L103" s="43" t="str">
+        <f t="shared" ref="L103:L107" si="235">CONCATENATE("", C103)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M103" s="43" t="str">
+        <f t="shared" ref="M103:M107" si="236">CONCATENATE("", D103)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N103" s="43" t="str">
+        <f t="shared" ref="N103:N107" si="237">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E103),"."," ")," De "," de "))</f>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O103" s="44" t="str">
+        <f t="shared" ref="O103:O107" si="238">F103</f>
+        <v>Ferrovia.Margem</v>
+      </c>
+      <c r="P103" s="87" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q103" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="R103" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S103" s="46" t="str">
+        <f t="shared" ref="S103:S107" si="239">SUBSTITUTE(C103, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T103" s="46" t="str">
+        <f t="shared" ref="T103:T107" si="240">SUBSTITUTE(D103, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U103" s="46" t="str">
+        <f t="shared" ref="U103:U107" si="241">SUBSTITUTE(E103, "_", " ")</f>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V103" s="46" t="str">
+        <f t="shared" ref="V103:V107" si="242">SUBSTITUTE(C103, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W103" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.103</v>
+      </c>
+      <c r="X103" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y103" s="84" t="s">
         <v>337</v>
-      </c>
-      <c r="F103" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="G103" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H103" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I103" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J103" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K103" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L103" s="43" t="str">
-        <f t="shared" ref="L103:L104" si="249">CONCATENATE("", C103)</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M103" s="43" t="str">
-        <f t="shared" ref="M103:M104" si="250">CONCATENATE("", D103)</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="N103" s="43" t="str">
-        <f t="shared" ref="N103:N104" si="251">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E103),"."," ")," De "," de "))</f>
-        <v>Ferrovia Parte</v>
-      </c>
-      <c r="O103" s="44" t="str">
-        <f t="shared" ref="O103:O104" si="252">F103</f>
-        <v>Ferrovia.Completa</v>
-      </c>
-      <c r="P103" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q103" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="R103" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S103" s="46" t="str">
-        <f t="shared" ref="S103:S104" si="253">SUBSTITUTE(C103, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T103" s="46" t="str">
-        <f t="shared" ref="T103:T104" si="254">SUBSTITUTE(D103, "_", " ")</f>
-        <v>Ferroviária</v>
-      </c>
-      <c r="U103" s="46" t="str">
-        <f t="shared" ref="U103:U104" si="255">SUBSTITUTE(E103, "_", " ")</f>
-        <v>Ferrovia.Parte</v>
-      </c>
-      <c r="V103" s="46" t="str">
-        <f t="shared" ref="V103:V104" si="256">SUBSTITUTE(C103, "_", " ")</f>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W103" s="20" t="str">
-        <f t="shared" si="183"/>
-        <v>Key.Inf.103</v>
-      </c>
-      <c r="X103" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y103" s="84" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -11514,79 +11550,509 @@
         <v>87</v>
       </c>
       <c r="D104" s="79" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E104" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F104" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="G104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L104" s="43" t="str">
+        <f t="shared" ref="L104" si="243">CONCATENATE("", C104)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M104" s="43" t="str">
+        <f t="shared" ref="M104" si="244">CONCATENATE("", D104)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N104" s="43" t="str">
+        <f t="shared" ref="N104" si="245">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E104),"."," ")," De "," de "))</f>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O104" s="44" t="str">
+        <f t="shared" ref="O104" si="246">F104</f>
+        <v>Ferrovia.Aerea</v>
+      </c>
+      <c r="P104" s="87" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q104" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="R104" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S104" s="46" t="str">
+        <f t="shared" ref="S104" si="247">SUBSTITUTE(C104, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T104" s="46" t="str">
+        <f t="shared" ref="T104" si="248">SUBSTITUTE(D104, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U104" s="46" t="str">
+        <f t="shared" ref="U104" si="249">SUBSTITUTE(E104, "_", " ")</f>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V104" s="46" t="str">
+        <f t="shared" ref="V104" si="250">SUBSTITUTE(C104, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W104" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.104</v>
+      </c>
+      <c r="X104" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y104" s="84" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="86" t="s">
-        <v>392</v>
-      </c>
-      <c r="G104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="I104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K104" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="L104" s="43" t="str">
-        <f t="shared" si="249"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="M104" s="43" t="str">
-        <f t="shared" si="250"/>
+    </row>
+    <row r="105" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="41">
+        <v>105</v>
+      </c>
+      <c r="B105" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E105" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F105" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="G105" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I105" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K105" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="43" t="str">
+        <f t="shared" si="235"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M105" s="43" t="str">
+        <f t="shared" si="236"/>
         <v>Ferroviária</v>
       </c>
-      <c r="N104" s="43" t="str">
-        <f t="shared" si="251"/>
+      <c r="N105" s="43" t="str">
+        <f t="shared" si="237"/>
         <v>Ferrovia Parte</v>
       </c>
-      <c r="O104" s="44" t="str">
-        <f t="shared" si="252"/>
+      <c r="O105" s="44" t="str">
+        <f t="shared" si="238"/>
+        <v>Ferrovia.Superestrutura</v>
+      </c>
+      <c r="P105" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q105" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="R105" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S105" s="46" t="str">
+        <f t="shared" si="239"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T105" s="46" t="str">
+        <f t="shared" si="240"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U105" s="46" t="str">
+        <f t="shared" si="241"/>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V105" s="46" t="str">
+        <f t="shared" si="242"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W105" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.105</v>
+      </c>
+      <c r="X105" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y105" s="84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="41">
+        <v>106</v>
+      </c>
+      <c r="B106" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E106" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F106" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L106" s="43" t="str">
+        <f t="shared" ref="L106" si="251">CONCATENATE("", C106)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M106" s="43" t="str">
+        <f t="shared" ref="M106" si="252">CONCATENATE("", D106)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N106" s="43" t="str">
+        <f t="shared" ref="N106" si="253">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E106),"."," ")," De "," de "))</f>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O106" s="44" t="str">
+        <f t="shared" ref="O106" si="254">F106</f>
+        <v>Ferrovia.Subestrutura</v>
+      </c>
+      <c r="P106" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q106" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="R106" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S106" s="46" t="str">
+        <f t="shared" ref="S106" si="255">SUBSTITUTE(C106, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T106" s="46" t="str">
+        <f t="shared" ref="T106" si="256">SUBSTITUTE(D106, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U106" s="46" t="str">
+        <f t="shared" ref="U106" si="257">SUBSTITUTE(E106, "_", " ")</f>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V106" s="46" t="str">
+        <f t="shared" ref="V106" si="258">SUBSTITUTE(C106, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W106" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.106</v>
+      </c>
+      <c r="X106" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y106" s="84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="41">
+        <v>107</v>
+      </c>
+      <c r="B107" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E107" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" s="86" t="s">
+        <v>385</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L107" s="43" t="str">
+        <f t="shared" si="235"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M107" s="43" t="str">
+        <f t="shared" si="236"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N107" s="43" t="str">
+        <f t="shared" si="237"/>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O107" s="44" t="str">
+        <f t="shared" si="238"/>
+        <v>Ferrovia.Simples</v>
+      </c>
+      <c r="P107" s="87" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q107" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="R107" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S107" s="46" t="str">
+        <f t="shared" si="239"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T107" s="46" t="str">
+        <f t="shared" si="240"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U107" s="46" t="str">
+        <f t="shared" si="241"/>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V107" s="46" t="str">
+        <f t="shared" si="242"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W107" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.107</v>
+      </c>
+      <c r="X107" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y107" s="84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="41">
+        <v>108</v>
+      </c>
+      <c r="B108" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E108" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F108" s="86" t="s">
+        <v>386</v>
+      </c>
+      <c r="G108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K108" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L108" s="43" t="str">
+        <f t="shared" ref="L108:L109" si="259">CONCATENATE("", C108)</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M108" s="43" t="str">
+        <f t="shared" ref="M108:M109" si="260">CONCATENATE("", D108)</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N108" s="43" t="str">
+        <f t="shared" ref="N108:N109" si="261">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E108),"."," ")," De "," de "))</f>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O108" s="44" t="str">
+        <f t="shared" ref="O108:O109" si="262">F108</f>
+        <v>Ferrovia.Completa</v>
+      </c>
+      <c r="P108" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q108" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="R108" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S108" s="46" t="str">
+        <f t="shared" ref="S108:S109" si="263">SUBSTITUTE(C108, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T108" s="46" t="str">
+        <f t="shared" ref="T108:T109" si="264">SUBSTITUTE(D108, "_", " ")</f>
+        <v>Ferroviária</v>
+      </c>
+      <c r="U108" s="46" t="str">
+        <f t="shared" ref="U108:U109" si="265">SUBSTITUTE(E108, "_", " ")</f>
+        <v>Ferrovia.Parte</v>
+      </c>
+      <c r="V108" s="46" t="str">
+        <f t="shared" ref="V108:V109" si="266">SUBSTITUTE(C108, "_", " ")</f>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W108" s="20" t="str">
+        <f t="shared" si="192"/>
+        <v>Key.Inf.108</v>
+      </c>
+      <c r="X108" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y108" s="84" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="41">
+        <v>109</v>
+      </c>
+      <c r="B109" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="C109" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="E109" s="79" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="86" t="s">
+        <v>391</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K109" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L109" s="43" t="str">
+        <f t="shared" si="259"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="M109" s="43" t="str">
+        <f t="shared" si="260"/>
+        <v>Ferroviária</v>
+      </c>
+      <c r="N109" s="43" t="str">
+        <f t="shared" si="261"/>
+        <v>Ferrovia Parte</v>
+      </c>
+      <c r="O109" s="44" t="str">
+        <f t="shared" si="262"/>
         <v>Ferrovia.Dilatação</v>
       </c>
-      <c r="P104" s="87" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q104" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="R104" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S104" s="46" t="str">
-        <f t="shared" si="253"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="T104" s="46" t="str">
-        <f t="shared" si="254"/>
+      <c r="P109" s="87" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q109" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="R109" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S109" s="46" t="str">
+        <f t="shared" si="263"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="T109" s="46" t="str">
+        <f t="shared" si="264"/>
         <v>Ferroviária</v>
       </c>
-      <c r="U104" s="46" t="str">
-        <f t="shared" si="255"/>
+      <c r="U109" s="46" t="str">
+        <f t="shared" si="265"/>
         <v>Ferrovia.Parte</v>
       </c>
-      <c r="V104" s="46" t="str">
-        <f t="shared" si="256"/>
-        <v>Infraestrutura</v>
-      </c>
-      <c r="W104" s="20" t="str">
-        <f t="shared" ref="W104" si="257">CONCATENATE("Key.",LEFT(C104,3),".",A104)</f>
-        <v>Key.Inf.104</v>
-      </c>
-      <c r="X104" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y104" s="84" t="s">
-        <v>338</v>
+      <c r="V109" s="46" t="str">
+        <f t="shared" si="266"/>
+        <v>Infraestrutura</v>
+      </c>
+      <c r="W109" s="20" t="str">
+        <f t="shared" ref="W109" si="267">CONCATENATE("Key.",LEFT(C109,3),".",A109)</f>
+        <v>Key.Inf.109</v>
+      </c>
+      <c r="X109" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y109" s="84" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -11596,20 +12062,20 @@
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F40">
+  <conditionalFormatting sqref="F3:F44">
     <cfRule type="duplicateValues" dxfId="10" priority="217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
+  <conditionalFormatting sqref="F45:F50">
     <cfRule type="duplicateValues" dxfId="9" priority="116"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F74">
+  <conditionalFormatting sqref="F74:F79">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
     <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F1048576 F1:F46">
+  <conditionalFormatting sqref="F110:F1048576 F1:F50">
     <cfRule type="duplicateValues" dxfId="6" priority="121"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F1048576 F1:F74">
+  <conditionalFormatting sqref="F110:F1048576 F1:F79">
     <cfRule type="duplicateValues" dxfId="5" priority="99"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
